--- a/ICC.xlsx
+++ b/ICC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB957BB0-0CAE-4A2C-951A-77040DDFA1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9695F706-857A-4D3F-BA7A-975DB6AD7CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="25">
   <si>
     <t>Mes</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Sep.</t>
-  </si>
-  <si>
-    <t>Actualización: septiembre 2024.</t>
   </si>
   <si>
     <t>Indicador de confianza del consumidor</t>
@@ -161,6 +158,12 @@
       </rPr>
       <t>Diferencia respecto al mes anterior.</t>
     </r>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -245,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -306,12 +309,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -354,11 +379,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -366,53 +395,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Geomanist"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Geomanist"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -482,6 +464,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -497,10 +486,50 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Geomanist"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Geomanist"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
-        </bottom>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -517,20 +546,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F85" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="B4:F85" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F86" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B4:F86" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
     <filterColumn colId="0">
       <filters>
+        <filter val="2023"/>
         <filter val="2024"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3775C2E6-4032-4B99-A3A4-253F0516A22C}" name="Año" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{8243A462-5C5C-481C-AEC2-0E0CEA614E80}" name="Mes" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{3D2C093A-109B-4602-897A-FD78F861AEA9}" name="Indicador de confianza del consumidor" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{AD6FA560-1B36-4692-8FB4-D7F8F6D08C11}" name="Diferencia mensual a" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{0C04FC96-C062-446D-9575-8BB164FFAC4F}" name="Diferencia anual b" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{3775C2E6-4032-4B99-A3A4-253F0516A22C}" name="Año" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{8243A462-5C5C-481C-AEC2-0E0CEA614E80}" name="Mes" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{3D2C093A-109B-4602-897A-FD78F861AEA9}" name="Indicador de confianza del consumidor" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{AD6FA560-1B36-4692-8FB4-D7F8F6D08C11}" name="Diferencia mensual a" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{0C04FC96-C062-446D-9575-8BB164FFAC4F}" name="Diferencia anual b" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -759,9 +789,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O94"/>
+  <dimension ref="B2:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -782,7 +812,7 @@
   <sheetData>
     <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -800,7 +830,7 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -824,1455 +854,1472 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="5" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>2024</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="11">
+        <v>49.390445552747003</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1.9677444790690046</v>
+      </c>
+      <c r="F5" s="11">
+        <v>3.3826330738610011</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D6" s="9">
         <v>47.422701073677999</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E6" s="9">
         <v>-0.34914647427800105</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F6" s="9">
         <v>0.2741832153719983</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
         <v>2024</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <v>47.771847547956</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="11">
         <v>0.60438356143600203</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F7" s="11">
         <v>0.86680192192800121</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
         <v>2024</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D8" s="9">
         <v>47.167463986519998</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="9">
         <v>-0.32732009288000086</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F8" s="9">
         <v>0.64676499533700138</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
         <v>2024</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="11">
         <v>47.494784079399999</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E9" s="11">
         <v>0.67630293906899652</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F9" s="11">
         <v>2.1675441261789956</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
         <v>2024</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="9">
         <v>46.818481140331002</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>-0.41822270022599639</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="9">
         <v>1.9966085349420055</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <v>47.236703840556999</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="11">
         <v>6.0124123152995423E-2</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <v>3.1067289936199955</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
         <v>2024</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="9">
         <v>47.176579717404003</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="9">
         <v>9.2803068120005605E-2</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F12" s="9">
         <v>2.7733249948390011</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>47.083776649283998</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="11">
         <v>7.1044591989995354E-2</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="11">
         <v>2.3450740601379962</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D14" s="13">
         <v>47.012732057294002</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="13">
         <v>0.31364485292100142</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>2.7519151831910023</v>
       </c>
     </row>
-    <row r="14" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="20">
         <v>2023</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D15" s="15">
         <v>46.699087204373001</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E15" s="15">
         <v>-0.25794379210999807</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F15" s="19">
         <v>3.9015757966660018</v>
       </c>
     </row>
-    <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
         <v>2023</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D16" s="9">
         <v>46.957030996482999</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="9">
         <v>0.94921851759699649</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <v>5.0727448405559983</v>
       </c>
     </row>
-    <row r="16" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="10">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
         <v>2023</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <v>46.007812478886002</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="11">
         <v>-1.1407053794199982</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F17" s="11">
         <v>4.5252580147820041</v>
       </c>
     </row>
-    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="8">
         <v>2023</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D18" s="9">
         <v>47.148517858306001</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="9">
         <v>0.24347223227800185</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="9">
         <v>5.7908520503119973</v>
       </c>
     </row>
-    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="10">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
         <v>2023</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>46.905045626027999</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="11">
         <v>0.3843466348450022</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F19" s="11">
         <v>5.9287752867479995</v>
       </c>
     </row>
-    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
         <v>2023</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D20" s="9">
         <v>46.520698991182996</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="9">
         <v>1.1934590379619934</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="9">
         <v>5.2076997239229996</v>
       </c>
     </row>
-    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="10">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
         <v>2023</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <v>45.327239953221003</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="11">
         <v>0.50536734783200643</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="11">
         <v>2.5974161936300035</v>
       </c>
     </row>
-    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="8">
         <v>2023</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D22" s="9">
         <v>44.821872605388997</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E22" s="9">
         <v>0.69189775845199364</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F22" s="9">
         <v>0.83022703554100019</v>
       </c>
     </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="10">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>44.129974846937003</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="11">
         <v>-0.27327987562799905</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="11">
         <v>0.23515349839700406</v>
       </c>
     </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="8">
         <v>2023</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D24" s="9">
         <v>44.403254722565002</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E24" s="9">
         <v>-0.33544786658099923</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F24" s="9">
         <v>0.8672874619440023</v>
       </c>
     </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="10">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11">
         <v>44.738702589146001</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="11">
         <v>0.47788571504300137</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="11">
         <v>1.6084502123290036</v>
       </c>
     </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="12">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D26" s="13">
         <v>44.260816874103</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="13">
         <v>1.463305466396001</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>1.1982961543330006</v>
       </c>
     </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="10">
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
         <v>2022</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>42.797511407706999</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="11">
         <v>0.91322525177999836</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="11">
         <v>-1.5826848438710002</v>
       </c>
     </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8">
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8">
         <v>2022</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D28" s="9">
         <v>41.884286155927001</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="9">
         <v>0.40173169182300228</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>-4.2838292165539968</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="10">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="10">
         <v>2022</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>41.482554464103998</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="11">
         <v>0.12488865610999511</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="11">
         <v>-2.4515114902579995</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8">
         <v>2022</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D30" s="9">
         <v>41.357665807994003</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="9">
         <v>0.38139546871400398</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="9">
         <v>-2.437004239114998</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="10">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="10">
         <v>2022</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <v>40.976270339279999</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="11">
         <v>-0.33672892797999765</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F31" s="11">
         <v>-2.0908864724629979</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8">
         <v>2022</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D32" s="9">
         <v>41.312999267259997</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="9">
         <v>-1.4168244923310027</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F32" s="9">
         <v>-2.9645817957340057</v>
       </c>
     </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="10">
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="10">
         <v>2022</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <v>42.729823759591</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E33" s="11">
         <v>-1.2618218102569969</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F33" s="11">
         <v>-1.1791047588610013</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8">
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8">
         <v>2022</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D34" s="9">
         <v>43.991645569847996</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="9">
         <v>9.6824221307997504E-2</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F34" s="9">
         <v>1.388137048136997</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="10">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="10">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>43.894821348539999</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="11">
         <v>0.3588540879189992</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F35" s="11">
         <v>1.6997564136029979</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="8">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="8">
         <v>2022</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D36" s="9">
         <v>43.535967260621</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E36" s="9">
         <v>0.40571488380400211</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F36" s="9">
         <v>2.8589402874790011</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="10">
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <v>43.130252376816998</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E37" s="11">
         <v>6.773165704699835E-2</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F37" s="11">
         <v>4.1987350005709985</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="12">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D38" s="13">
         <v>43.062520719769999</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E38" s="13">
         <v>-1.3176755318079998</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="13">
         <v>4.2563999563259998</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="14">
+    <row r="39" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="14">
         <v>2021</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C39" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D39" s="15">
         <v>44.380196251577999</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E39" s="15">
         <v>-1.7879191209029983</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F39" s="15">
         <v>6.1019382128650008</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="8">
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="8">
         <v>2021</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D40" s="9">
         <v>46.168115372480997</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="9">
         <v>2.2340494181189996</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F40" s="9">
         <v>8.9312355347479979</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="10">
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="10">
         <v>2021</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <v>43.934065954361998</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E41" s="11">
         <v>0.13939590725299666</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F41" s="11">
         <v>6.0094999648199945</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="8">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="8">
         <v>2021</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D42" s="9">
         <v>43.794670047109001</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E42" s="9">
         <v>0.7275132353660041</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F42" s="9">
         <v>7.2245496853110041</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="10">
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="10">
         <v>2021</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <v>43.067156811742997</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E43" s="11">
         <v>-1.2104242512510055</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F43" s="11">
         <v>7.6651581369719963</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="8">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="8">
         <v>2021</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D44" s="9">
         <v>44.277581062994003</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="9">
         <v>0.36865254454200169</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F44" s="9">
         <v>9.9413081134769996</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="10">
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="10">
         <v>2021</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <v>43.908928518452001</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E45" s="11">
         <v>1.3054199967410014</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F45" s="11">
         <v>12.206112396842002</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="8">
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="8">
         <v>2021</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D46" s="9">
         <v>42.603508521710999</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="9">
         <v>0.40844358677399839</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F46" s="9">
         <v>11.461694444580999</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="10">
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="10">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>42.195064934937001</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="11">
         <v>1.5180379617950024</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F47" s="11">
         <v>10.127811241994003</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="8">
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="8">
         <v>2021</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D48" s="9">
         <v>40.677026973141999</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E48" s="9">
         <v>1.7455095968959995</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F48" s="9">
         <v>-1.6261194638559999</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="10">
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="11">
         <v>38.931517376245999</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E49" s="11">
         <v>0.12539661280199965</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F49" s="11">
         <v>-4.8760747220839988</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="12">
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C50" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D50" s="13">
         <v>38.806120763444</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E50" s="13">
         <v>0.52786272473100126</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <v>-4.9454430540099992</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="14">
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="14">
         <v>2020</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D51" s="15">
         <v>38.278258038712998</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E51" s="15">
         <v>1.0413782009799988</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F51" s="15">
         <v>-4.9318171271640026</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="8">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="8">
         <v>2020</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D52" s="9">
         <v>37.236879837732999</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E52" s="9">
         <v>-0.68768615180900383</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F52" s="9">
         <v>-6.7247565943400005</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="10">
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="10">
         <v>2020</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="11">
         <v>37.924565989542003</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E53" s="11">
         <v>1.3544456277440062</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F53" s="11">
         <v>-6.1198410863449979</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="8">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="8">
         <v>2020</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D54" s="9">
         <v>36.570120361797997</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E54" s="9">
         <v>1.1681216870269964</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F54" s="9">
         <v>-9.0660737591379998</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="10">
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="10">
         <v>2020</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <v>35.401998674771001</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E55" s="11">
         <v>1.0657257252539978</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F55" s="11">
         <v>-8.6302736901109967</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="8">
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="8">
         <v>2020</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D56" s="9">
         <v>34.336272949517003</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E56" s="9">
         <v>2.6334568279070041</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F56" s="9">
         <v>-8.7936196097269956</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="10">
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="10">
         <v>2020</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <v>31.702816121609999</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E57" s="11">
         <v>0.56100204447999857</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F57" s="11">
         <v>-11.636228398237002</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="8">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="8">
         <v>2020</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D58" s="9">
         <v>31.14181407713</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E58" s="9">
         <v>-0.92543961581299783</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F58" s="9">
         <v>-13.130125569466003</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="10">
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>32.067253692942998</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="11">
         <v>-10.235892744055</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F59" s="11">
         <v>-13.363080195517</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="8">
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="8">
         <v>2020</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D60" s="9">
         <v>42.303146436997999</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E60" s="9">
         <v>-1.5044456613319994</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F60" s="9">
         <v>-4.5257098960519997</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="10">
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <v>43.807592098329998</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E61" s="11">
         <v>5.6028280875999315E-2</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F61" s="11">
         <v>-4.6761399973810001</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="12">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D62" s="13">
         <v>43.751563817453999</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E62" s="13">
         <v>0.54148865157699788</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F62" s="13">
         <v>-1.8917637683180004</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="14">
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="14">
         <v>2019</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D63" s="15">
         <v>43.210075165877001</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E63" s="15">
         <v>-0.75156126619599917</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F63" s="15">
         <v>-1.0954453507330015</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="8">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="8">
         <v>2019</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D64" s="9">
         <v>43.961636432073</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E64" s="9">
         <v>-8.2770643814001232E-2</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F64" s="9">
         <v>2.3086234023200021</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="10">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="10">
         <v>2019</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <v>44.044407075887001</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="11">
         <v>-1.5917870450489957</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F65" s="11">
         <v>1.5026327873970047</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="8">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="8">
         <v>2019</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D66" s="9">
         <v>45.636194120935997</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E66" s="9">
         <v>1.6039217560539996</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F66" s="9">
         <v>3.2083345106829952</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="10">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="10">
         <v>2019</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <v>44.032272364881997</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E67" s="11">
         <v>0.9023798056379988</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F67" s="11">
         <v>0.96940808656999877</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="8">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="8">
         <v>2019</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D68" s="9">
         <v>43.129892559243999</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E68" s="9">
         <v>-0.2091519606030019</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F68" s="9">
         <v>5.817308057899595E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="10">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="10">
         <v>2019</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <v>43.339044519847</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E69" s="11">
         <v>-0.93289512674900266</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F69" s="11">
         <v>6.4845736085799999</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="8">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="8">
         <v>2019</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D70" s="9">
         <v>44.271939646596003</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E70" s="9">
         <v>-1.158394241863995</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F70" s="9">
         <v>7.7705737811700004</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="10">
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <v>45.430333888459998</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="11">
         <v>-1.3985224445900002</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="11">
         <v>9.7258002911190005</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="8">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="8">
         <v>2019</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D72" s="9">
         <v>46.828856333049998</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E72" s="9">
         <v>-1.6548757626609998</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F72" s="9">
         <v>12.070208251071996</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="10">
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <v>48.483732095710998</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E73" s="11">
         <v>2.840404509938999</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F73" s="11">
         <v>13.745317092660997</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="12">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D74" s="13">
         <v>45.643327585771999</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E74" s="13">
         <v>1.3378070691619968</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F74" s="13">
         <v>11.015211696451999</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="10">
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="10">
         <v>2018</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>44.305520516610002</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>2.6525074868570044</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="11">
         <v>8.4322422975860007</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="8">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="8">
         <v>2018</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D76" s="9">
         <v>41.653013029752998</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E76" s="9">
         <v>-0.88876125873699863</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F76" s="9">
         <v>5.0220418940419975</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="10">
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="10">
         <v>2018</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>42.541774288489997</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E77" s="11">
         <v>0.11391467823699486</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F77" s="11">
         <v>6.018463451561999</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="8">
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="8">
         <v>2018</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D78" s="9">
         <v>42.427859610253002</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E78" s="9">
         <v>-0.63500466805899691</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F78" s="9">
         <v>5.3906644447230008</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="10">
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="10">
         <v>2018</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <v>43.062864278311999</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E79" s="11">
         <v>-8.8552003530040224E-3</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F79" s="11">
         <v>6.546707063821998</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="8">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="8">
         <v>2018</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D80" s="9">
         <v>43.071719478665003</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E80" s="9">
         <v>6.217248567398002</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F80" s="9">
         <v>6.8551094785199993</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="10">
+    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="10">
         <v>2018</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <v>36.854470911267001</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E81" s="11">
         <v>0.35310504584099789</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F81" s="11">
         <v>1.232312911672004</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="8">
+    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="8">
         <v>2018</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D82" s="9">
         <v>36.501365865426003</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E82" s="9">
         <v>0.79683226808500507</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F82" s="9">
         <v>0.91039557353600031</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="10">
+    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>35.704533597340998</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="11">
         <v>0.94588551536299548</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="11">
         <v>0.62780047906499448</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="8">
+    <row r="84" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="8">
         <v>2018</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C84" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D84" s="9">
         <v>34.758648081978002</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E84" s="9">
         <v>2.0233078928001191E-2</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F84" s="9">
         <v>0.52966728432000565</v>
-      </c>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-    </row>
-    <row r="84" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="10">
-        <v>2018</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="11">
-        <v>34.738415003050001</v>
-      </c>
-      <c r="E84" s="11">
-        <v>0.1102991137300009</v>
-      </c>
-      <c r="F84" s="11">
-        <v>2.589934707657001</v>
       </c>
       <c r="G84" s="16"/>
       <c r="H84" s="16"/>
     </row>
     <row r="85" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="8">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="9">
-        <v>34.62811588932</v>
-      </c>
-      <c r="E85" s="9">
-        <v>-1.2451623297040015</v>
-      </c>
-      <c r="F85" s="9">
-        <v>6.0246735379449987</v>
+      <c r="C85" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="11">
+        <v>34.738415003050001</v>
+      </c>
+      <c r="E85" s="11">
+        <v>0.1102991137300009</v>
+      </c>
+      <c r="F85" s="11">
+        <v>2.589934707657001</v>
       </c>
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
-      <c r="L85" s="16"/>
-    </row>
-    <row r="86" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="86" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="9">
+        <v>34.62811588932</v>
+      </c>
+      <c r="E86" s="9">
+        <v>-1.2451623297040015</v>
+      </c>
+      <c r="F86" s="9">
+        <v>6.0246735379449987</v>
       </c>
       <c r="G86" s="16"/>
       <c r="H86" s="16"/>
       <c r="L86" s="16"/>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="16"/>
-    </row>
-    <row r="88" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B88" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="L87" s="16"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="16"/>
     </row>
     <row r="89" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="16"/>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B91" s="17"/>
+      <c r="B91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" s="17"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
+      <c r="B93" s="17"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E93:F93"/>
     <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ICC.xlsx
+++ b/ICC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C412E6-10B4-4378-8A62-0ABE7BA5A29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998CE445-391E-45B9-BDD1-59E123DB430B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="25">
   <si>
     <t>Mes</t>
   </si>
@@ -168,7 +168,7 @@
     </r>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -574,8 +574,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F87" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B4:F87" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F88" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B4:F88" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -895,20 +895,20 @@
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="10">
+      <c r="B5" s="13">
         <v>2024</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11">
-        <v>47.643576655897</v>
-      </c>
-      <c r="E5" s="11">
-        <v>-1.6327169313389973</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0.49478886671400346</v>
+      <c r="C5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14">
+        <v>47.122477262973</v>
+      </c>
+      <c r="E5" s="14">
+        <v>-0.52109939292400043</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.23154044895800041</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -917,20 +917,20 @@
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>2024</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="14">
-        <v>49.276293587235998</v>
-      </c>
-      <c r="E6" s="14">
-        <v>2.0776044818559996</v>
-      </c>
-      <c r="F6" s="14">
-        <v>3.3379367580489969</v>
+      <c r="C6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11">
+        <v>47.643576655897</v>
+      </c>
+      <c r="E6" s="11">
+        <v>-1.6327169313389973</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.68654565941400136</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -939,20 +939,20 @@
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="10">
+      <c r="B7" s="13">
         <v>2024</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="11">
-        <v>47.198689105379998</v>
-      </c>
-      <c r="E7" s="11">
-        <v>-0.44330403822500131</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0.22834460607300144</v>
+      <c r="C7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="14">
+        <v>49.276293587235998</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2.0776044818559996</v>
+      </c>
+      <c r="F7" s="14">
+        <v>3.2684811083499952</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -961,20 +961,20 @@
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>2024</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="14">
-        <v>47.641993143604999</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0.52708275272100025</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0.84775234599599969</v>
+      <c r="C8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="11">
+        <v>47.198689105379998</v>
+      </c>
+      <c r="E8" s="11">
+        <v>-0.44330403822500131</v>
+      </c>
+      <c r="F8" s="11">
+        <v>5.0171247073997449E-2</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -982,20 +982,20 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="10">
+      <c r="B9" s="13">
         <v>2024</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="11">
-        <v>47.114910390883999</v>
-      </c>
-      <c r="E9" s="11">
-        <v>-0.3741556758170006</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0.64346684161199619</v>
+      <c r="C9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="14">
+        <v>47.641993143604999</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.52708275272100025</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.73694751757700061</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1003,20 +1003,20 @@
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>2024</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="14">
-        <v>47.489066066701</v>
-      </c>
-      <c r="E10" s="14">
-        <v>0.63986853023700263</v>
-      </c>
-      <c r="F10" s="14">
-        <v>2.1747420058179969</v>
+      <c r="C10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="11">
+        <v>47.114910390883999</v>
+      </c>
+      <c r="E10" s="11">
+        <v>-0.37987368851599967</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.59421139970100256</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -1024,20 +1024,20 @@
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="10">
+      <c r="B11" s="13">
         <v>2024</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="11">
-        <v>46.849197536463997</v>
-      </c>
-      <c r="E11" s="11">
-        <v>-0.40423720758300163</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1.9992550765359951</v>
+      <c r="C11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="14">
+        <v>47.494784079399999</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.67648537510899587</v>
+      </c>
+      <c r="F11" s="14">
+        <v>2.1675441261789956</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1045,20 +1045,20 @@
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="14">
-        <v>47.253434744046999</v>
-      </c>
-      <c r="E12" s="14">
-        <v>7.0034837910000647E-2</v>
-      </c>
-      <c r="F12" s="14">
-        <v>3.1062406509320013</v>
+      <c r="C12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="11">
+        <v>46.818298704291003</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-0.4351360397559958</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1.9964260989020062</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -1066,20 +1066,20 @@
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="10">
+      <c r="B13" s="13">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="11">
-        <v>47.183399906136998</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.10246244158499707</v>
-      </c>
-      <c r="F13" s="11">
-        <v>2.767198480367</v>
+      <c r="C13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="14">
+        <v>47.253434744046999</v>
+      </c>
+      <c r="E13" s="14">
+        <v>7.9645966488996578E-2</v>
+      </c>
+      <c r="F13" s="14">
+        <v>3.1234598971099956</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -1087,20 +1087,20 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="13">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="14">
-        <v>47.080937464552001</v>
-      </c>
-      <c r="E14" s="14">
-        <v>6.8651802706000353E-2</v>
-      </c>
-      <c r="F14" s="14">
-        <v>2.3339807446020018</v>
+      <c r="C14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11">
+        <v>47.173788777558002</v>
+      </c>
+      <c r="E14" s="11">
+        <v>9.5685143427999719E-2</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2.770534054993</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -1108,41 +1108,41 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <v>2024</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="17">
-        <v>47.012285661846001</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0.12134884783100119</v>
-      </c>
-      <c r="F15" s="17">
-        <v>2.7387938181130025</v>
+      <c r="C15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="14">
+        <v>47.078103634130002</v>
+      </c>
+      <c r="E15" s="14">
+        <v>6.5371576836000145E-2</v>
+      </c>
+      <c r="F15" s="14">
+        <v>2.339401044984001</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="18">
-        <v>2023</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="20">
-        <v>46.890936814014999</v>
-      </c>
-      <c r="E16" s="20">
-        <v>-0.25785097516799738</v>
-      </c>
-      <c r="F16" s="21">
-        <v>3.9962380174290004</v>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="16">
+        <v>2024</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="17">
+        <v>47.012732057294002</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.12179524327900282</v>
+      </c>
+      <c r="F16" s="17">
+        <v>2.7519151831910023</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -1150,20 +1150,20 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="10">
+      <c r="B17" s="18">
         <v>2023</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="11">
-        <v>47.148787789182997</v>
-      </c>
-      <c r="E17" s="11">
-        <v>1.2104309599959961</v>
-      </c>
-      <c r="F17" s="11">
-        <v>5.1422030973159991</v>
+      <c r="C17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="20">
+        <v>46.890936814014999</v>
+      </c>
+      <c r="E17" s="20">
+        <v>-6.6094182467999474E-2</v>
+      </c>
+      <c r="F17" s="21">
+        <v>4.0065449682820002</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -1171,20 +1171,20 @@
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="13">
+      <c r="B18" s="10">
         <v>2023</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="14">
-        <v>45.938356829187001</v>
-      </c>
-      <c r="E18" s="14">
-        <v>-1.0319876701199959</v>
-      </c>
-      <c r="F18" s="14">
-        <v>4.5202014011750009</v>
+      <c r="C18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="11">
+        <v>46.957030996482999</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.94921851759699649</v>
+      </c>
+      <c r="F18" s="11">
+        <v>5.0727448405559983</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -1192,20 +1192,20 @@
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="10">
+      <c r="B19" s="13">
         <v>2023</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="11">
-        <v>46.970344499306997</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0.17610370169799694</v>
-      </c>
-      <c r="F19" s="11">
-        <v>5.7013251266269975</v>
+      <c r="C19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="14">
+        <v>46.007812478886002</v>
+      </c>
+      <c r="E19" s="14">
+        <v>-1.1407053794199982</v>
+      </c>
+      <c r="F19" s="14">
+        <v>4.5252580147820041</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1213,20 +1213,20 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="13">
+      <c r="B20" s="10">
         <v>2023</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="14">
-        <v>46.794240797609</v>
-      </c>
-      <c r="E20" s="14">
-        <v>0.32279724833699674</v>
-      </c>
-      <c r="F20" s="14">
-        <v>5.8814307210519985</v>
+      <c r="C20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="11">
+        <v>47.148517858306001</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.24347223227800185</v>
+      </c>
+      <c r="F20" s="11">
+        <v>5.7908520503119973</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -1234,20 +1234,20 @@
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="10">
+      <c r="B21" s="13">
         <v>2023</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="11">
-        <v>46.471443549272003</v>
-      </c>
-      <c r="E21" s="11">
-        <v>1.1571194883890001</v>
-      </c>
-      <c r="F21" s="11">
-        <v>5.1904496481720059</v>
+      <c r="C21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="14">
+        <v>46.905045626027999</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0.3843466348450022</v>
+      </c>
+      <c r="F21" s="14">
+        <v>5.9287752867479995</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -1255,20 +1255,20 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="13">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="14">
-        <v>45.314324060883003</v>
-      </c>
-      <c r="E22" s="14">
-        <v>0.46438160095500081</v>
-      </c>
-      <c r="F22" s="14">
-        <v>2.6002255921669999</v>
+      <c r="C22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="11">
+        <v>46.520698991182996</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1.1934590379619934</v>
+      </c>
+      <c r="F22" s="11">
+        <v>5.2076997239229996</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -1276,20 +1276,20 @@
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="10">
+      <c r="B23" s="13">
         <v>2023</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="11">
-        <v>44.849942459928002</v>
-      </c>
-      <c r="E23" s="11">
-        <v>0.70274836681300457</v>
-      </c>
-      <c r="F23" s="11">
-        <v>0.83760502258699887</v>
+      <c r="C23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="14">
+        <v>45.327239953221003</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0.50536734783200643</v>
+      </c>
+      <c r="F23" s="14">
+        <v>2.5974161936300035</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -1297,20 +1297,20 @@
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="13">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="14">
-        <v>44.147194093114997</v>
-      </c>
-      <c r="E24" s="14">
-        <v>-0.26900733265500065</v>
-      </c>
-      <c r="F24" s="14">
-        <v>0.23789167938899425</v>
+      <c r="C24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="11">
+        <v>44.821872605388997</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.69189775845199364</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0.83022703554100019</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -1318,20 +1318,20 @@
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="10">
+      <c r="B25" s="13">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="11">
-        <v>44.416201425769998</v>
-      </c>
-      <c r="E25" s="11">
-        <v>-0.33075529418000116</v>
-      </c>
-      <c r="F25" s="11">
-        <v>0.86614049670399851</v>
+      <c r="C25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="14">
+        <v>44.129974846937003</v>
+      </c>
+      <c r="E25" s="14">
+        <v>-0.27327987562799905</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0.23515349839700406</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -1339,20 +1339,20 @@
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="13">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="14">
-        <v>44.746956719949999</v>
-      </c>
-      <c r="E26" s="14">
-        <v>0.47346487621700106</v>
-      </c>
-      <c r="F26" s="14">
-        <v>1.6029569974739957</v>
+      <c r="C26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="11">
+        <v>44.403254722565002</v>
+      </c>
+      <c r="E26" s="11">
+        <v>-0.33544786658099923</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0.8672874619440023</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
@@ -1360,20 +1360,20 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="16">
+      <c r="B27" s="13">
         <v>2023</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="17">
-        <v>44.273491843732998</v>
-      </c>
-      <c r="E27" s="17">
-        <v>1.3787930471469991</v>
-      </c>
-      <c r="F27" s="17">
-        <v>1.1930429733879961</v>
+      <c r="C27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="14">
+        <v>44.738702589146001</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0.47788571504300137</v>
+      </c>
+      <c r="F27" s="14">
+        <v>1.6084502123290036</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -1381,20 +1381,20 @@
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="13">
-        <v>2022</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="14">
-        <v>42.894698796585999</v>
-      </c>
-      <c r="E28" s="14">
-        <v>0.88811410471900132</v>
-      </c>
-      <c r="F28" s="14">
-        <v>-1.5236747338789982</v>
+      <c r="B28" s="16">
+        <v>2023</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="17">
+        <v>44.260816874103</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1.3764250283700008</v>
+      </c>
+      <c r="F28" s="17">
+        <v>1.1982961543330006</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
@@ -1402,20 +1402,20 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="10">
+      <c r="B29" s="13">
         <v>2022</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="11">
-        <v>42.006584691866998</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0.58842926385499794</v>
-      </c>
-      <c r="F29" s="11">
-        <v>-4.2386979603070003</v>
+      <c r="C29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="14">
+        <v>42.884391845732999</v>
+      </c>
+      <c r="E29" s="14">
+        <v>1.0001056898059986</v>
+      </c>
+      <c r="F29" s="14">
+        <v>-1.495804405845</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -1423,20 +1423,20 @@
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="13">
+      <c r="B30" s="10">
         <v>2022</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="14">
-        <v>41.418155428012</v>
-      </c>
-      <c r="E30" s="14">
-        <v>0.14913605533200069</v>
-      </c>
-      <c r="F30" s="14">
-        <v>-2.4684493217419998</v>
+      <c r="C30" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="11">
+        <v>41.884286155927001</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.40173169182300228</v>
+      </c>
+      <c r="F30" s="11">
+        <v>-4.2838292165539968</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -1444,20 +1444,20 @@
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="10">
+      <c r="B31" s="13">
         <v>2022</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="11">
-        <v>41.269019372679999</v>
-      </c>
-      <c r="E31" s="11">
-        <v>0.3562092961229979</v>
-      </c>
-      <c r="F31" s="11">
-        <v>-2.4847701558740027</v>
+      <c r="C31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="14">
+        <v>41.482554464103998</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0.12488865610999511</v>
+      </c>
+      <c r="F31" s="14">
+        <v>-2.4515114902579995</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -1465,20 +1465,20 @@
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="13">
+      <c r="B32" s="10">
         <v>2022</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="14">
-        <v>40.912810076557001</v>
-      </c>
-      <c r="E32" s="14">
-        <v>-0.36818382454299581</v>
-      </c>
-      <c r="F32" s="14">
-        <v>-2.1166454305449989</v>
+      <c r="C32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="11">
+        <v>41.357665807994003</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0.38139546871400398</v>
+      </c>
+      <c r="F32" s="11">
+        <v>-2.437004239114998</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
@@ -1486,20 +1486,20 @@
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="10">
+      <c r="B33" s="13">
         <v>2022</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="11">
-        <v>41.280993901099997</v>
-      </c>
-      <c r="E33" s="11">
-        <v>-1.4331045676160059</v>
-      </c>
-      <c r="F33" s="11">
-        <v>-2.9737364639190034</v>
+      <c r="C33" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="14">
+        <v>40.976270339279999</v>
+      </c>
+      <c r="E33" s="14">
+        <v>-0.33672892797999765</v>
+      </c>
+      <c r="F33" s="14">
+        <v>-2.0908864724629979</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
@@ -1507,20 +1507,20 @@
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="13">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="14">
-        <v>42.714098468716003</v>
-      </c>
-      <c r="E34" s="14">
-        <v>-1.2982389686250002</v>
-      </c>
-      <c r="F34" s="14">
-        <v>-1.1757725209449958</v>
+      <c r="C34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="11">
+        <v>41.312999267259997</v>
+      </c>
+      <c r="E34" s="11">
+        <v>-1.4168244923310027</v>
+      </c>
+      <c r="F34" s="11">
+        <v>-2.9645817957340057</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
@@ -1528,20 +1528,20 @@
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="10">
+      <c r="B35" s="13">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="11">
-        <v>44.012337437341003</v>
-      </c>
-      <c r="E35" s="11">
-        <v>0.10303502361499994</v>
-      </c>
-      <c r="F35" s="11">
-        <v>1.3956396860249995</v>
+      <c r="C35" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="14">
+        <v>42.729823759591</v>
+      </c>
+      <c r="E35" s="14">
+        <v>-1.2618218102569969</v>
+      </c>
+      <c r="F35" s="14">
+        <v>-1.1791047588610013</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
@@ -1549,20 +1549,20 @@
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="13">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="14">
-        <v>43.909302413726003</v>
-      </c>
-      <c r="E36" s="14">
-        <v>0.35924148466000361</v>
-      </c>
-      <c r="F36" s="14">
-        <v>1.7054257662110004</v>
+      <c r="C36" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="11">
+        <v>43.991645569847996</v>
+      </c>
+      <c r="E36" s="11">
+        <v>9.6824221307997504E-2</v>
+      </c>
+      <c r="F36" s="11">
+        <v>1.388137048136997</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
@@ -1570,20 +1570,20 @@
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="10">
+      <c r="B37" s="13">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="11">
-        <v>43.550060929065999</v>
-      </c>
-      <c r="E37" s="11">
-        <v>0.406061206589996</v>
-      </c>
-      <c r="F37" s="11">
-        <v>2.8616393551720023</v>
+      <c r="C37" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="14">
+        <v>43.894821348539999</v>
+      </c>
+      <c r="E37" s="14">
+        <v>0.3588540879189992</v>
+      </c>
+      <c r="F37" s="14">
+        <v>1.6997564136029979</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
@@ -1591,20 +1591,20 @@
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="13">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="14">
-        <v>43.143999722476003</v>
-      </c>
-      <c r="E38" s="14">
-        <v>6.3550852131001534E-2</v>
-      </c>
-      <c r="F38" s="14">
-        <v>4.1992186372810067</v>
+      <c r="C38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="11">
+        <v>43.535967260621</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0.40571488380400211</v>
+      </c>
+      <c r="F38" s="11">
+        <v>2.8589402874790011</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
@@ -1612,20 +1612,20 @@
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="16">
+      <c r="B39" s="13">
         <v>2022</v>
       </c>
-      <c r="C39" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="17">
-        <v>43.080448870345002</v>
-      </c>
-      <c r="E39" s="17">
-        <v>-1.3379246601199952</v>
-      </c>
-      <c r="F39" s="17">
-        <v>4.2584815804070004</v>
+      <c r="C39" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="14">
+        <v>43.130252376816998</v>
+      </c>
+      <c r="E39" s="14">
+        <v>6.773165704699835E-2</v>
+      </c>
+      <c r="F39" s="14">
+        <v>4.1987350005709985</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
@@ -1633,20 +1633,20 @@
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="19">
-        <v>2021</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="20">
-        <v>44.418373530464997</v>
-      </c>
-      <c r="E40" s="20">
-        <v>-1.8269091217090008</v>
-      </c>
-      <c r="F40" s="20">
-        <v>6.1244638112629985</v>
+      <c r="B40" s="16">
+        <v>2022</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="17">
+        <v>43.062520719769999</v>
+      </c>
+      <c r="E40" s="17">
+        <v>-1.3176755318079998</v>
+      </c>
+      <c r="F40" s="17">
+        <v>4.2563999563259998</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
@@ -1654,20 +1654,20 @@
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="10">
+      <c r="B41" s="19">
         <v>2021</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="11">
-        <v>46.245282652173998</v>
-      </c>
-      <c r="E41" s="11">
-        <v>2.3586779024199984</v>
-      </c>
-      <c r="F41" s="11">
-        <v>8.9802828786080013</v>
+      <c r="C41" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="20">
+        <v>44.380196251577999</v>
+      </c>
+      <c r="E41" s="20">
+        <v>-1.7879191209029983</v>
+      </c>
+      <c r="F41" s="20">
+        <v>6.1019382128650008</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
@@ -1675,20 +1675,20 @@
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="13">
+      <c r="B42" s="10">
         <v>2021</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="14">
-        <v>43.886604749753999</v>
-      </c>
-      <c r="E42" s="14">
-        <v>0.13281522119999778</v>
-      </c>
-      <c r="F42" s="14">
-        <v>6.0060130752579965</v>
+      <c r="C42" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="11">
+        <v>46.168115372480997</v>
+      </c>
+      <c r="E42" s="11">
+        <v>2.2340494181189996</v>
+      </c>
+      <c r="F42" s="11">
+        <v>8.9312355347479979</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
@@ -1696,20 +1696,20 @@
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="10">
+      <c r="B43" s="13">
         <v>2021</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="11">
-        <v>43.753789528554002</v>
-      </c>
-      <c r="E43" s="11">
-        <v>0.72433402145200176</v>
-      </c>
-      <c r="F43" s="11">
-        <v>7.1874498082979983</v>
+      <c r="C43" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="14">
+        <v>43.934065954361998</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0.13939590725299666</v>
+      </c>
+      <c r="F43" s="14">
+        <v>6.0094999648199945</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
@@ -1717,20 +1717,20 @@
       <c r="L43" s="9"/>
     </row>
     <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="13">
+      <c r="B44" s="10">
         <v>2021</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="14">
-        <v>43.029455507102</v>
-      </c>
-      <c r="E44" s="14">
-        <v>-1.2252748579170003</v>
-      </c>
-      <c r="F44" s="14">
-        <v>7.6387013327150015</v>
+      <c r="C44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="11">
+        <v>43.794670047109001</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0.7275132353660041</v>
+      </c>
+      <c r="F44" s="11">
+        <v>7.2245496853110041</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
@@ -1738,20 +1738,20 @@
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="10">
+      <c r="B45" s="13">
         <v>2021</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="11">
-        <v>44.254730365019</v>
-      </c>
-      <c r="E45" s="11">
-        <v>0.36485937535800161</v>
-      </c>
-      <c r="F45" s="11">
-        <v>9.9259533154289983</v>
+      <c r="C45" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="14">
+        <v>43.067156811742997</v>
+      </c>
+      <c r="E45" s="14">
+        <v>-1.2104242512510055</v>
+      </c>
+      <c r="F45" s="14">
+        <v>7.6651581369719963</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
@@ -1759,20 +1759,20 @@
       <c r="L45" s="9"/>
     </row>
     <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="13">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="14">
-        <v>43.889870989660999</v>
-      </c>
-      <c r="E46" s="14">
-        <v>1.2731732383449952</v>
-      </c>
-      <c r="F46" s="14">
-        <v>12.197196197829999</v>
+      <c r="C46" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="11">
+        <v>44.277581062994003</v>
+      </c>
+      <c r="E46" s="11">
+        <v>0.36865254454200169</v>
+      </c>
+      <c r="F46" s="11">
+        <v>9.9413081134769996</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
@@ -1780,20 +1780,20 @@
       <c r="L46" s="9"/>
     </row>
     <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="10">
+      <c r="B47" s="13">
         <v>2021</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="11">
-        <v>42.616697751316003</v>
-      </c>
-      <c r="E47" s="11">
-        <v>0.41282110380100079</v>
-      </c>
-      <c r="F47" s="11">
-        <v>11.469718064468005</v>
+      <c r="C47" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="14">
+        <v>43.908928518452001</v>
+      </c>
+      <c r="E47" s="14">
+        <v>1.3054199967410014</v>
+      </c>
+      <c r="F47" s="14">
+        <v>12.206112396842002</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
@@ -1801,20 +1801,20 @@
       <c r="L47" s="9"/>
     </row>
     <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="13">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="14">
-        <v>42.203876647515003</v>
-      </c>
-      <c r="E48" s="14">
-        <v>1.5154550736210055</v>
-      </c>
-      <c r="F48" s="14">
-        <v>10.132685001365999</v>
+      <c r="C48" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="11">
+        <v>42.603508521710999</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0.40844358677399839</v>
+      </c>
+      <c r="F48" s="11">
+        <v>11.461694444580999</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
@@ -1822,20 +1822,20 @@
       <c r="L48" s="9"/>
     </row>
     <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="10">
+      <c r="B49" s="13">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="11">
-        <v>40.688421573893997</v>
-      </c>
-      <c r="E49" s="11">
-        <v>1.7436404886990005</v>
-      </c>
-      <c r="F49" s="11">
-        <v>-1.6214615744620033</v>
+      <c r="C49" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="14">
+        <v>42.195064934937001</v>
+      </c>
+      <c r="E49" s="14">
+        <v>1.5180379617950024</v>
+      </c>
+      <c r="F49" s="14">
+        <v>10.127811241994003</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
@@ -1843,20 +1843,20 @@
       <c r="L49" s="9"/>
     </row>
     <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="13">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="14">
-        <v>38.944781085194997</v>
-      </c>
-      <c r="E50" s="14">
-        <v>0.12281379525699521</v>
-      </c>
-      <c r="F50" s="14">
-        <v>-4.8713221912100053</v>
+      <c r="C50" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="11">
+        <v>40.677026973141999</v>
+      </c>
+      <c r="E50" s="11">
+        <v>1.7455095968959995</v>
+      </c>
+      <c r="F50" s="11">
+        <v>-1.6261194638559999</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
@@ -1864,20 +1864,20 @@
       <c r="L50" s="9"/>
     </row>
     <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="16">
+      <c r="B51" s="13">
         <v>2021</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="17">
-        <v>38.821967289938001</v>
-      </c>
-      <c r="E51" s="17">
-        <v>0.5280575707360029</v>
-      </c>
-      <c r="F51" s="17">
-        <v>-4.9380273839960012</v>
+      <c r="C51" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="14">
+        <v>38.931517376245999</v>
+      </c>
+      <c r="E51" s="14">
+        <v>0.12539661280199965</v>
+      </c>
+      <c r="F51" s="14">
+        <v>-4.8760747220839988</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
@@ -1885,20 +1885,20 @@
       <c r="L51" s="9"/>
     </row>
     <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="20">
-        <v>38.293909719201999</v>
-      </c>
-      <c r="E52" s="20">
-        <v>1.028909945636002</v>
-      </c>
-      <c r="F52" s="20">
-        <v>-4.9222067910559986</v>
+      <c r="B52" s="16">
+        <v>2021</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="17">
+        <v>38.806120763444</v>
+      </c>
+      <c r="E52" s="17">
+        <v>0.52786272473100126</v>
+      </c>
+      <c r="F52" s="17">
+        <v>-4.9454430540099992</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
@@ -1906,20 +1906,20 @@
       <c r="L52" s="9"/>
     </row>
     <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="10">
+      <c r="B53" s="19">
         <v>2020</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="11">
-        <v>37.264999773565997</v>
-      </c>
-      <c r="E53" s="11">
-        <v>-0.61559190093000637</v>
-      </c>
-      <c r="F53" s="11">
-        <v>-6.7120622224160016</v>
+      <c r="C53" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="20">
+        <v>38.278258038712998</v>
+      </c>
+      <c r="E53" s="20">
+        <v>1.0413782009799988</v>
+      </c>
+      <c r="F53" s="20">
+        <v>-4.9318171271640026</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
@@ -1927,20 +1927,20 @@
       <c r="L53" s="9"/>
     </row>
     <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="13">
+      <c r="B54" s="10">
         <v>2020</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="14">
-        <v>37.880591674496003</v>
-      </c>
-      <c r="E54" s="14">
-        <v>1.3142519542399995</v>
-      </c>
-      <c r="F54" s="14">
-        <v>-6.1431118093389969</v>
+      <c r="C54" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="11">
+        <v>37.236879837732999</v>
+      </c>
+      <c r="E54" s="11">
+        <v>-0.68768615180900383</v>
+      </c>
+      <c r="F54" s="11">
+        <v>-6.7247565943400005</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
@@ -1948,20 +1948,20 @@
       <c r="L54" s="9"/>
     </row>
     <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="10">
+      <c r="B55" s="13">
         <v>2020</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="11">
-        <v>36.566339720256003</v>
-      </c>
-      <c r="E55" s="11">
-        <v>1.175585545869005</v>
-      </c>
-      <c r="F55" s="11">
-        <v>-9.0634806664809986</v>
+      <c r="C55" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="14">
+        <v>37.924565989542003</v>
+      </c>
+      <c r="E55" s="14">
+        <v>1.3544456277440062</v>
+      </c>
+      <c r="F55" s="14">
+        <v>-6.1198410863449979</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
@@ -1969,20 +1969,20 @@
       <c r="L55" s="9"/>
     </row>
     <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="13">
+      <c r="B56" s="10">
         <v>2020</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="14">
-        <v>35.390754174386998</v>
-      </c>
-      <c r="E56" s="14">
-        <v>1.0619771247969965</v>
-      </c>
-      <c r="F56" s="14">
-        <v>-8.6336748699910046</v>
+      <c r="C56" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="11">
+        <v>36.570120361797997</v>
+      </c>
+      <c r="E56" s="11">
+        <v>1.1681216870269964</v>
+      </c>
+      <c r="F56" s="11">
+        <v>-9.0660737591379998</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
@@ -1990,20 +1990,20 @@
       <c r="L56" s="9"/>
     </row>
     <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="10">
+      <c r="B57" s="13">
         <v>2020</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="11">
-        <v>34.328777049590002</v>
-      </c>
-      <c r="E57" s="11">
-        <v>2.6361022577590028</v>
-      </c>
-      <c r="F57" s="11">
-        <v>-8.7985885878700003</v>
+      <c r="C57" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="14">
+        <v>35.401998674771001</v>
+      </c>
+      <c r="E57" s="14">
+        <v>1.0657257252539978</v>
+      </c>
+      <c r="F57" s="14">
+        <v>-8.6302736901109967</v>
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
@@ -2011,20 +2011,20 @@
       <c r="L57" s="9"/>
     </row>
     <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="13">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="14">
-        <v>31.692674791830999</v>
-      </c>
-      <c r="E58" s="14">
-        <v>0.54569510498300033</v>
-      </c>
-      <c r="F58" s="14">
-        <v>-11.638740773487999</v>
+      <c r="C58" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="11">
+        <v>34.336272949517003</v>
+      </c>
+      <c r="E58" s="11">
+        <v>2.6334568279070041</v>
+      </c>
+      <c r="F58" s="11">
+        <v>-8.7936196097269956</v>
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
@@ -2032,20 +2032,20 @@
       <c r="L58" s="9"/>
     </row>
     <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="10">
+      <c r="B59" s="13">
         <v>2020</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="11">
-        <v>31.146979686847999</v>
-      </c>
-      <c r="E59" s="11">
-        <v>-0.92421195930100453</v>
-      </c>
-      <c r="F59" s="11">
-        <v>-13.129014950605999</v>
+      <c r="C59" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="14">
+        <v>31.702816121609999</v>
+      </c>
+      <c r="E59" s="14">
+        <v>0.56100204447999857</v>
+      </c>
+      <c r="F59" s="14">
+        <v>-11.636228398237002</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
@@ -2053,20 +2053,20 @@
       <c r="L59" s="9"/>
     </row>
     <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="13">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="14">
-        <v>32.071191646149003</v>
-      </c>
-      <c r="E60" s="14">
-        <v>-10.238691502206997</v>
-      </c>
-      <c r="F60" s="14">
-        <v>-13.364344240041994</v>
+      <c r="C60" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="11">
+        <v>31.14181407713</v>
+      </c>
+      <c r="E60" s="11">
+        <v>-0.92543961581299783</v>
+      </c>
+      <c r="F60" s="11">
+        <v>-13.130125569466003</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
@@ -2074,20 +2074,20 @@
       <c r="L60" s="9"/>
     </row>
     <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="10">
+      <c r="B61" s="13">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="11">
-        <v>42.309883148356001</v>
-      </c>
-      <c r="E61" s="11">
-        <v>-1.5062201280490015</v>
-      </c>
-      <c r="F61" s="11">
-        <v>-4.523516610496003</v>
+      <c r="C61" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="14">
+        <v>32.067253692942998</v>
+      </c>
+      <c r="E61" s="14">
+        <v>-10.235892744055</v>
+      </c>
+      <c r="F61" s="14">
+        <v>-13.363080195517</v>
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
@@ -2095,20 +2095,20 @@
       <c r="L61" s="9"/>
     </row>
     <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="13">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="14">
-        <v>43.816103276405002</v>
-      </c>
-      <c r="E62" s="14">
-        <v>5.6108602470999358E-2</v>
-      </c>
-      <c r="F62" s="14">
-        <v>-4.6717880663189959</v>
+      <c r="C62" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="11">
+        <v>42.303146436997999</v>
+      </c>
+      <c r="E62" s="11">
+        <v>-1.5044456613319994</v>
+      </c>
+      <c r="F62" s="11">
+        <v>-4.5257098960519997</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
@@ -2116,20 +2116,20 @@
       <c r="L62" s="9"/>
     </row>
     <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="16">
+      <c r="B63" s="13">
         <v>2020</v>
       </c>
-      <c r="C63" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="17">
-        <v>43.759994673934003</v>
-      </c>
-      <c r="E63" s="17">
-        <v>0.5438781636760055</v>
-      </c>
-      <c r="F63" s="17">
-        <v>-1.8869300203099968</v>
+      <c r="C63" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="14">
+        <v>43.807592098329998</v>
+      </c>
+      <c r="E63" s="14">
+        <v>5.6028280875999315E-2</v>
+      </c>
+      <c r="F63" s="14">
+        <v>-4.6761399973810001</v>
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
@@ -2137,20 +2137,20 @@
       <c r="L63" s="9"/>
     </row>
     <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="20">
-        <v>43.216116510257997</v>
-      </c>
-      <c r="E64" s="20">
-        <v>-0.760945485724001</v>
-      </c>
-      <c r="F64" s="20">
-        <v>-1.0914982872030023</v>
+      <c r="B64" s="16">
+        <v>2020</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="17">
+        <v>43.751563817453999</v>
+      </c>
+      <c r="E64" s="17">
+        <v>0.54148865157699788</v>
+      </c>
+      <c r="F64" s="17">
+        <v>-1.8917637683180004</v>
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
@@ -2158,20 +2158,20 @@
       <c r="L64" s="9"/>
     </row>
     <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="10">
+      <c r="B65" s="19">
         <v>2019</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="11">
-        <v>43.977061995981998</v>
-      </c>
-      <c r="E65" s="11">
-        <v>-4.6641487853001706E-2</v>
-      </c>
-      <c r="F65" s="11">
-        <v>2.3172520853259968</v>
+      <c r="C65" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="20">
+        <v>43.210075165877001</v>
+      </c>
+      <c r="E65" s="20">
+        <v>-0.75156126619599917</v>
+      </c>
+      <c r="F65" s="20">
+        <v>-1.0975396315839987</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
@@ -2179,20 +2179,20 @@
       <c r="L65" s="9"/>
     </row>
     <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="13">
+      <c r="B66" s="10">
         <v>2019</v>
       </c>
-      <c r="C66" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="14">
-        <v>44.023703483835</v>
-      </c>
-      <c r="E66" s="14">
-        <v>-1.6061169029020022</v>
-      </c>
-      <c r="F66" s="14">
-        <v>1.4949042845530016</v>
+      <c r="C66" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="11">
+        <v>43.961636432073</v>
+      </c>
+      <c r="E66" s="11">
+        <v>-8.2770643814001232E-2</v>
+      </c>
+      <c r="F66" s="11">
+        <v>2.3018265214169986</v>
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
@@ -2200,20 +2200,20 @@
       <c r="L66" s="9"/>
     </row>
     <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="10">
+      <c r="B67" s="13">
         <v>2019</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="11">
-        <v>45.629820386737002</v>
-      </c>
-      <c r="E67" s="11">
-        <v>1.6053913423589989</v>
-      </c>
-      <c r="F67" s="11">
-        <v>3.2051964402930011</v>
+      <c r="C67" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="14">
+        <v>44.044407075887001</v>
+      </c>
+      <c r="E67" s="14">
+        <v>-1.5917870450489957</v>
+      </c>
+      <c r="F67" s="14">
+        <v>1.515607876605003</v>
       </c>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
@@ -2221,20 +2221,20 @@
       <c r="L67" s="9"/>
     </row>
     <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="13">
+      <c r="B68" s="10">
         <v>2019</v>
       </c>
-      <c r="C68" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" s="14">
-        <v>44.024429044378003</v>
-      </c>
-      <c r="E68" s="14">
-        <v>0.89706340691800079</v>
-      </c>
-      <c r="F68" s="14">
-        <v>0.9632896564010025</v>
+      <c r="C68" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="11">
+        <v>45.636194120935997</v>
+      </c>
+      <c r="E68" s="11">
+        <v>1.6039217560539996</v>
+      </c>
+      <c r="F68" s="11">
+        <v>3.211570174491996</v>
       </c>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
@@ -2242,20 +2242,20 @@
       <c r="L68" s="9"/>
     </row>
     <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="10">
+      <c r="B69" s="13">
         <v>2019</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="11">
-        <v>43.127365637460002</v>
-      </c>
-      <c r="E69" s="11">
-        <v>-0.20404992785899623</v>
-      </c>
-      <c r="F69" s="11">
-        <v>5.4478607131002832E-2</v>
+      <c r="C69" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="14">
+        <v>44.032272364881997</v>
+      </c>
+      <c r="E69" s="14">
+        <v>0.9023798056379988</v>
+      </c>
+      <c r="F69" s="14">
+        <v>0.97113297690499678</v>
       </c>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
@@ -2263,20 +2263,20 @@
       <c r="L69" s="9"/>
     </row>
     <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="13">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C70" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" s="14">
-        <v>43.331415565318999</v>
-      </c>
-      <c r="E70" s="14">
-        <v>-0.94457907213499936</v>
-      </c>
-      <c r="F70" s="14">
-        <v>6.4793462952319985</v>
+      <c r="C70" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="11">
+        <v>43.129892559243999</v>
+      </c>
+      <c r="E70" s="11">
+        <v>-0.2091519606030019</v>
+      </c>
+      <c r="F70" s="11">
+        <v>5.7005528914999104E-2</v>
       </c>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
@@ -2284,342 +2284,372 @@
       <c r="L70" s="9"/>
     </row>
     <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="10">
+      <c r="B71" s="13">
         <v>2019</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="11">
-        <v>44.275994637453998</v>
-      </c>
-      <c r="E71" s="11">
-        <v>-1.1595412487369998</v>
-      </c>
-      <c r="F71" s="11">
-        <v>7.7746783426499988</v>
+      <c r="C71" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="14">
+        <v>43.339044519847</v>
+      </c>
+      <c r="E71" s="14">
+        <v>-0.93289512674900266</v>
+      </c>
+      <c r="F71" s="14">
+        <v>6.4869752497600004</v>
       </c>
       <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
     </row>
     <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="13">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="14">
-        <v>45.435535886190998</v>
-      </c>
-      <c r="E72" s="14">
-        <v>-1.3978638726610058</v>
-      </c>
-      <c r="F72" s="14">
-        <v>9.728020538669</v>
+      <c r="C72" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="11">
+        <v>44.271939646596003</v>
+      </c>
+      <c r="E72" s="11">
+        <v>-1.158394241863995</v>
+      </c>
+      <c r="F72" s="11">
+        <v>7.770623351792004</v>
       </c>
       <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
     </row>
     <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="10">
+      <c r="B73" s="13">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="11">
-        <v>46.833399758852003</v>
-      </c>
-      <c r="E73" s="11">
-        <v>-1.6544915838719945</v>
-      </c>
-      <c r="F73" s="11">
-        <v>12.072892518903004</v>
+      <c r="C73" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="14">
+        <v>45.430333888459998</v>
+      </c>
+      <c r="E73" s="14">
+        <v>-1.3985224445900002</v>
+      </c>
+      <c r="F73" s="14">
+        <v>9.7228185409380004</v>
       </c>
       <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
     </row>
     <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="13">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="14">
-        <v>48.487891342723998</v>
-      </c>
-      <c r="E74" s="14">
-        <v>2.8409666484799985</v>
-      </c>
-      <c r="F74" s="14">
-        <v>13.748551136300996</v>
+      <c r="C74" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="11">
+        <v>46.828856333049998</v>
+      </c>
+      <c r="E74" s="11">
+        <v>-1.6548757626609998</v>
+      </c>
+      <c r="F74" s="11">
+        <v>12.068349093100998</v>
       </c>
       <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
     </row>
     <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="16">
+      <c r="B75" s="13">
         <v>2019</v>
       </c>
-      <c r="C75" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="17">
-        <v>45.646924694243999</v>
-      </c>
-      <c r="E75" s="17">
-        <v>1.3393098967829999</v>
-      </c>
-      <c r="F75" s="17">
-        <v>11.017320868592996</v>
+      <c r="C75" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="14">
+        <v>48.483732095710998</v>
+      </c>
+      <c r="E75" s="14">
+        <v>2.840404509938999</v>
+      </c>
+      <c r="F75" s="14">
+        <v>13.744391889287996</v>
       </c>
       <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
     </row>
     <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="13">
-        <v>2018</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="14">
-        <v>44.307614797461</v>
-      </c>
-      <c r="E76" s="14">
-        <v>2.6478048868049981</v>
-      </c>
-      <c r="F76" s="14">
-        <v>8.4335217533200009</v>
-      </c>
+      <c r="B76" s="16">
+        <v>2019</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="17">
+        <v>45.643327585771999</v>
+      </c>
+      <c r="E76" s="17">
+        <v>1.3357127883109996</v>
+      </c>
+      <c r="F76" s="17">
+        <v>11.013723760120996</v>
+      </c>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
     </row>
     <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="10">
+      <c r="B77" s="13">
         <v>2018</v>
       </c>
-      <c r="C77" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="11">
-        <v>41.659809910656001</v>
-      </c>
-      <c r="E77" s="11">
-        <v>-0.86898928862599689</v>
-      </c>
-      <c r="F77" s="11">
-        <v>5.0281376012930039</v>
-      </c>
+      <c r="C77" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="14">
+        <v>44.307614797461</v>
+      </c>
+      <c r="E77" s="14">
+        <v>2.6478048868049981</v>
+      </c>
+      <c r="F77" s="14">
+        <v>8.4335217533200009</v>
+      </c>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
     </row>
     <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="13">
+      <c r="B78" s="10">
         <v>2018</v>
       </c>
-      <c r="C78" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="14">
-        <v>42.528799199281998</v>
-      </c>
-      <c r="E78" s="14">
-        <v>0.10417525283799733</v>
-      </c>
-      <c r="F78" s="14">
-        <v>6.0107838518529988</v>
-      </c>
+      <c r="C78" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="11">
+        <v>41.659809910656001</v>
+      </c>
+      <c r="E78" s="11">
+        <v>-0.86898928862599689</v>
+      </c>
+      <c r="F78" s="11">
+        <v>5.0281376012930039</v>
+      </c>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
     </row>
     <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="10">
+      <c r="B79" s="13">
         <v>2018</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="11">
-        <v>42.424623946444001</v>
-      </c>
-      <c r="E79" s="11">
-        <v>-0.63651544153299966</v>
-      </c>
-      <c r="F79" s="11">
-        <v>5.3888433559340001</v>
-      </c>
+      <c r="C79" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="14">
+        <v>42.528799199281998</v>
+      </c>
+      <c r="E79" s="14">
+        <v>0.10417525283799733</v>
+      </c>
+      <c r="F79" s="14">
+        <v>6.0107838518529988</v>
+      </c>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
     </row>
     <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="13">
+      <c r="B80" s="10">
         <v>2018</v>
       </c>
-      <c r="C80" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="14">
-        <v>43.061139387977001</v>
-      </c>
-      <c r="E80" s="14">
-        <v>-1.1747642351998877E-2</v>
-      </c>
-      <c r="F80" s="14">
-        <v>6.544364835888004</v>
-      </c>
+      <c r="C80" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="11">
+        <v>42.424623946444001</v>
+      </c>
+      <c r="E80" s="11">
+        <v>-0.63651544153299966</v>
+      </c>
+      <c r="F80" s="11">
+        <v>5.3888433559340001</v>
+      </c>
+      <c r="H80" s="12"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
     </row>
     <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="10">
+      <c r="B81" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="11">
-        <v>43.072887030328999</v>
-      </c>
-      <c r="E81" s="11">
-        <v>6.2208177602419994</v>
-      </c>
-      <c r="F81" s="11">
-        <v>6.855344005100001</v>
-      </c>
+      <c r="C81" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="14">
+        <v>43.061139387977001</v>
+      </c>
+      <c r="E81" s="14">
+        <v>-1.1747642351998877E-2</v>
+      </c>
+      <c r="F81" s="14">
+        <v>6.544364835888004</v>
+      </c>
+      <c r="H81" s="12"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="13">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D82" s="14">
-        <v>36.852069270087</v>
-      </c>
-      <c r="E82" s="14">
-        <v>0.35075297528300098</v>
-      </c>
-      <c r="F82" s="14">
-        <v>1.2308032480960023</v>
-      </c>
+      <c r="C82" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="11">
+        <v>43.072887030328999</v>
+      </c>
+      <c r="E82" s="11">
+        <v>6.2208177602419994</v>
+      </c>
+      <c r="F82" s="11">
+        <v>6.855344005100001</v>
+      </c>
+      <c r="H82" s="12"/>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
     </row>
     <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="10">
+      <c r="B83" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="11">
-        <v>36.501316294803999</v>
-      </c>
-      <c r="E83" s="11">
-        <v>0.79380094728200135</v>
-      </c>
-      <c r="F83" s="11">
-        <v>0.91029988176300236</v>
-      </c>
+      <c r="C83" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="14">
+        <v>36.852069270087</v>
+      </c>
+      <c r="E83" s="14">
+        <v>0.35075297528300098</v>
+      </c>
+      <c r="F83" s="14">
+        <v>1.2308032480960023</v>
+      </c>
+      <c r="H83" s="12"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
     </row>
     <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="13">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="14">
-        <v>35.707515347521998</v>
-      </c>
-      <c r="E84" s="14">
-        <v>0.94700810757299791</v>
-      </c>
-      <c r="F84" s="14">
-        <v>0.62944883013700093</v>
-      </c>
+      <c r="C84" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="11">
+        <v>36.501316294803999</v>
+      </c>
+      <c r="E84" s="11">
+        <v>0.79380094728200135</v>
+      </c>
+      <c r="F84" s="11">
+        <v>0.91029988176300236</v>
+      </c>
+      <c r="H84" s="12"/>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="10">
+      <c r="B85" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="11">
-        <v>34.760507239949</v>
-      </c>
-      <c r="E85" s="11">
-        <v>2.1167033525998136E-2</v>
-      </c>
-      <c r="F85" s="11">
-        <v>0.53080793961800055</v>
+      <c r="C85" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="14">
+        <v>35.707515347521998</v>
+      </c>
+      <c r="E85" s="14">
+        <v>0.94700810757299791</v>
+      </c>
+      <c r="F85" s="14">
+        <v>0.62944883013700093</v>
       </c>
       <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
+      <c r="H85" s="12"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
     </row>
     <row r="86" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="13">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="14">
-        <v>34.739340206423002</v>
-      </c>
-      <c r="E86" s="14">
-        <v>0.10973638077199865</v>
-      </c>
-      <c r="F86" s="14">
-        <v>2.5910907309180047</v>
+      <c r="C86" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="11">
+        <v>34.760507239949</v>
+      </c>
+      <c r="E86" s="11">
+        <v>2.1167033525998136E-2</v>
+      </c>
+      <c r="F86" s="11">
+        <v>0.53080793961800055</v>
       </c>
       <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
+      <c r="H86" s="12"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
     </row>
     <row r="87" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="10">
+      <c r="B87" s="13">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="11">
-        <v>34.629603825651003</v>
-      </c>
-      <c r="E87" s="11">
-        <v>-1.2444892184899956</v>
-      </c>
-      <c r="F87" s="11">
-        <v>6.0255458294220041</v>
+      <c r="C87" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="14">
+        <v>34.739340206423002</v>
+      </c>
+      <c r="E87" s="14">
+        <v>0.10973638077199865</v>
+      </c>
+      <c r="F87" s="14">
+        <v>2.5910907309180047</v>
       </c>
       <c r="G87" s="22"/>
       <c r="H87" s="22"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
     </row>
-    <row r="88" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="3" t="s">
-        <v>24</v>
+    <row r="88" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="11">
+        <v>34.629603825651003</v>
+      </c>
+      <c r="E88" s="11">
+        <v>-1.2444892184899956</v>
+      </c>
+      <c r="F88" s="11">
+        <v>6.0255458294220041</v>
       </c>
       <c r="G88" s="22"/>
       <c r="H88" s="22"/>
@@ -2628,16 +2658,14 @@
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B89" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="22"/>
+        <v>24</v>
+      </c>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
     </row>
-    <row r="90" spans="2:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="B90" s="23" t="s">
-        <v>22</v>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B90" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="22"/>
@@ -2645,27 +2673,31 @@
       <c r="L90" s="9"/>
     </row>
     <row r="91" spans="2:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="B91" s="3" t="s">
-        <v>23</v>
+      <c r="B91" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="22"/>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:12" ht="20.25" x14ac:dyDescent="0.45">
       <c r="B92" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B93" s="24"/>
+      <c r="B93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
     </row>
@@ -2675,8 +2707,7 @@
       <c r="L94" s="9"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
+      <c r="B95" s="24"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
     </row>
@@ -2686,22 +2717,24 @@
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
     </row>
-    <row r="97" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
     </row>
-    <row r="98" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="5:12" x14ac:dyDescent="0.45">
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
     </row>
-    <row r="99" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="5:12" x14ac:dyDescent="0.45">
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E95:F95"/>
     <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ICC.xlsx
+++ b/ICC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998CE445-391E-45B9-BDD1-59E123DB430B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A63EDEE-F18B-43F9-AA42-71EE3E8DA8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_7" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="25">
   <si>
     <t>Mes</t>
   </si>
@@ -168,7 +168,7 @@
     </r>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -259,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -342,12 +342,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -410,6 +421,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -574,11 +589,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F88" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B4:F88" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F89" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B4:F89" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
+        <filter val="2025"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -816,7 +832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O99"/>
+  <dimension ref="B2:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -895,338 +911,338 @@
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="13">
-        <v>2024</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="14">
-        <v>47.122477262973</v>
-      </c>
-      <c r="E5" s="14">
-        <v>-0.52109939292400043</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0.23154044895800041</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="B5" s="26">
+        <v>2025</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="27">
+        <v>46.664423594719999</v>
+      </c>
+      <c r="E5" s="27">
+        <v>-0.34582984537900074</v>
+      </c>
+      <c r="F5" s="27">
+        <v>-0.34830846257400339</v>
+      </c>
+      <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="10">
+      <c r="B6" s="13">
         <v>2024</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="11">
-        <v>47.643576655897</v>
-      </c>
-      <c r="E6" s="11">
-        <v>-1.6327169313389973</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0.68654565941400136</v>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14">
+        <v>47.010253440099</v>
+      </c>
+      <c r="E6" s="14">
+        <v>-0.63332321579800066</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.11931662608400018</v>
       </c>
       <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <v>2024</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="14">
-        <v>49.276293587235998</v>
-      </c>
-      <c r="E7" s="14">
-        <v>2.0776044818559996</v>
-      </c>
-      <c r="F7" s="14">
-        <v>3.2684811083499952</v>
+      <c r="C7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="11">
+        <v>47.643576655897</v>
+      </c>
+      <c r="E7" s="11">
+        <v>-1.5983012005710009</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.68654565941400136</v>
       </c>
       <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="10">
+    <row r="8" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="13">
         <v>2024</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="11">
-        <v>47.198689105379998</v>
-      </c>
-      <c r="E8" s="11">
-        <v>-0.44330403822500131</v>
-      </c>
-      <c r="F8" s="11">
-        <v>5.0171247073997449E-2</v>
+      <c r="C8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="14">
+        <v>49.241877856468001</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2.0431887510880031</v>
+      </c>
+      <c r="F8" s="14">
+        <v>3.2340653775819987</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="14">
-        <v>47.641993143604999</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0.52708275272100025</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0.73694751757700061</v>
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="11">
+        <v>47.198689105379998</v>
+      </c>
+      <c r="E9" s="11">
+        <v>-0.45272326745400449</v>
+      </c>
+      <c r="F9" s="11">
+        <v>5.0171247073997449E-2</v>
       </c>
       <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="I9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="10">
+      <c r="B10" s="13">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="11">
-        <v>47.114910390883999</v>
-      </c>
-      <c r="E10" s="11">
-        <v>-0.37987368851599967</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0.59421139970100256</v>
+      <c r="C10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="14">
+        <v>47.651412372834002</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.53650198195000343</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0.74636674680600379</v>
       </c>
       <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="I10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="13">
+      <c r="B11" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="14">
-        <v>47.494784079399999</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0.67648537510899587</v>
-      </c>
-      <c r="F11" s="14">
-        <v>2.1675441261789956</v>
+      <c r="C11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="11">
+        <v>47.114910390883999</v>
+      </c>
+      <c r="E11" s="11">
+        <v>-0.37987368851599967</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.59421139970100256</v>
       </c>
       <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="I11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="10">
+      <c r="B12" s="13">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="11">
-        <v>46.818298704291003</v>
-      </c>
-      <c r="E12" s="11">
-        <v>-0.4351360397559958</v>
-      </c>
-      <c r="F12" s="11">
-        <v>1.9964260989020062</v>
+      <c r="C12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="14">
+        <v>47.494784079399999</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.63486418869700145</v>
+      </c>
+      <c r="F12" s="14">
+        <v>2.1675441261789956</v>
       </c>
       <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="I12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="14">
-        <v>47.253434744046999</v>
-      </c>
-      <c r="E13" s="14">
-        <v>7.9645966488996578E-2</v>
-      </c>
-      <c r="F13" s="14">
-        <v>3.1234598971099956</v>
+      <c r="C13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="11">
+        <v>46.859919890702997</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-0.39351485334400138</v>
+      </c>
+      <c r="F13" s="11">
+        <v>2.0380472853140006</v>
       </c>
       <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="I13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="10">
+      <c r="B14" s="13">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="11">
-        <v>47.173788777558002</v>
-      </c>
-      <c r="E14" s="11">
-        <v>9.5685143427999719E-2</v>
-      </c>
-      <c r="F14" s="11">
-        <v>2.770534054993</v>
+      <c r="C14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="14">
+        <v>47.253434744046999</v>
+      </c>
+      <c r="E14" s="14">
+        <v>7.9645966488996578E-2</v>
+      </c>
+      <c r="F14" s="14">
+        <v>3.1234598971099956</v>
       </c>
       <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="I14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="13">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="14">
-        <v>47.078103634130002</v>
-      </c>
-      <c r="E15" s="14">
-        <v>6.5371576836000145E-2</v>
-      </c>
-      <c r="F15" s="14">
-        <v>2.339401044984001</v>
+      <c r="C15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11">
+        <v>47.173788777558002</v>
+      </c>
+      <c r="E15" s="11">
+        <v>9.5685143427999719E-2</v>
+      </c>
+      <c r="F15" s="11">
+        <v>2.770534054993</v>
       </c>
       <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="I15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="16">
+      <c r="B16" s="13">
         <v>2024</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="17">
-        <v>47.012732057294002</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0.12179524327900282</v>
-      </c>
-      <c r="F16" s="17">
-        <v>2.7519151831910023</v>
+      <c r="C16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="14">
+        <v>47.078103634130002</v>
+      </c>
+      <c r="E16" s="14">
+        <v>6.5371576836000145E-2</v>
+      </c>
+      <c r="F16" s="14">
+        <v>2.339401044984001</v>
       </c>
       <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="I16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="18">
-        <v>2023</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="20">
-        <v>46.890936814014999</v>
-      </c>
-      <c r="E17" s="20">
-        <v>-6.6094182467999474E-2</v>
-      </c>
-      <c r="F17" s="21">
-        <v>4.0065449682820002</v>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B17" s="16">
+        <v>2024</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17">
+        <v>47.012732057294002</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.12179524327900282</v>
+      </c>
+      <c r="F17" s="17">
+        <v>2.7519151831910023</v>
       </c>
       <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="I17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="10">
+      <c r="B18" s="18">
         <v>2023</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="11">
-        <v>46.957030996482999</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0.94921851759699649</v>
-      </c>
-      <c r="F18" s="11">
-        <v>5.0727448405559983</v>
+      <c r="C18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="20">
+        <v>46.890936814014999</v>
+      </c>
+      <c r="E18" s="20">
+        <v>-6.6094182467999474E-2</v>
+      </c>
+      <c r="F18" s="21">
+        <v>4.0065449682820002</v>
       </c>
       <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="I18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="13">
+      <c r="B19" s="10">
         <v>2023</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="14">
-        <v>46.007812478886002</v>
-      </c>
-      <c r="E19" s="14">
-        <v>-1.1407053794199982</v>
-      </c>
-      <c r="F19" s="14">
-        <v>4.5252580147820041</v>
+      <c r="C19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="11">
+        <v>46.957030996482999</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.94921851759699649</v>
+      </c>
+      <c r="F19" s="11">
+        <v>5.0727448405559983</v>
       </c>
       <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="I19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="10">
+      <c r="B20" s="13">
         <v>2023</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="11">
-        <v>47.148517858306001</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0.24347223227800185</v>
-      </c>
-      <c r="F20" s="11">
-        <v>5.7908520503119973</v>
+      <c r="C20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="14">
+        <v>46.007812478886002</v>
+      </c>
+      <c r="E20" s="14">
+        <v>-1.1407053794199982</v>
+      </c>
+      <c r="F20" s="14">
+        <v>4.5252580147820041</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -1234,20 +1250,20 @@
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="13">
+      <c r="B21" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="14">
-        <v>46.905045626027999</v>
-      </c>
-      <c r="E21" s="14">
-        <v>0.3843466348450022</v>
-      </c>
-      <c r="F21" s="14">
-        <v>5.9287752867479995</v>
+      <c r="C21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="11">
+        <v>47.148517858306001</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.24347223227800185</v>
+      </c>
+      <c r="F21" s="11">
+        <v>5.7908520503119973</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -1255,20 +1271,20 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="10">
+      <c r="B22" s="13">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="11">
-        <v>46.520698991182996</v>
-      </c>
-      <c r="E22" s="11">
-        <v>1.1934590379619934</v>
-      </c>
-      <c r="F22" s="11">
-        <v>5.2076997239229996</v>
+      <c r="C22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="14">
+        <v>46.905045626027999</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0.3843466348450022</v>
+      </c>
+      <c r="F22" s="14">
+        <v>5.9287752867479995</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -1276,20 +1292,20 @@
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="13">
+      <c r="B23" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="14">
-        <v>45.327239953221003</v>
-      </c>
-      <c r="E23" s="14">
-        <v>0.50536734783200643</v>
-      </c>
-      <c r="F23" s="14">
-        <v>2.5974161936300035</v>
+      <c r="C23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11">
+        <v>46.520698991182996</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1.1934590379619934</v>
+      </c>
+      <c r="F23" s="11">
+        <v>5.2076997239229996</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -1297,20 +1313,20 @@
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="10">
+      <c r="B24" s="13">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="11">
-        <v>44.821872605388997</v>
-      </c>
-      <c r="E24" s="11">
-        <v>0.69189775845199364</v>
-      </c>
-      <c r="F24" s="11">
-        <v>0.83022703554100019</v>
+      <c r="C24" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="14">
+        <v>45.327239953221003</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0.50536734783200643</v>
+      </c>
+      <c r="F24" s="14">
+        <v>2.5974161936300035</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -1318,20 +1334,20 @@
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="13">
+      <c r="B25" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="14">
-        <v>44.129974846937003</v>
-      </c>
-      <c r="E25" s="14">
-        <v>-0.27327987562799905</v>
-      </c>
-      <c r="F25" s="14">
-        <v>0.23515349839700406</v>
+      <c r="C25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="11">
+        <v>44.821872605388997</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.69189775845199364</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0.83022703554100019</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -1339,20 +1355,20 @@
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="10">
+      <c r="B26" s="13">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="11">
-        <v>44.403254722565002</v>
-      </c>
-      <c r="E26" s="11">
-        <v>-0.33544786658099923</v>
-      </c>
-      <c r="F26" s="11">
-        <v>0.8672874619440023</v>
+      <c r="C26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="14">
+        <v>44.129974846937003</v>
+      </c>
+      <c r="E26" s="14">
+        <v>-0.27327987562799905</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0.23515349839700406</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
@@ -1360,20 +1376,20 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="13">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="14">
-        <v>44.738702589146001</v>
-      </c>
-      <c r="E27" s="14">
-        <v>0.47788571504300137</v>
-      </c>
-      <c r="F27" s="14">
-        <v>1.6084502123290036</v>
+      <c r="C27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="11">
+        <v>44.403254722565002</v>
+      </c>
+      <c r="E27" s="11">
+        <v>-0.33544786658099923</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0.8672874619440023</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -1381,20 +1397,20 @@
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="16">
+      <c r="B28" s="13">
         <v>2023</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="17">
-        <v>44.260816874103</v>
-      </c>
-      <c r="E28" s="17">
-        <v>1.3764250283700008</v>
-      </c>
-      <c r="F28" s="17">
-        <v>1.1982961543330006</v>
+      <c r="C28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="14">
+        <v>44.738702589146001</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0.47788571504300137</v>
+      </c>
+      <c r="F28" s="14">
+        <v>1.6084502123290036</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
@@ -1402,20 +1418,20 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="13">
-        <v>2022</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="14">
-        <v>42.884391845732999</v>
-      </c>
-      <c r="E29" s="14">
-        <v>1.0001056898059986</v>
-      </c>
-      <c r="F29" s="14">
-        <v>-1.495804405845</v>
+      <c r="B29" s="16">
+        <v>2023</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="17">
+        <v>44.260816874103</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1.3764250283700008</v>
+      </c>
+      <c r="F29" s="17">
+        <v>1.1982961543330006</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -1423,20 +1439,20 @@
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="10">
+      <c r="B30" s="13">
         <v>2022</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="11">
-        <v>41.884286155927001</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0.40173169182300228</v>
-      </c>
-      <c r="F30" s="11">
-        <v>-4.2838292165539968</v>
+      <c r="C30" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="14">
+        <v>42.884391845732999</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1.0001056898059986</v>
+      </c>
+      <c r="F30" s="14">
+        <v>-1.495804405845</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -1444,20 +1460,20 @@
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="13">
+      <c r="B31" s="10">
         <v>2022</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="14">
-        <v>41.482554464103998</v>
-      </c>
-      <c r="E31" s="14">
-        <v>0.12488865610999511</v>
-      </c>
-      <c r="F31" s="14">
-        <v>-2.4515114902579995</v>
+      <c r="C31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="11">
+        <v>41.884286155927001</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0.40173169182300228</v>
+      </c>
+      <c r="F31" s="11">
+        <v>-4.2838292165539968</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -1465,20 +1481,20 @@
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="10">
+      <c r="B32" s="13">
         <v>2022</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="11">
-        <v>41.357665807994003</v>
-      </c>
-      <c r="E32" s="11">
-        <v>0.38139546871400398</v>
-      </c>
-      <c r="F32" s="11">
-        <v>-2.437004239114998</v>
+      <c r="C32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="14">
+        <v>41.482554464103998</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0.12488865610999511</v>
+      </c>
+      <c r="F32" s="14">
+        <v>-2.4515114902579995</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
@@ -1486,20 +1502,20 @@
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="13">
+      <c r="B33" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="14">
-        <v>40.976270339279999</v>
-      </c>
-      <c r="E33" s="14">
-        <v>-0.33672892797999765</v>
-      </c>
-      <c r="F33" s="14">
-        <v>-2.0908864724629979</v>
+      <c r="C33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="11">
+        <v>41.357665807994003</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.38139546871400398</v>
+      </c>
+      <c r="F33" s="11">
+        <v>-2.437004239114998</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
@@ -1507,20 +1523,20 @@
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="10">
+      <c r="B34" s="13">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="11">
-        <v>41.312999267259997</v>
-      </c>
-      <c r="E34" s="11">
-        <v>-1.4168244923310027</v>
-      </c>
-      <c r="F34" s="11">
-        <v>-2.9645817957340057</v>
+      <c r="C34" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="14">
+        <v>40.976270339279999</v>
+      </c>
+      <c r="E34" s="14">
+        <v>-0.33672892797999765</v>
+      </c>
+      <c r="F34" s="14">
+        <v>-2.0908864724629979</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
@@ -1528,20 +1544,20 @@
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="13">
+      <c r="B35" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="14">
-        <v>42.729823759591</v>
-      </c>
-      <c r="E35" s="14">
-        <v>-1.2618218102569969</v>
-      </c>
-      <c r="F35" s="14">
-        <v>-1.1791047588610013</v>
+      <c r="C35" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="11">
+        <v>41.312999267259997</v>
+      </c>
+      <c r="E35" s="11">
+        <v>-1.4168244923310027</v>
+      </c>
+      <c r="F35" s="11">
+        <v>-2.9645817957340057</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
@@ -1549,20 +1565,20 @@
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="10">
+      <c r="B36" s="13">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="11">
-        <v>43.991645569847996</v>
-      </c>
-      <c r="E36" s="11">
-        <v>9.6824221307997504E-2</v>
-      </c>
-      <c r="F36" s="11">
-        <v>1.388137048136997</v>
+      <c r="C36" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="14">
+        <v>42.729823759591</v>
+      </c>
+      <c r="E36" s="14">
+        <v>-1.2618218102569969</v>
+      </c>
+      <c r="F36" s="14">
+        <v>-1.1791047588610013</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
@@ -1570,20 +1586,20 @@
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="13">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="14">
-        <v>43.894821348539999</v>
-      </c>
-      <c r="E37" s="14">
-        <v>0.3588540879189992</v>
-      </c>
-      <c r="F37" s="14">
-        <v>1.6997564136029979</v>
+      <c r="C37" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="11">
+        <v>43.991645569847996</v>
+      </c>
+      <c r="E37" s="11">
+        <v>9.6824221307997504E-2</v>
+      </c>
+      <c r="F37" s="11">
+        <v>1.388137048136997</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
@@ -1591,20 +1607,20 @@
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="10">
+      <c r="B38" s="13">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="11">
-        <v>43.535967260621</v>
-      </c>
-      <c r="E38" s="11">
-        <v>0.40571488380400211</v>
-      </c>
-      <c r="F38" s="11">
-        <v>2.8589402874790011</v>
+      <c r="C38" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="14">
+        <v>43.894821348539999</v>
+      </c>
+      <c r="E38" s="14">
+        <v>0.3588540879189992</v>
+      </c>
+      <c r="F38" s="14">
+        <v>1.6997564136029979</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
@@ -1612,62 +1628,62 @@
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="13">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="14">
-        <v>43.130252376816998</v>
-      </c>
-      <c r="E39" s="14">
-        <v>6.773165704699835E-2</v>
-      </c>
-      <c r="F39" s="14">
-        <v>4.1987350005709985</v>
+      <c r="C39" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="11">
+        <v>43.535967260621</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0.40571488380400211</v>
+      </c>
+      <c r="F39" s="11">
+        <v>2.8589402874790011</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="16">
+    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="13">
         <v>2022</v>
       </c>
-      <c r="C40" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="17">
-        <v>43.062520719769999</v>
-      </c>
-      <c r="E40" s="17">
-        <v>-1.3176755318079998</v>
-      </c>
-      <c r="F40" s="17">
-        <v>4.2563999563259998</v>
+      <c r="C40" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="14">
+        <v>43.130252376816998</v>
+      </c>
+      <c r="E40" s="14">
+        <v>6.773165704699835E-2</v>
+      </c>
+      <c r="F40" s="14">
+        <v>4.1987350005709985</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="19">
-        <v>2021</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="20">
-        <v>44.380196251577999</v>
-      </c>
-      <c r="E41" s="20">
-        <v>-1.7879191209029983</v>
-      </c>
-      <c r="F41" s="20">
-        <v>6.1019382128650008</v>
+    <row r="41" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="16">
+        <v>2022</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="17">
+        <v>43.062520719769999</v>
+      </c>
+      <c r="E41" s="17">
+        <v>-1.3176755318079998</v>
+      </c>
+      <c r="F41" s="17">
+        <v>4.2563999563259998</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
@@ -1675,20 +1691,20 @@
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="10">
+      <c r="B42" s="19">
         <v>2021</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="11">
-        <v>46.168115372480997</v>
-      </c>
-      <c r="E42" s="11">
-        <v>2.2340494181189996</v>
-      </c>
-      <c r="F42" s="11">
-        <v>8.9312355347479979</v>
+      <c r="C42" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="20">
+        <v>44.380196251577999</v>
+      </c>
+      <c r="E42" s="20">
+        <v>-1.7879191209029983</v>
+      </c>
+      <c r="F42" s="20">
+        <v>6.1019382128650008</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
@@ -1696,20 +1712,20 @@
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="13">
+      <c r="B43" s="10">
         <v>2021</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="14">
-        <v>43.934065954361998</v>
-      </c>
-      <c r="E43" s="14">
-        <v>0.13939590725299666</v>
-      </c>
-      <c r="F43" s="14">
-        <v>6.0094999648199945</v>
+      <c r="C43" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="11">
+        <v>46.168115372480997</v>
+      </c>
+      <c r="E43" s="11">
+        <v>2.2340494181189996</v>
+      </c>
+      <c r="F43" s="11">
+        <v>8.9312355347479979</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
@@ -1717,20 +1733,20 @@
       <c r="L43" s="9"/>
     </row>
     <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="10">
+      <c r="B44" s="13">
         <v>2021</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="11">
-        <v>43.794670047109001</v>
-      </c>
-      <c r="E44" s="11">
-        <v>0.7275132353660041</v>
-      </c>
-      <c r="F44" s="11">
-        <v>7.2245496853110041</v>
+      <c r="C44" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="14">
+        <v>43.934065954361998</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0.13939590725299666</v>
+      </c>
+      <c r="F44" s="14">
+        <v>6.0094999648199945</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
@@ -1738,20 +1754,20 @@
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="13">
+      <c r="B45" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="14">
-        <v>43.067156811742997</v>
-      </c>
-      <c r="E45" s="14">
-        <v>-1.2104242512510055</v>
-      </c>
-      <c r="F45" s="14">
-        <v>7.6651581369719963</v>
+      <c r="C45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="11">
+        <v>43.794670047109001</v>
+      </c>
+      <c r="E45" s="11">
+        <v>0.7275132353660041</v>
+      </c>
+      <c r="F45" s="11">
+        <v>7.2245496853110041</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
@@ -1759,20 +1775,20 @@
       <c r="L45" s="9"/>
     </row>
     <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="10">
+      <c r="B46" s="13">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="11">
-        <v>44.277581062994003</v>
-      </c>
-      <c r="E46" s="11">
-        <v>0.36865254454200169</v>
-      </c>
-      <c r="F46" s="11">
-        <v>9.9413081134769996</v>
+      <c r="C46" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="14">
+        <v>43.067156811742997</v>
+      </c>
+      <c r="E46" s="14">
+        <v>-1.2104242512510055</v>
+      </c>
+      <c r="F46" s="14">
+        <v>7.6651581369719963</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
@@ -1780,20 +1796,20 @@
       <c r="L46" s="9"/>
     </row>
     <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="13">
+      <c r="B47" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="14">
-        <v>43.908928518452001</v>
-      </c>
-      <c r="E47" s="14">
-        <v>1.3054199967410014</v>
-      </c>
-      <c r="F47" s="14">
-        <v>12.206112396842002</v>
+      <c r="C47" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="11">
+        <v>44.277581062994003</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0.36865254454200169</v>
+      </c>
+      <c r="F47" s="11">
+        <v>9.9413081134769996</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
@@ -1801,20 +1817,20 @@
       <c r="L47" s="9"/>
     </row>
     <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="10">
+      <c r="B48" s="13">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="11">
-        <v>42.603508521710999</v>
-      </c>
-      <c r="E48" s="11">
-        <v>0.40844358677399839</v>
-      </c>
-      <c r="F48" s="11">
-        <v>11.461694444580999</v>
+      <c r="C48" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="14">
+        <v>43.908928518452001</v>
+      </c>
+      <c r="E48" s="14">
+        <v>1.3054199967410014</v>
+      </c>
+      <c r="F48" s="14">
+        <v>12.206112396842002</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
@@ -1822,20 +1838,20 @@
       <c r="L48" s="9"/>
     </row>
     <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="13">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="14">
-        <v>42.195064934937001</v>
-      </c>
-      <c r="E49" s="14">
-        <v>1.5180379617950024</v>
-      </c>
-      <c r="F49" s="14">
-        <v>10.127811241994003</v>
+      <c r="C49" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="11">
+        <v>42.603508521710999</v>
+      </c>
+      <c r="E49" s="11">
+        <v>0.40844358677399839</v>
+      </c>
+      <c r="F49" s="11">
+        <v>11.461694444580999</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
@@ -1843,20 +1859,20 @@
       <c r="L49" s="9"/>
     </row>
     <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="10">
+      <c r="B50" s="13">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="11">
-        <v>40.677026973141999</v>
-      </c>
-      <c r="E50" s="11">
-        <v>1.7455095968959995</v>
-      </c>
-      <c r="F50" s="11">
-        <v>-1.6261194638559999</v>
+      <c r="C50" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="14">
+        <v>42.195064934937001</v>
+      </c>
+      <c r="E50" s="14">
+        <v>1.5180379617950024</v>
+      </c>
+      <c r="F50" s="14">
+        <v>10.127811241994003</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
@@ -1864,20 +1880,20 @@
       <c r="L50" s="9"/>
     </row>
     <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="13">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="14">
-        <v>38.931517376245999</v>
-      </c>
-      <c r="E51" s="14">
-        <v>0.12539661280199965</v>
-      </c>
-      <c r="F51" s="14">
-        <v>-4.8760747220839988</v>
+      <c r="C51" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="11">
+        <v>40.677026973141999</v>
+      </c>
+      <c r="E51" s="11">
+        <v>1.7455095968959995</v>
+      </c>
+      <c r="F51" s="11">
+        <v>-1.6261194638559999</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
@@ -1885,20 +1901,20 @@
       <c r="L51" s="9"/>
     </row>
     <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="16">
+      <c r="B52" s="13">
         <v>2021</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="17">
-        <v>38.806120763444</v>
-      </c>
-      <c r="E52" s="17">
-        <v>0.52786272473100126</v>
-      </c>
-      <c r="F52" s="17">
-        <v>-4.9454430540099992</v>
+      <c r="C52" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="14">
+        <v>38.931517376245999</v>
+      </c>
+      <c r="E52" s="14">
+        <v>0.12539661280199965</v>
+      </c>
+      <c r="F52" s="14">
+        <v>-4.8760747220839988</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
@@ -1906,20 +1922,20 @@
       <c r="L52" s="9"/>
     </row>
     <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="20">
-        <v>38.278258038712998</v>
-      </c>
-      <c r="E53" s="20">
-        <v>1.0413782009799988</v>
-      </c>
-      <c r="F53" s="20">
-        <v>-4.9318171271640026</v>
+      <c r="B53" s="16">
+        <v>2021</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="17">
+        <v>38.806120763444</v>
+      </c>
+      <c r="E53" s="17">
+        <v>0.52786272473100126</v>
+      </c>
+      <c r="F53" s="17">
+        <v>-4.9454430540099992</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
@@ -1927,20 +1943,20 @@
       <c r="L53" s="9"/>
     </row>
     <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="10">
+      <c r="B54" s="19">
         <v>2020</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="11">
-        <v>37.236879837732999</v>
-      </c>
-      <c r="E54" s="11">
-        <v>-0.68768615180900383</v>
-      </c>
-      <c r="F54" s="11">
-        <v>-6.7247565943400005</v>
+      <c r="C54" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="20">
+        <v>38.278258038712998</v>
+      </c>
+      <c r="E54" s="20">
+        <v>1.0413782009799988</v>
+      </c>
+      <c r="F54" s="20">
+        <v>-4.9318171271640026</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
@@ -1948,20 +1964,20 @@
       <c r="L54" s="9"/>
     </row>
     <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="13">
+      <c r="B55" s="10">
         <v>2020</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="14">
-        <v>37.924565989542003</v>
-      </c>
-      <c r="E55" s="14">
-        <v>1.3544456277440062</v>
-      </c>
-      <c r="F55" s="14">
-        <v>-6.1198410863449979</v>
+      <c r="C55" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="11">
+        <v>37.236879837732999</v>
+      </c>
+      <c r="E55" s="11">
+        <v>-0.68768615180900383</v>
+      </c>
+      <c r="F55" s="11">
+        <v>-6.7247565943400005</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
@@ -1969,20 +1985,20 @@
       <c r="L55" s="9"/>
     </row>
     <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="10">
+      <c r="B56" s="13">
         <v>2020</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="11">
-        <v>36.570120361797997</v>
-      </c>
-      <c r="E56" s="11">
-        <v>1.1681216870269964</v>
-      </c>
-      <c r="F56" s="11">
-        <v>-9.0660737591379998</v>
+      <c r="C56" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="14">
+        <v>37.924565989542003</v>
+      </c>
+      <c r="E56" s="14">
+        <v>1.3544456277440062</v>
+      </c>
+      <c r="F56" s="14">
+        <v>-6.1198410863449979</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
@@ -1990,20 +2006,20 @@
       <c r="L56" s="9"/>
     </row>
     <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="13">
+      <c r="B57" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="14">
-        <v>35.401998674771001</v>
-      </c>
-      <c r="E57" s="14">
-        <v>1.0657257252539978</v>
-      </c>
-      <c r="F57" s="14">
-        <v>-8.6302736901109967</v>
+      <c r="C57" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="11">
+        <v>36.570120361797997</v>
+      </c>
+      <c r="E57" s="11">
+        <v>1.1681216870269964</v>
+      </c>
+      <c r="F57" s="11">
+        <v>-9.0660737591379998</v>
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
@@ -2011,20 +2027,20 @@
       <c r="L57" s="9"/>
     </row>
     <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="10">
+      <c r="B58" s="13">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="11">
-        <v>34.336272949517003</v>
-      </c>
-      <c r="E58" s="11">
-        <v>2.6334568279070041</v>
-      </c>
-      <c r="F58" s="11">
-        <v>-8.7936196097269956</v>
+      <c r="C58" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="14">
+        <v>35.401998674771001</v>
+      </c>
+      <c r="E58" s="14">
+        <v>1.0657257252539978</v>
+      </c>
+      <c r="F58" s="14">
+        <v>-8.6302736901109967</v>
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
@@ -2032,20 +2048,20 @@
       <c r="L58" s="9"/>
     </row>
     <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="13">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="14">
-        <v>31.702816121609999</v>
-      </c>
-      <c r="E59" s="14">
-        <v>0.56100204447999857</v>
-      </c>
-      <c r="F59" s="14">
-        <v>-11.636228398237002</v>
+      <c r="C59" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="11">
+        <v>34.336272949517003</v>
+      </c>
+      <c r="E59" s="11">
+        <v>2.6334568279070041</v>
+      </c>
+      <c r="F59" s="11">
+        <v>-8.7936196097269956</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
@@ -2053,20 +2069,20 @@
       <c r="L59" s="9"/>
     </row>
     <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="10">
+      <c r="B60" s="13">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="11">
-        <v>31.14181407713</v>
-      </c>
-      <c r="E60" s="11">
-        <v>-0.92543961581299783</v>
-      </c>
-      <c r="F60" s="11">
-        <v>-13.130125569466003</v>
+      <c r="C60" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="14">
+        <v>31.702816121609999</v>
+      </c>
+      <c r="E60" s="14">
+        <v>0.56100204447999857</v>
+      </c>
+      <c r="F60" s="14">
+        <v>-11.636228398237002</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
@@ -2074,20 +2090,20 @@
       <c r="L60" s="9"/>
     </row>
     <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="13">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="14">
-        <v>32.067253692942998</v>
-      </c>
-      <c r="E61" s="14">
-        <v>-10.235892744055</v>
-      </c>
-      <c r="F61" s="14">
-        <v>-13.363080195517</v>
+      <c r="C61" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="11">
+        <v>31.14181407713</v>
+      </c>
+      <c r="E61" s="11">
+        <v>-0.92543961581299783</v>
+      </c>
+      <c r="F61" s="11">
+        <v>-13.130125569466003</v>
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
@@ -2095,20 +2111,20 @@
       <c r="L61" s="9"/>
     </row>
     <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="10">
+      <c r="B62" s="13">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="11">
-        <v>42.303146436997999</v>
-      </c>
-      <c r="E62" s="11">
-        <v>-1.5044456613319994</v>
-      </c>
-      <c r="F62" s="11">
-        <v>-4.5257098960519997</v>
+      <c r="C62" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="14">
+        <v>32.067253692942998</v>
+      </c>
+      <c r="E62" s="14">
+        <v>-10.235892744055</v>
+      </c>
+      <c r="F62" s="14">
+        <v>-13.363080195517</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
@@ -2116,20 +2132,20 @@
       <c r="L62" s="9"/>
     </row>
     <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="13">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="14">
-        <v>43.807592098329998</v>
-      </c>
-      <c r="E63" s="14">
-        <v>5.6028280875999315E-2</v>
-      </c>
-      <c r="F63" s="14">
-        <v>-4.6761399973810001</v>
+      <c r="C63" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="11">
+        <v>42.303146436997999</v>
+      </c>
+      <c r="E63" s="11">
+        <v>-1.5044456613319994</v>
+      </c>
+      <c r="F63" s="11">
+        <v>-4.5257098960519997</v>
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
@@ -2137,20 +2153,20 @@
       <c r="L63" s="9"/>
     </row>
     <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="16">
+      <c r="B64" s="13">
         <v>2020</v>
       </c>
-      <c r="C64" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="17">
-        <v>43.751563817453999</v>
-      </c>
-      <c r="E64" s="17">
-        <v>0.54148865157699788</v>
-      </c>
-      <c r="F64" s="17">
-        <v>-1.8917637683180004</v>
+      <c r="C64" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="14">
+        <v>43.807592098329998</v>
+      </c>
+      <c r="E64" s="14">
+        <v>5.6028280875999315E-2</v>
+      </c>
+      <c r="F64" s="14">
+        <v>-4.6761399973810001</v>
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
@@ -2158,20 +2174,20 @@
       <c r="L64" s="9"/>
     </row>
     <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="20">
-        <v>43.210075165877001</v>
-      </c>
-      <c r="E65" s="20">
-        <v>-0.75156126619599917</v>
-      </c>
-      <c r="F65" s="20">
-        <v>-1.0975396315839987</v>
+      <c r="B65" s="16">
+        <v>2020</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="17">
+        <v>43.751563817453999</v>
+      </c>
+      <c r="E65" s="17">
+        <v>0.54148865157699788</v>
+      </c>
+      <c r="F65" s="17">
+        <v>-1.8917637683180004</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
@@ -2179,20 +2195,20 @@
       <c r="L65" s="9"/>
     </row>
     <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="10">
+      <c r="B66" s="19">
         <v>2019</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="11">
-        <v>43.961636432073</v>
-      </c>
-      <c r="E66" s="11">
-        <v>-8.2770643814001232E-2</v>
-      </c>
-      <c r="F66" s="11">
-        <v>2.3018265214169986</v>
+      <c r="C66" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="20">
+        <v>43.210075165877001</v>
+      </c>
+      <c r="E66" s="20">
+        <v>-0.75156126619599917</v>
+      </c>
+      <c r="F66" s="20">
+        <v>-1.0975396315839987</v>
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
@@ -2200,20 +2216,20 @@
       <c r="L66" s="9"/>
     </row>
     <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="13">
+      <c r="B67" s="10">
         <v>2019</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="14">
-        <v>44.044407075887001</v>
-      </c>
-      <c r="E67" s="14">
-        <v>-1.5917870450489957</v>
-      </c>
-      <c r="F67" s="14">
-        <v>1.515607876605003</v>
+      <c r="C67" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="11">
+        <v>43.961636432073</v>
+      </c>
+      <c r="E67" s="11">
+        <v>-8.2770643814001232E-2</v>
+      </c>
+      <c r="F67" s="11">
+        <v>2.3018265214169986</v>
       </c>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
@@ -2221,20 +2237,20 @@
       <c r="L67" s="9"/>
     </row>
     <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="10">
+      <c r="B68" s="13">
         <v>2019</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="11">
-        <v>45.636194120935997</v>
-      </c>
-      <c r="E68" s="11">
-        <v>1.6039217560539996</v>
-      </c>
-      <c r="F68" s="11">
-        <v>3.211570174491996</v>
+      <c r="C68" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="14">
+        <v>44.044407075887001</v>
+      </c>
+      <c r="E68" s="14">
+        <v>-1.5917870450489957</v>
+      </c>
+      <c r="F68" s="14">
+        <v>1.515607876605003</v>
       </c>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
@@ -2242,20 +2258,20 @@
       <c r="L68" s="9"/>
     </row>
     <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="13">
+      <c r="B69" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="14">
-        <v>44.032272364881997</v>
-      </c>
-      <c r="E69" s="14">
-        <v>0.9023798056379988</v>
-      </c>
-      <c r="F69" s="14">
-        <v>0.97113297690499678</v>
+      <c r="C69" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="11">
+        <v>45.636194120935997</v>
+      </c>
+      <c r="E69" s="11">
+        <v>1.6039217560539996</v>
+      </c>
+      <c r="F69" s="11">
+        <v>3.211570174491996</v>
       </c>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
@@ -2263,20 +2279,20 @@
       <c r="L69" s="9"/>
     </row>
     <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="10">
+      <c r="B70" s="13">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="11">
-        <v>43.129892559243999</v>
-      </c>
-      <c r="E70" s="11">
-        <v>-0.2091519606030019</v>
-      </c>
-      <c r="F70" s="11">
-        <v>5.7005528914999104E-2</v>
+      <c r="C70" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="14">
+        <v>44.032272364881997</v>
+      </c>
+      <c r="E70" s="14">
+        <v>0.9023798056379988</v>
+      </c>
+      <c r="F70" s="14">
+        <v>0.97113297690499678</v>
       </c>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
@@ -2284,20 +2300,20 @@
       <c r="L70" s="9"/>
     </row>
     <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="13">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" s="14">
-        <v>43.339044519847</v>
-      </c>
-      <c r="E71" s="14">
-        <v>-0.93289512674900266</v>
-      </c>
-      <c r="F71" s="14">
-        <v>6.4869752497600004</v>
+      <c r="C71" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="11">
+        <v>43.129892559243999</v>
+      </c>
+      <c r="E71" s="11">
+        <v>-0.2091519606030019</v>
+      </c>
+      <c r="F71" s="11">
+        <v>5.7005528914999104E-2</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
@@ -2305,20 +2321,20 @@
       <c r="L71" s="9"/>
     </row>
     <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="10">
+      <c r="B72" s="13">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="11">
-        <v>44.271939646596003</v>
-      </c>
-      <c r="E72" s="11">
-        <v>-1.158394241863995</v>
-      </c>
-      <c r="F72" s="11">
-        <v>7.770623351792004</v>
+      <c r="C72" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="14">
+        <v>43.339044519847</v>
+      </c>
+      <c r="E72" s="14">
+        <v>-0.93289512674900266</v>
+      </c>
+      <c r="F72" s="14">
+        <v>6.4869752497600004</v>
       </c>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
@@ -2326,20 +2342,20 @@
       <c r="L72" s="9"/>
     </row>
     <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="13">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="14">
-        <v>45.430333888459998</v>
-      </c>
-      <c r="E73" s="14">
-        <v>-1.3985224445900002</v>
-      </c>
-      <c r="F73" s="14">
-        <v>9.7228185409380004</v>
+      <c r="C73" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="11">
+        <v>44.271939646596003</v>
+      </c>
+      <c r="E73" s="11">
+        <v>-1.158394241863995</v>
+      </c>
+      <c r="F73" s="11">
+        <v>7.770623351792004</v>
       </c>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
@@ -2347,20 +2363,20 @@
       <c r="L73" s="9"/>
     </row>
     <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="10">
+      <c r="B74" s="13">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="11">
-        <v>46.828856333049998</v>
-      </c>
-      <c r="E74" s="11">
-        <v>-1.6548757626609998</v>
-      </c>
-      <c r="F74" s="11">
-        <v>12.068349093100998</v>
+      <c r="C74" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="14">
+        <v>45.430333888459998</v>
+      </c>
+      <c r="E74" s="14">
+        <v>-1.3985224445900002</v>
+      </c>
+      <c r="F74" s="14">
+        <v>9.7228185409380004</v>
       </c>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
@@ -2368,20 +2384,20 @@
       <c r="L74" s="9"/>
     </row>
     <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="13">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="14">
-        <v>48.483732095710998</v>
-      </c>
-      <c r="E75" s="14">
-        <v>2.840404509938999</v>
-      </c>
-      <c r="F75" s="14">
-        <v>13.744391889287996</v>
+      <c r="C75" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="11">
+        <v>46.828856333049998</v>
+      </c>
+      <c r="E75" s="11">
+        <v>-1.6548757626609998</v>
+      </c>
+      <c r="F75" s="11">
+        <v>12.068349093100998</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
@@ -2389,20 +2405,20 @@
       <c r="L75" s="9"/>
     </row>
     <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="16">
+      <c r="B76" s="13">
         <v>2019</v>
       </c>
-      <c r="C76" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="17">
-        <v>45.643327585771999</v>
-      </c>
-      <c r="E76" s="17">
-        <v>1.3357127883109996</v>
-      </c>
-      <c r="F76" s="17">
-        <v>11.013723760120996</v>
+      <c r="C76" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="14">
+        <v>48.483732095710998</v>
+      </c>
+      <c r="E76" s="14">
+        <v>2.840404509938999</v>
+      </c>
+      <c r="F76" s="14">
+        <v>13.744391889287996</v>
       </c>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
@@ -2410,20 +2426,20 @@
       <c r="L76" s="9"/>
     </row>
     <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="13">
-        <v>2018</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="14">
-        <v>44.307614797461</v>
-      </c>
-      <c r="E77" s="14">
-        <v>2.6478048868049981</v>
-      </c>
-      <c r="F77" s="14">
-        <v>8.4335217533200009</v>
+      <c r="B77" s="16">
+        <v>2019</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="17">
+        <v>45.643327585771999</v>
+      </c>
+      <c r="E77" s="17">
+        <v>1.3357127883109996</v>
+      </c>
+      <c r="F77" s="17">
+        <v>11.013723760120996</v>
       </c>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
@@ -2431,20 +2447,20 @@
       <c r="L77" s="9"/>
     </row>
     <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="10">
+      <c r="B78" s="13">
         <v>2018</v>
       </c>
-      <c r="C78" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="11">
-        <v>41.659809910656001</v>
-      </c>
-      <c r="E78" s="11">
-        <v>-0.86898928862599689</v>
-      </c>
-      <c r="F78" s="11">
-        <v>5.0281376012930039</v>
+      <c r="C78" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="14">
+        <v>44.307614797461</v>
+      </c>
+      <c r="E78" s="14">
+        <v>2.6478048868049981</v>
+      </c>
+      <c r="F78" s="14">
+        <v>8.4335217533200009</v>
       </c>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
@@ -2452,20 +2468,20 @@
       <c r="L78" s="9"/>
     </row>
     <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="13">
+      <c r="B79" s="10">
         <v>2018</v>
       </c>
-      <c r="C79" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="14">
-        <v>42.528799199281998</v>
-      </c>
-      <c r="E79" s="14">
-        <v>0.10417525283799733</v>
-      </c>
-      <c r="F79" s="14">
-        <v>6.0107838518529988</v>
+      <c r="C79" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="11">
+        <v>41.659809910656001</v>
+      </c>
+      <c r="E79" s="11">
+        <v>-0.86898928862599689</v>
+      </c>
+      <c r="F79" s="11">
+        <v>5.0281376012930039</v>
       </c>
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
@@ -2473,141 +2489,141 @@
       <c r="L79" s="9"/>
     </row>
     <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="10">
+      <c r="B80" s="13">
         <v>2018</v>
       </c>
-      <c r="C80" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="11">
-        <v>42.424623946444001</v>
-      </c>
-      <c r="E80" s="11">
-        <v>-0.63651544153299966</v>
-      </c>
-      <c r="F80" s="11">
-        <v>5.3888433559340001</v>
+      <c r="C80" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="14">
+        <v>42.528799199281998</v>
+      </c>
+      <c r="E80" s="14">
+        <v>0.10417525283799733</v>
+      </c>
+      <c r="F80" s="14">
+        <v>6.0107838518529988</v>
       </c>
       <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
     </row>
     <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="13">
+      <c r="B81" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="14">
-        <v>43.061139387977001</v>
-      </c>
-      <c r="E81" s="14">
-        <v>-1.1747642351998877E-2</v>
-      </c>
-      <c r="F81" s="14">
-        <v>6.544364835888004</v>
+      <c r="C81" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="11">
+        <v>42.424623946444001</v>
+      </c>
+      <c r="E81" s="11">
+        <v>-0.63651544153299966</v>
+      </c>
+      <c r="F81" s="11">
+        <v>5.3888433559340001</v>
       </c>
       <c r="H81" s="12"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="10">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="11">
-        <v>43.072887030328999</v>
-      </c>
-      <c r="E82" s="11">
-        <v>6.2208177602419994</v>
-      </c>
-      <c r="F82" s="11">
-        <v>6.855344005100001</v>
+      <c r="C82" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="14">
+        <v>43.061139387977001</v>
+      </c>
+      <c r="E82" s="14">
+        <v>-1.1747642351998877E-2</v>
+      </c>
+      <c r="F82" s="14">
+        <v>6.544364835888004</v>
       </c>
       <c r="H82" s="12"/>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
     </row>
     <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="13">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D83" s="14">
-        <v>36.852069270087</v>
-      </c>
-      <c r="E83" s="14">
-        <v>0.35075297528300098</v>
-      </c>
-      <c r="F83" s="14">
-        <v>1.2308032480960023</v>
+      <c r="C83" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="11">
+        <v>43.072887030328999</v>
+      </c>
+      <c r="E83" s="11">
+        <v>6.2208177602419994</v>
+      </c>
+      <c r="F83" s="11">
+        <v>6.855344005100001</v>
       </c>
       <c r="H83" s="12"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
     </row>
     <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="10">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="11">
-        <v>36.501316294803999</v>
-      </c>
-      <c r="E84" s="11">
-        <v>0.79380094728200135</v>
-      </c>
-      <c r="F84" s="11">
-        <v>0.91029988176300236</v>
+      <c r="C84" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="14">
+        <v>36.852069270087</v>
+      </c>
+      <c r="E84" s="14">
+        <v>0.35075297528300098</v>
+      </c>
+      <c r="F84" s="14">
+        <v>1.2308032480960023</v>
       </c>
       <c r="H84" s="12"/>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
     </row>
-    <row r="85" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="13">
+    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="14">
-        <v>35.707515347521998</v>
-      </c>
-      <c r="E85" s="14">
-        <v>0.94700810757299791</v>
-      </c>
-      <c r="F85" s="14">
-        <v>0.62944883013700093</v>
-      </c>
-      <c r="G85" s="22"/>
+      <c r="C85" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="11">
+        <v>36.501316294803999</v>
+      </c>
+      <c r="E85" s="11">
+        <v>0.79380094728200135</v>
+      </c>
+      <c r="F85" s="11">
+        <v>0.91029988176300236</v>
+      </c>
       <c r="H85" s="12"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
     </row>
     <row r="86" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="10">
+      <c r="B86" s="13">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="11">
-        <v>34.760507239949</v>
-      </c>
-      <c r="E86" s="11">
-        <v>2.1167033525998136E-2</v>
-      </c>
-      <c r="F86" s="11">
-        <v>0.53080793961800055</v>
+      <c r="C86" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="14">
+        <v>35.707515347521998</v>
+      </c>
+      <c r="E86" s="14">
+        <v>0.94700810757299791</v>
+      </c>
+      <c r="F86" s="14">
+        <v>0.62944883013700093</v>
       </c>
       <c r="G86" s="22"/>
       <c r="H86" s="12"/>
@@ -2615,66 +2631,78 @@
       <c r="L86" s="9"/>
     </row>
     <row r="87" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="13">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="14">
-        <v>34.739340206423002</v>
-      </c>
-      <c r="E87" s="14">
-        <v>0.10973638077199865</v>
-      </c>
-      <c r="F87" s="14">
-        <v>2.5910907309180047</v>
+      <c r="C87" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="11">
+        <v>34.760507239949</v>
+      </c>
+      <c r="E87" s="11">
+        <v>2.1167033525998136E-2</v>
+      </c>
+      <c r="F87" s="11">
+        <v>0.53080793961800055</v>
       </c>
       <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
+      <c r="H87" s="12"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
     </row>
     <row r="88" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="10">
+      <c r="B88" s="13">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="11">
-        <v>34.629603825651003</v>
-      </c>
-      <c r="E88" s="11">
-        <v>-1.2444892184899956</v>
-      </c>
-      <c r="F88" s="11">
-        <v>6.0255458294220041</v>
+      <c r="C88" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="14">
+        <v>34.739340206423002</v>
+      </c>
+      <c r="E88" s="14">
+        <v>0.10973638077199865</v>
+      </c>
+      <c r="F88" s="14">
+        <v>2.5910907309180047</v>
       </c>
       <c r="G88" s="22"/>
       <c r="H88" s="22"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B89" s="3" t="s">
-        <v>24</v>
-      </c>
+    <row r="89" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="11">
+        <v>34.629603825651003</v>
+      </c>
+      <c r="E89" s="11">
+        <v>-1.2444892184899956</v>
+      </c>
+      <c r="F89" s="11">
+        <v>6.0255458294220041</v>
+      </c>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B90" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="22"/>
+        <v>24</v>
+      </c>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
     </row>
-    <row r="91" spans="2:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="B91" s="23" t="s">
-        <v>22</v>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B91" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="22"/>
@@ -2682,27 +2710,31 @@
       <c r="L91" s="9"/>
     </row>
     <row r="92" spans="2:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="B92" s="3" t="s">
-        <v>23</v>
+      <c r="B92" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="22"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:12" ht="20.25" x14ac:dyDescent="0.45">
       <c r="B93" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B94" s="24"/>
+      <c r="B94" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
     </row>
@@ -2712,8 +2744,7 @@
       <c r="L95" s="9"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
+      <c r="B96" s="24"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
     </row>
@@ -2724,6 +2755,8 @@
       <c r="L97" s="9"/>
     </row>
     <row r="98" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
     </row>
@@ -2731,10 +2764,14 @@
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
     </row>
+    <row r="100" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E96:F96"/>
     <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ICC.xlsx
+++ b/ICC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E544B0A-0797-4746-96DA-B39F32553E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A8BC2A-3DE6-40FB-8FBA-086643E545C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="25">
   <si>
     <t>Mes</t>
   </si>
@@ -168,7 +168,7 @@
     </r>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -479,6 +479,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -505,13 +512,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -563,8 +563,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F90" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
-  <autoFilter ref="B4:F90" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F91" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B4:F91" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -806,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O99"/>
+  <dimension ref="B2:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -872,20 +872,20 @@
       <c r="N4"/>
     </row>
     <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>2025</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="11">
-        <v>46.341574173566002</v>
-      </c>
-      <c r="E5" s="11">
-        <v>-0.32284942115399673</v>
-      </c>
-      <c r="F5" s="11">
-        <v>-0.79334059114300004</v>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9">
+        <v>45.976235939410998</v>
+      </c>
+      <c r="E5" s="9">
+        <v>-0.34323154758000002</v>
+      </c>
+      <c r="F5" s="9">
+        <v>-1.331623937379</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -896,20 +896,20 @@
       <c r="N5"/>
     </row>
     <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>2025</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="13">
-        <v>46.622191241693997</v>
-      </c>
-      <c r="E6" s="13">
-        <v>-0.38806219840500233</v>
-      </c>
-      <c r="F6" s="13">
-        <v>-0.35492022665</v>
+      <c r="C6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="11">
+        <v>46.319467486991002</v>
+      </c>
+      <c r="E6" s="11">
+        <v>-0.27649621156800003</v>
+      </c>
+      <c r="F6" s="11">
+        <v>-0.78752603222700002</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -920,20 +920,20 @@
       <c r="N6"/>
     </row>
     <row r="7" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="11">
-        <v>47.010253440099</v>
-      </c>
-      <c r="E7" s="11">
-        <v>-0.63332321579800066</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0.192788123724</v>
+      <c r="B7" s="12">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="13">
+        <v>46.595963698558997</v>
+      </c>
+      <c r="E7" s="13">
+        <v>-0.355033037813</v>
+      </c>
+      <c r="F7" s="13">
+        <v>-0.41740595945300002</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -944,20 +944,20 @@
       <c r="N7"/>
     </row>
     <row r="8" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="8">
+      <c r="B8" s="10">
         <v>2024</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="9">
-        <v>47.542663995642997</v>
-      </c>
-      <c r="E8" s="9">
-        <v>-1.6992138608250045</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.47230315371600001</v>
+      <c r="C8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11">
+        <v>46.950996736373</v>
+      </c>
+      <c r="E8" s="11">
+        <v>-0.56330912419199997</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.19061669460700001</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -968,20 +968,20 @@
       <c r="N8"/>
     </row>
     <row r="9" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>2024</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="11">
-        <v>49.241877856468001</v>
-      </c>
-      <c r="E9" s="11">
-        <v>2.0724692801889999</v>
-      </c>
-      <c r="F9" s="11">
-        <v>3.3263438859829999</v>
+      <c r="C9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="9">
+        <v>47.514305860565003</v>
+      </c>
+      <c r="E9" s="9">
+        <v>-1.705231067827</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.46944651577099999</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -991,1440 +991,1464 @@
       <c r="M9"/>
       <c r="N9"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="8">
+    <row r="10" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="10">
         <v>2024</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="11">
+        <v>49.219536928392003</v>
+      </c>
+      <c r="E10" s="11">
+        <v>2.0806837181210001</v>
+      </c>
+      <c r="F10" s="11">
+        <v>3.3231944232699999</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B11" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="9">
-        <v>47.198689105379998</v>
-      </c>
-      <c r="E10" s="9">
-        <v>-0.45272326745400449</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0.222666701641</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="10">
+      <c r="D11" s="9">
+        <v>47.138853210272003</v>
+      </c>
+      <c r="E11" s="9">
+        <v>-0.466033810682</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.21693867508299999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="11">
-        <v>47.619891475388997</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0.53650198195000343</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0.84653044643099995</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="8">
+      <c r="D12" s="11">
+        <v>47.604887020954003</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.49143346084599998</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.84237813332199996</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B13" s="8">
         <v>2024</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="9">
-        <v>47.114910390883999</v>
-      </c>
-      <c r="E12" s="9">
-        <v>-0.37987368851599967</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0.59421139970100256</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="10">
+      <c r="D13" s="9">
+        <v>47.113453560107999</v>
+      </c>
+      <c r="E13" s="9">
+        <v>-0.41085242560899998</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.64233871291800004</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="11">
-        <v>47.494784079399999</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.63486418869700145</v>
-      </c>
-      <c r="F13" s="11">
-        <v>2.1675441261789956</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="8">
+      <c r="D14" s="11">
+        <v>47.524305985717</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.59298655487600005</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2.1819394909269998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B15" s="8">
         <v>2024</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="9">
-        <v>46.859919890702997</v>
-      </c>
-      <c r="E14" s="9">
-        <v>-0.39351485334400138</v>
-      </c>
-      <c r="F14" s="9">
-        <v>2.0380472853140006</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="10">
+      <c r="D15" s="9">
+        <v>46.931319430841</v>
+      </c>
+      <c r="E15" s="9">
+        <v>-0.44370394806300001</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2.0163010405609998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="11">
-        <v>47.253434744046999</v>
-      </c>
-      <c r="E15" s="11">
-        <v>-2.4218434928002353E-2</v>
-      </c>
-      <c r="F15" s="11">
-        <v>3.1234598971099956</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="8">
+      <c r="D16" s="11">
+        <v>47.375023378903997</v>
+      </c>
+      <c r="E16" s="11">
+        <v>6.7163502114000004E-2</v>
+      </c>
+      <c r="F16" s="11">
+        <v>3.14807165151</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="8">
         <v>2024</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="9">
-        <v>47.277653178975001</v>
-      </c>
-      <c r="E16" s="9">
-        <v>9.5685143427999719E-2</v>
-      </c>
-      <c r="F16" s="9">
-        <v>2.770534054993</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="10">
+      <c r="D17" s="9">
+        <v>47.307859876789998</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.20086635757099999</v>
+      </c>
+      <c r="F17" s="9">
+        <v>2.8060878431280001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="10">
         <v>2024</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="11">
-        <v>47.078103634130002</v>
-      </c>
-      <c r="E17" s="11">
-        <v>6.5371576836000145E-2</v>
-      </c>
-      <c r="F17" s="11">
-        <v>2.339401044984001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="12">
+      <c r="D18" s="11">
+        <v>47.106993519218001</v>
+      </c>
+      <c r="E18" s="11">
+        <v>9.3623861205999998E-2</v>
+      </c>
+      <c r="F18" s="11">
+        <v>2.3288815804160001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="12">
         <v>2024</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="13">
-        <v>47.012732057294002</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0.12179524327900282</v>
-      </c>
-      <c r="F18" s="13">
-        <v>2.7519151831910023</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="14">
+      <c r="D19" s="13">
+        <v>47.013369658012003</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.25298961624600003</v>
+      </c>
+      <c r="F19" s="13">
+        <v>2.7453596054060001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="14">
         <v>2023</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="16">
-        <v>46.784323344619999</v>
-      </c>
-      <c r="E19" s="16">
-        <v>-0.28603749730700001</v>
-      </c>
-      <c r="F19" s="17">
-        <v>3.9485522645889999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="8">
+      <c r="D20" s="16">
+        <v>46.760380041765004</v>
+      </c>
+      <c r="E20" s="16">
+        <v>-0.28447930302899999</v>
+      </c>
+      <c r="F20" s="17">
+        <v>3.9418454906870002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="8">
         <v>2023</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="9">
-        <v>47.070360841926998</v>
-      </c>
-      <c r="E20" s="9">
-        <v>1.1618868274009999</v>
-      </c>
-      <c r="F20" s="9">
-        <v>5.1133925881320001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="10">
+      <c r="D21" s="9">
+        <v>47.044859344793998</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1.148516839672</v>
+      </c>
+      <c r="F21" s="9">
+        <v>5.1064142286429997</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="11">
-        <v>45.908474014526</v>
-      </c>
-      <c r="E21" s="11">
-        <v>-1.031207904153</v>
-      </c>
-      <c r="F21" s="11">
-        <v>4.5093709121429999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="8">
+      <c r="D22" s="11">
+        <v>45.896342505122</v>
+      </c>
+      <c r="E22" s="11">
+        <v>-1.0255720300660001</v>
+      </c>
+      <c r="F22" s="11">
+        <v>4.5044652707159996</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="8">
         <v>2023</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="9">
-        <v>46.939681918679</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0.16632088972100001</v>
-      </c>
-      <c r="F22" s="9">
-        <v>5.6963888593009999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="10">
+      <c r="D23" s="9">
+        <v>46.921914535188002</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.15940564755600001</v>
+      </c>
+      <c r="F23" s="9">
+        <v>5.6887116541380003</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="11">
-        <v>46.773361028958</v>
-      </c>
-      <c r="E23" s="11">
-        <v>0.30486729587299999</v>
-      </c>
-      <c r="F23" s="11">
-        <v>5.9287752867479995</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="8">
+      <c r="D24" s="11">
+        <v>46.762508887632002</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.29139404044200001</v>
+      </c>
+      <c r="F24" s="11">
+        <v>5.873977612569</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="8">
         <v>2023</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="9">
-        <v>46.468493733084998</v>
-      </c>
-      <c r="E24" s="9">
-        <v>1.1422389202059999</v>
-      </c>
-      <c r="F24" s="9">
-        <v>5.2076997239229996</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="10">
+      <c r="D25" s="9">
+        <v>46.471114847190996</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1.1287483523999999</v>
+      </c>
+      <c r="F25" s="9">
+        <v>5.1891049218100003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="11">
-        <v>45.326254812879</v>
-      </c>
-      <c r="E25" s="11">
-        <v>0.44543549841300001</v>
-      </c>
-      <c r="F25" s="11">
-        <v>2.5974161936300035</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="8">
+      <c r="D26" s="11">
+        <v>45.342366494791001</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.42734810451100003</v>
+      </c>
+      <c r="F26" s="11">
+        <v>2.606794028245</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="8">
         <v>2023</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="9">
-        <v>44.880819314466002</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0.69189775845199364</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0.83022703554100019</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="10">
+      <c r="D27" s="9">
+        <v>44.915018390279997</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.68806666288600005</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.85548768743600001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="11">
-        <v>44.186391083711001</v>
-      </c>
-      <c r="E27" s="11">
-        <v>-0.28939950400699999</v>
-      </c>
-      <c r="F27" s="11">
-        <v>0.252706920015</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="8">
+      <c r="D28" s="11">
+        <v>44.226951727394002</v>
+      </c>
+      <c r="E28" s="11">
+        <v>-0.27482030626800003</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.27127605507800001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="8">
         <v>2023</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="9">
-        <v>44.475790587718997</v>
-      </c>
-      <c r="E28" s="9">
-        <v>-0.33544786658099923</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0.8672874619440023</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="10">
+      <c r="D29" s="9">
+        <v>44.501772033662</v>
+      </c>
+      <c r="E29" s="9">
+        <v>-0.27633990514000001</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.89866910650999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="10">
         <v>2023</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="11">
-        <v>44.798758693201002</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0.47788571504300137</v>
-      </c>
-      <c r="F29" s="11">
-        <v>1.6084502123290036</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="12">
+      <c r="D30" s="11">
+        <v>44.778111938801999</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.51010188619600005</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1.6094188086479999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="12">
         <v>2023</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="13">
-        <v>44.28862488088</v>
-      </c>
-      <c r="E30" s="13">
-        <v>1.452853800849</v>
-      </c>
-      <c r="F30" s="13">
-        <v>1.1982961543330006</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="10">
+      <c r="D31" s="13">
+        <v>44.268010052606002</v>
+      </c>
+      <c r="E31" s="13">
+        <v>1.4494755015280001</v>
+      </c>
+      <c r="F31" s="13">
+        <v>1.202838429791</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="10">
         <v>2022</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="11">
-        <v>42.835771080031002</v>
-      </c>
-      <c r="E31" s="11">
-        <v>0.87880282623499995</v>
-      </c>
-      <c r="F31" s="11">
-        <v>-1.5566612365979999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="8">
+      <c r="D32" s="11">
+        <v>42.818534551078997</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0.88008943492699998</v>
+      </c>
+      <c r="F32" s="11">
+        <v>-1.562171298597</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="8">
         <v>2022</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="9">
-        <v>41.956968253795999</v>
-      </c>
-      <c r="E32" s="9">
-        <v>0.55786515141299997</v>
-      </c>
-      <c r="F32" s="9">
-        <v>-4.258948589889</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="10">
+      <c r="D33" s="9">
+        <v>41.938445116151001</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.54656788174399995</v>
+      </c>
+      <c r="F33" s="9">
+        <v>-4.2637662050880003</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="11">
-        <v>41.399103102383002</v>
-      </c>
-      <c r="E33" s="11">
-        <v>0.155810043004</v>
-      </c>
-      <c r="F33" s="11">
-        <v>-2.4755355301050002</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="8">
+      <c r="D34" s="11">
+        <v>41.391877234406998</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.158674353357</v>
+      </c>
+      <c r="F34" s="11">
+        <v>-2.4777426102739999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="8">
         <v>2022</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="9">
-        <v>41.243293059378999</v>
-      </c>
-      <c r="E34" s="9">
-        <v>0.34857632184499998</v>
-      </c>
-      <c r="F34" s="9">
-        <v>-2.4881533306870001</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="10">
+      <c r="D35" s="9">
+        <v>41.233202881049998</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.34467160598699997</v>
+      </c>
+      <c r="F35" s="9">
+        <v>-2.4938033913709998</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="11">
-        <v>40.894716737533997</v>
-      </c>
-      <c r="E35" s="11">
-        <v>-0.38470258056200002</v>
-      </c>
-      <c r="F35" s="11">
-        <v>-2.0908864724629979</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="8">
+      <c r="D36" s="11">
+        <v>40.888531275063002</v>
+      </c>
+      <c r="E36" s="11">
+        <v>-0.39347865031700002</v>
+      </c>
+      <c r="F36" s="11">
+        <v>-2.1249969639500002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="8">
         <v>2022</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="9">
-        <v>41.312999267259997</v>
-      </c>
-      <c r="E36" s="9">
-        <v>-1.4168244923310027</v>
-      </c>
-      <c r="F36" s="9">
-        <v>-2.9645817957340057</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="10">
+      <c r="D37" s="9">
+        <v>41.282009925380997</v>
+      </c>
+      <c r="E37" s="9">
+        <v>-1.4535625411649999</v>
+      </c>
+      <c r="F37" s="9">
+        <v>-2.9765830932670001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="11">
-        <v>42.729823759591</v>
-      </c>
-      <c r="E37" s="11">
-        <v>-1.2618218102569969</v>
-      </c>
-      <c r="F37" s="11">
-        <v>-1.1791047588610013</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="8">
+      <c r="D38" s="11">
+        <v>42.735572466546003</v>
+      </c>
+      <c r="E38" s="11">
+        <v>-1.3239582362989999</v>
+      </c>
+      <c r="F38" s="11">
+        <v>-1.1719935358410001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="8">
         <v>2022</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="9">
-        <v>43.991645569847996</v>
-      </c>
-      <c r="E38" s="9">
-        <v>9.6824221307997504E-2</v>
-      </c>
-      <c r="F38" s="9">
-        <v>1.388137048136997</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="10">
+      <c r="D39" s="9">
+        <v>44.059530702844</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0.103855030529</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1.4097650039230001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="11">
-        <v>43.894821348539999</v>
-      </c>
-      <c r="E39" s="11">
-        <v>0.3588540879189992</v>
-      </c>
-      <c r="F39" s="11">
-        <v>1.6997564136029979</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="8">
+      <c r="D40" s="11">
+        <v>43.955675672315998</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0.35257274516300002</v>
+      </c>
+      <c r="F40" s="11">
+        <v>1.732606384201</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="8">
         <v>2022</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="9">
-        <v>43.581612006058997</v>
-      </c>
-      <c r="E40" s="9">
-        <v>0.40571488380400211</v>
-      </c>
-      <c r="F40" s="9">
-        <v>2.8589402874790011</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="10">
+      <c r="D41" s="9">
+        <v>43.603102927152001</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0.43440979699900001</v>
+      </c>
+      <c r="F41" s="9">
+        <v>2.9009219765359999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="10">
         <v>2022</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="11">
-        <v>43.130252376816998</v>
-      </c>
-      <c r="E41" s="11">
-        <v>6.773165704699835E-2</v>
-      </c>
-      <c r="F41" s="11">
-        <v>4.1987350005709985</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="12">
+      <c r="D42" s="11">
+        <v>43.168693130153997</v>
+      </c>
+      <c r="E42" s="11">
+        <v>0.103521507338</v>
+      </c>
+      <c r="F42" s="11">
+        <v>4.2176626654430001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="12">
         <v>2022</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C43" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="13">
-        <v>43.062520719769999</v>
-      </c>
-      <c r="E42" s="13">
-        <v>-1.3176755318079998</v>
-      </c>
-      <c r="F42" s="13">
-        <v>4.2563999563259998</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="15">
+      <c r="D43" s="13">
+        <v>43.065171622816003</v>
+      </c>
+      <c r="E43" s="13">
+        <v>-1.3155342268600001</v>
+      </c>
+      <c r="F43" s="13">
+        <v>4.2479922902749996</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="15">
         <v>2021</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="16">
-        <v>44.380196251577999</v>
-      </c>
-      <c r="E43" s="16">
-        <v>-1.7879191209029983</v>
-      </c>
-      <c r="F43" s="16">
-        <v>6.1019382128650008</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="8">
+      <c r="D44" s="16">
+        <v>44.380705849675003</v>
+      </c>
+      <c r="E44" s="16">
+        <v>-1.8215054715650001</v>
+      </c>
+      <c r="F44" s="16">
+        <v>6.0974888969430001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="8">
         <v>2021</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="9">
-        <v>46.168115372480997</v>
-      </c>
-      <c r="E44" s="9">
-        <v>2.3412782111969999</v>
-      </c>
-      <c r="F44" s="9">
-        <v>8.9589993390480007</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="10">
+      <c r="D45" s="9">
+        <v>46.20221132124</v>
+      </c>
+      <c r="E45" s="9">
+        <v>2.3325914765590001</v>
+      </c>
+      <c r="F45" s="9">
+        <v>8.9516526945729993</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="11">
-        <v>43.934065954361998</v>
-      </c>
-      <c r="E45" s="11">
-        <v>0.13939590725299666</v>
-      </c>
-      <c r="F45" s="11">
-        <v>6.0094999648199945</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="8">
+      <c r="D46" s="11">
+        <v>43.869619844680997</v>
+      </c>
+      <c r="E46" s="11">
+        <v>0.14261357225900001</v>
+      </c>
+      <c r="F46" s="11">
+        <v>5.9967428582659998</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="8">
         <v>2021</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="9">
-        <v>43.731446390065997</v>
-      </c>
-      <c r="E46" s="9">
-        <v>0.7275132353660041</v>
-      </c>
-      <c r="F46" s="9">
-        <v>7.2245496853110041</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="10">
+      <c r="D47" s="9">
+        <v>43.727006272422003</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0.71347803340899996</v>
+      </c>
+      <c r="F47" s="9">
+        <v>7.1749300043410003</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="11">
-        <v>43.015745825960998</v>
-      </c>
-      <c r="E47" s="11">
-        <v>-1.239868725734</v>
-      </c>
-      <c r="F47" s="11">
-        <v>7.6313284450159999</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="8">
+      <c r="D48" s="11">
+        <v>43.013528239012999</v>
+      </c>
+      <c r="E48" s="11">
+        <v>-1.2450647796350001</v>
+      </c>
+      <c r="F48" s="11">
+        <v>7.6300164916139996</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="8">
         <v>2021</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="9">
-        <v>44.277581062994003</v>
-      </c>
-      <c r="E48" s="9">
-        <v>0.36865254454200169</v>
-      </c>
-      <c r="F48" s="9">
-        <v>9.9413081134769996</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="10">
+      <c r="D49" s="9">
+        <v>44.258593018648</v>
+      </c>
+      <c r="E49" s="9">
+        <v>0.35102701626100002</v>
+      </c>
+      <c r="F49" s="9">
+        <v>9.9263345376540002</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="11">
-        <v>43.908928518452001</v>
-      </c>
-      <c r="E49" s="11">
-        <v>1.3054199967410014</v>
-      </c>
-      <c r="F49" s="11">
-        <v>12.206112396842002</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="8">
+      <c r="D50" s="11">
+        <v>43.907566002387</v>
+      </c>
+      <c r="E50" s="11">
+        <v>1.257800303465</v>
+      </c>
+      <c r="F50" s="11">
+        <v>12.206177739894001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="8">
         <v>2021</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="9">
-        <v>42.603508521710999</v>
-      </c>
-      <c r="E50" s="9">
-        <v>0.40844358677399839</v>
-      </c>
-      <c r="F50" s="9">
-        <v>11.461694444580999</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="10">
+      <c r="D51" s="9">
+        <v>42.649765698922003</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0.42669641080699999</v>
+      </c>
+      <c r="F51" s="9">
+        <v>11.488315681701</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="11">
-        <v>42.195064934937001</v>
-      </c>
-      <c r="E51" s="11">
-        <v>1.5180379617950024</v>
-      </c>
-      <c r="F51" s="11">
-        <v>10.127811241994003</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="8">
+      <c r="D52" s="11">
+        <v>42.223069288114999</v>
+      </c>
+      <c r="E52" s="11">
+        <v>1.5208883374990001</v>
+      </c>
+      <c r="F52" s="11">
+        <v>10.146002681622999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="8">
         <v>2021</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="9">
-        <v>40.677026973141999</v>
-      </c>
-      <c r="E52" s="9">
-        <v>1.7455095968959995</v>
-      </c>
-      <c r="F52" s="9">
-        <v>-1.6261194638559999</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="10">
+      <c r="D53" s="9">
+        <v>40.702180950615997</v>
+      </c>
+      <c r="E53" s="9">
+        <v>1.751150485905</v>
+      </c>
+      <c r="F53" s="9">
+        <v>-1.6026047065360001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="10">
         <v>2021</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="11">
-        <v>38.954573253532999</v>
-      </c>
-      <c r="E53" s="11">
-        <v>0.12539661280199965</v>
-      </c>
-      <c r="F53" s="11">
-        <v>-4.8760747220839988</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="12">
+      <c r="D54" s="11">
+        <v>38.951030464711003</v>
+      </c>
+      <c r="E54" s="11">
+        <v>0.133851132171</v>
+      </c>
+      <c r="F54" s="11">
+        <v>-4.869059525051</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="12">
         <v>2021</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C55" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="13">
-        <v>38.806120763444</v>
-      </c>
-      <c r="E54" s="13">
-        <v>0.52786272473100126</v>
-      </c>
-      <c r="F54" s="13">
-        <v>-4.9454430540099992</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="15">
+      <c r="D55" s="13">
+        <v>38.81717933254</v>
+      </c>
+      <c r="E55" s="13">
+        <v>0.53396237980799999</v>
+      </c>
+      <c r="F55" s="13">
+        <v>-4.9405127629059997</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="15">
         <v>2020</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C56" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="16">
-        <v>38.278258038712998</v>
-      </c>
-      <c r="E55" s="16">
-        <v>1.0413782009799988</v>
-      </c>
-      <c r="F55" s="16">
-        <v>-4.9318171271640026</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="8">
+      <c r="D56" s="16">
+        <v>38.283216952733</v>
+      </c>
+      <c r="E56" s="16">
+        <v>1.0326583260660001</v>
+      </c>
+      <c r="F56" s="16">
+        <v>-4.9284605383480002</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="8">
         <v>2020</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="9">
-        <v>37.256917504637002</v>
-      </c>
-      <c r="E56" s="9">
-        <v>-0.61871567129399996</v>
-      </c>
-      <c r="F56" s="9">
-        <v>-6.7247565943400005</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="10">
+      <c r="D57" s="9">
+        <v>37.250558626667001</v>
+      </c>
+      <c r="E57" s="9">
+        <v>-0.62231835974799998</v>
+      </c>
+      <c r="F57" s="9">
+        <v>-6.7250604645559999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="11">
-        <v>37.924565989542003</v>
-      </c>
-      <c r="E57" s="11">
-        <v>1.3225593674330001</v>
-      </c>
-      <c r="F57" s="11">
-        <v>-6.1198410863449979</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="8">
+      <c r="D58" s="11">
+        <v>37.872876986415001</v>
+      </c>
+      <c r="E58" s="11">
+        <v>1.320800718334</v>
+      </c>
+      <c r="F58" s="11">
+        <v>-6.1447870249149998</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="8">
         <v>2020</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="9">
-        <v>36.570120361797997</v>
-      </c>
-      <c r="E58" s="9">
-        <v>1.1681216870269964</v>
-      </c>
-      <c r="F58" s="9">
-        <v>-9.0660737591379998</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="10">
+      <c r="D59" s="9">
+        <v>36.552076268081002</v>
+      </c>
+      <c r="E59" s="9">
+        <v>1.1685645206819999</v>
+      </c>
+      <c r="F59" s="9">
+        <v>-9.0675917381200009</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="11">
-        <v>35.401998674771001</v>
-      </c>
-      <c r="E59" s="11">
-        <v>1.0657257252539978</v>
-      </c>
-      <c r="F59" s="11">
-        <v>-8.6302736901109967</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="8">
+      <c r="D60" s="11">
+        <v>35.383511747398998</v>
+      </c>
+      <c r="E60" s="11">
+        <v>1.0512532664059999</v>
+      </c>
+      <c r="F60" s="11">
+        <v>-8.6378056897279993</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="8">
         <v>2020</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="9">
-        <v>34.336272949517003</v>
-      </c>
-      <c r="E60" s="9">
-        <v>2.6334568279070041</v>
-      </c>
-      <c r="F60" s="9">
-        <v>-8.7936196097269956</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="10">
+      <c r="D61" s="9">
+        <v>34.332258480992998</v>
+      </c>
+      <c r="E61" s="9">
+        <v>2.6308702185009998</v>
+      </c>
+      <c r="F61" s="9">
+        <v>-8.7987053875410002</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="11">
-        <v>31.702816121609999</v>
-      </c>
-      <c r="E61" s="11">
-        <v>0.54348108193800004</v>
-      </c>
-      <c r="F61" s="11">
-        <v>-11.636228398237002</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="8">
+      <c r="D62" s="11">
+        <v>31.701388262493001</v>
+      </c>
+      <c r="E62" s="11">
+        <v>0.53993824527199996</v>
+      </c>
+      <c r="F62" s="11">
+        <v>-11.63944860256</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="8">
         <v>2020</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="9">
-        <v>31.14181407713</v>
-      </c>
-      <c r="E62" s="9">
-        <v>-0.92543961581299783</v>
-      </c>
-      <c r="F62" s="9">
-        <v>-13.130125569466003</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="10">
+      <c r="D63" s="9">
+        <v>31.161450017221</v>
+      </c>
+      <c r="E63" s="9">
+        <v>-0.91561658927199996</v>
+      </c>
+      <c r="F63" s="9">
+        <v>-13.126664633352</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="11">
-        <v>32.067253692942998</v>
-      </c>
-      <c r="E63" s="11">
-        <v>-10.235892744055</v>
-      </c>
-      <c r="F63" s="11">
-        <v>-13.363080195517</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="8">
+      <c r="D64" s="11">
+        <v>32.077066606492998</v>
+      </c>
+      <c r="E64" s="11">
+        <v>-10.227719050658999</v>
+      </c>
+      <c r="F64" s="11">
+        <v>-13.361776137309</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="8">
         <v>2020</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="9">
-        <v>42.303146436997999</v>
-      </c>
-      <c r="E64" s="9">
-        <v>-1.5044456613319994</v>
-      </c>
-      <c r="F64" s="9">
-        <v>-4.5257098960519997</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="10">
+      <c r="D65" s="9">
+        <v>42.304785657152003</v>
+      </c>
+      <c r="E65" s="9">
+        <v>-1.5153043326110001</v>
+      </c>
+      <c r="F65" s="9">
+        <v>-4.5080200928489997</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="10">
         <v>2020</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="11">
-        <v>43.807592098329998</v>
-      </c>
-      <c r="E65" s="11">
-        <v>5.6028280875999315E-2</v>
-      </c>
-      <c r="F65" s="11">
-        <v>-4.6761399973810001</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="12">
+      <c r="D66" s="11">
+        <v>43.820089989762003</v>
+      </c>
+      <c r="E66" s="11">
+        <v>6.2397894315999999E-2</v>
+      </c>
+      <c r="F66" s="11">
+        <v>-4.6715862677170001</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="12">
         <v>2020</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="13">
-        <v>43.751563817453999</v>
-      </c>
-      <c r="E66" s="13">
-        <v>0.54148865157699788</v>
-      </c>
-      <c r="F66" s="13">
-        <v>-1.8917637683180004</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="15">
+      <c r="D67" s="13">
+        <v>43.757692095446998</v>
+      </c>
+      <c r="E67" s="13">
+        <v>0.54601460436600002</v>
+      </c>
+      <c r="F67" s="13">
+        <v>-1.889245615926</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="15">
         <v>2019</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C68" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="16">
-        <v>43.210075165877001</v>
-      </c>
-      <c r="E67" s="16">
-        <v>-0.75156126619599917</v>
-      </c>
-      <c r="F67" s="16">
-        <v>-1.0975396315839987</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="8">
+      <c r="D68" s="16">
+        <v>43.211677491080998</v>
+      </c>
+      <c r="E68" s="16">
+        <v>-0.76394160014199997</v>
+      </c>
+      <c r="F68" s="16">
+        <v>-1.094722535029</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="8">
         <v>2019</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="9">
-        <v>43.961636432073</v>
-      </c>
-      <c r="E68" s="9">
-        <v>-4.1810380905999998E-2</v>
-      </c>
-      <c r="F68" s="9">
-        <v>2.3018265214169986</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="10">
+      <c r="D69" s="9">
+        <v>43.975619091223002</v>
+      </c>
+      <c r="E69" s="9">
+        <v>-4.2044920106999999E-2</v>
+      </c>
+      <c r="F69" s="9">
+        <v>2.3098698843590002</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="11">
-        <v>44.044407075887001</v>
-      </c>
-      <c r="E69" s="11">
-        <v>-1.5917870450489957</v>
-      </c>
-      <c r="F69" s="11">
-        <v>1.515607876605003</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="8">
+      <c r="D70" s="11">
+        <v>44.017664011329998</v>
+      </c>
+      <c r="E70" s="11">
+        <v>-1.6020039948710001</v>
+      </c>
+      <c r="F70" s="11">
+        <v>1.49072442455</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="8">
         <v>2019</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="9">
-        <v>45.636194120935997</v>
-      </c>
-      <c r="E70" s="9">
-        <v>1.6039217560539996</v>
-      </c>
-      <c r="F70" s="9">
-        <v>3.211570174491996</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="10">
+      <c r="D71" s="9">
+        <v>45.619668006201003</v>
+      </c>
+      <c r="E71" s="9">
+        <v>1.5983505690740001</v>
+      </c>
+      <c r="F71" s="9">
+        <v>3.2027290435050002</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="11">
-        <v>44.032272364881997</v>
-      </c>
-      <c r="E71" s="11">
-        <v>0.9023798056379988</v>
-      </c>
-      <c r="F71" s="11">
-        <v>0.97113297690499678</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="8">
+      <c r="D72" s="11">
+        <v>44.021317437127003</v>
+      </c>
+      <c r="E72" s="11">
+        <v>0.89035356859199999</v>
+      </c>
+      <c r="F72" s="11">
+        <v>0.96027946263999997</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="8">
         <v>2019</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="9">
-        <v>43.129892559243999</v>
-      </c>
-      <c r="E72" s="9">
-        <v>-0.2091519606030019</v>
-      </c>
-      <c r="F72" s="9">
-        <v>5.7005528914999104E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="10">
+      <c r="D73" s="9">
+        <v>43.130963868534003</v>
+      </c>
+      <c r="E73" s="9">
+        <v>-0.20987299651800001</v>
+      </c>
+      <c r="F73" s="9">
+        <v>5.5136741109999998E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D73" s="11">
-        <v>43.339044519847</v>
-      </c>
-      <c r="E73" s="11">
-        <v>-0.93289512674900266</v>
-      </c>
-      <c r="F73" s="11">
-        <v>6.4869752497600004</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="8">
+      <c r="D74" s="11">
+        <v>43.340836865051998</v>
+      </c>
+      <c r="E74" s="11">
+        <v>-0.94727778552099995</v>
+      </c>
+      <c r="F74" s="11">
+        <v>6.4797087679510001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="8">
         <v>2019</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="9">
-        <v>44.271939646596003</v>
-      </c>
-      <c r="E74" s="9">
-        <v>-1.158394241863995</v>
-      </c>
-      <c r="F74" s="9">
-        <v>7.770623351792004</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="10">
+      <c r="D75" s="9">
+        <v>44.288114650573</v>
+      </c>
+      <c r="E75" s="9">
+        <v>-1.150728093228</v>
+      </c>
+      <c r="F75" s="9">
+        <v>7.7812527718429996</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="11">
-        <v>45.430333888459998</v>
-      </c>
-      <c r="E75" s="11">
-        <v>-1.3985224445900002</v>
-      </c>
-      <c r="F75" s="11">
-        <v>9.7228185409380004</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="8">
+      <c r="D76" s="11">
+        <v>45.438842743800997</v>
+      </c>
+      <c r="E76" s="11">
+        <v>-1.3739630061999999</v>
+      </c>
+      <c r="F76" s="11">
+        <v>9.7284736882199994</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="8">
         <v>2019</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D76" s="9">
-        <v>46.828856333049998</v>
-      </c>
-      <c r="E76" s="9">
-        <v>-1.6548757626609998</v>
-      </c>
-      <c r="F76" s="9">
-        <v>12.068349093100998</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="10">
+      <c r="D77" s="9">
+        <v>46.812805750000997</v>
+      </c>
+      <c r="E77" s="9">
+        <v>-1.6788705074779999</v>
+      </c>
+      <c r="F77" s="9">
+        <v>12.07790290132</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="10">
         <v>2019</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="11">
-        <v>48.483732095710998</v>
-      </c>
-      <c r="E77" s="11">
-        <v>2.840404509938999</v>
-      </c>
-      <c r="F77" s="11">
-        <v>13.744391889287996</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="12">
+      <c r="D78" s="11">
+        <v>48.491676257479</v>
+      </c>
+      <c r="E78" s="11">
+        <v>2.8447385461070001</v>
+      </c>
+      <c r="F78" s="11">
+        <v>13.748191990925999</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="12">
         <v>2019</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C79" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="13">
-        <v>45.643327585771999</v>
-      </c>
-      <c r="E78" s="13">
-        <v>1.3357127883109996</v>
-      </c>
-      <c r="F78" s="13">
-        <v>11.013723760120996</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="10">
+      <c r="D79" s="13">
+        <v>45.646937711372999</v>
+      </c>
+      <c r="E79" s="13">
+        <v>1.340537685263</v>
+      </c>
+      <c r="F79" s="13">
+        <v>11.015640719963001</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="10">
         <v>2018</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="11">
-        <v>44.307614797461</v>
-      </c>
-      <c r="E79" s="11">
-        <v>2.6478048868049981</v>
-      </c>
-      <c r="F79" s="11">
-        <v>8.4335217533200009</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="8">
+      <c r="D80" s="11">
+        <v>44.306400026109998</v>
+      </c>
+      <c r="E80" s="11">
+        <v>2.640650819247</v>
+      </c>
+      <c r="F80" s="11">
+        <v>8.4319768968190001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="8">
         <v>2018</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="9">
-        <v>41.659809910656001</v>
-      </c>
-      <c r="E80" s="9">
-        <v>-0.86898928862599689</v>
-      </c>
-      <c r="F80" s="9">
-        <v>5.0281376012930039</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="10">
+      <c r="D81" s="9">
+        <v>41.665749206862998</v>
+      </c>
+      <c r="E81" s="9">
+        <v>-0.86119037991699998</v>
+      </c>
+      <c r="F81" s="9">
+        <v>5.0265117038760003</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="11">
-        <v>42.528799199281998</v>
-      </c>
-      <c r="E81" s="11">
-        <v>0.10417525283799733</v>
-      </c>
-      <c r="F81" s="11">
-        <v>6.0107838518529988</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="8">
+      <c r="D82" s="11">
+        <v>42.526939586780003</v>
+      </c>
+      <c r="E82" s="11">
+        <v>0.11000062408400001</v>
+      </c>
+      <c r="F82" s="11">
+        <v>6.0095531583569999</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="8">
         <v>2018</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="9">
-        <v>42.424623946444001</v>
-      </c>
-      <c r="E82" s="9">
-        <v>-0.63651544153299966</v>
-      </c>
-      <c r="F82" s="9">
-        <v>5.3888433559340001</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="10">
+      <c r="D83" s="9">
+        <v>42.416938962696001</v>
+      </c>
+      <c r="E83" s="9">
+        <v>-0.64409901179100004</v>
+      </c>
+      <c r="F83" s="9">
+        <v>5.385808953343</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="11">
-        <v>43.061139387977001</v>
-      </c>
-      <c r="E83" s="11">
-        <v>-1.1747642351998877E-2</v>
-      </c>
-      <c r="F83" s="11">
-        <v>6.544364835888004</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="8">
+      <c r="D84" s="11">
+        <v>43.061037974487</v>
+      </c>
+      <c r="E84" s="11">
+        <v>-1.4789152937E-2</v>
+      </c>
+      <c r="F84" s="11">
+        <v>6.5431982755710001</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="8">
         <v>2018</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D84" s="9">
-        <v>43.072887030328999</v>
-      </c>
-      <c r="E84" s="9">
-        <v>6.2208177602419994</v>
-      </c>
-      <c r="F84" s="9">
-        <v>6.855344005100001</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="10">
+      <c r="D85" s="9">
+        <v>43.075827127423999</v>
+      </c>
+      <c r="E85" s="9">
+        <v>6.2146990303229996</v>
+      </c>
+      <c r="F85" s="9">
+        <v>6.8569747931559997</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="11">
-        <v>36.859611763210999</v>
-      </c>
-      <c r="E85" s="11">
-        <v>0.35075297528300098</v>
-      </c>
-      <c r="F85" s="11">
-        <v>1.2308032480960023</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="8">
+      <c r="D86" s="11">
+        <v>36.861128097101997</v>
+      </c>
+      <c r="E86" s="11">
+        <v>0.35426621837200001</v>
+      </c>
+      <c r="F86" s="11">
+        <v>1.2302639945380001</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="8">
         <v>2018</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D86" s="9">
-        <v>36.505302173556998</v>
-      </c>
-      <c r="E86" s="9">
-        <v>0.79380094728200135</v>
-      </c>
-      <c r="F86" s="9">
-        <v>0.91029988176300236</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="10">
+      <c r="D87" s="9">
+        <v>36.50686187873</v>
+      </c>
+      <c r="E87" s="9">
+        <v>0.79649282314900005</v>
+      </c>
+      <c r="F87" s="9">
+        <v>0.91226491209399996</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="11">
-        <v>35.710444616716998</v>
-      </c>
-      <c r="E87" s="11">
-        <v>0.97529148229100004</v>
-      </c>
-      <c r="F87" s="11">
-        <v>0.62944883013700093</v>
-      </c>
-      <c r="G87" s="18"/>
-    </row>
-    <row r="88" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="8">
+      <c r="D88" s="11">
+        <v>35.710369055580998</v>
+      </c>
+      <c r="E88" s="11">
+        <v>0.97546620689899999</v>
+      </c>
+      <c r="F88" s="11">
+        <v>0.62970424452999996</v>
+      </c>
+      <c r="G88" s="18"/>
+    </row>
+    <row r="89" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="8">
         <v>2018</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D88" s="9">
-        <v>34.735153134426</v>
-      </c>
-      <c r="E88" s="9">
-        <v>2.1167033525998136E-2</v>
-      </c>
-      <c r="F88" s="9">
-        <v>0.53080793961800055</v>
-      </c>
-      <c r="G88" s="18"/>
-    </row>
-    <row r="89" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="10">
+      <c r="D89" s="9">
+        <v>34.734902848681998</v>
+      </c>
+      <c r="E89" s="9">
+        <v>-8.5814178719999992E-3</v>
+      </c>
+      <c r="F89" s="9">
+        <v>0.53296312568199999</v>
+      </c>
+      <c r="G89" s="18"/>
+    </row>
+    <row r="90" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="10">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="11">
-        <v>34.743975409445</v>
-      </c>
-      <c r="E89" s="11">
-        <v>0.10973638077199865</v>
-      </c>
-      <c r="F89" s="11">
-        <v>2.5910907309180047</v>
-      </c>
-      <c r="G89" s="18"/>
-    </row>
-    <row r="90" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="8">
+      <c r="D90" s="11">
+        <v>34.743484266552997</v>
+      </c>
+      <c r="E90" s="11">
+        <v>0.112187275144</v>
+      </c>
+      <c r="F90" s="11">
+        <v>2.5917637547729999</v>
+      </c>
+      <c r="G90" s="18"/>
+    </row>
+    <row r="91" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="8">
         <v>2018</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C91" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="9">
-        <v>34.631536529352999</v>
-      </c>
-      <c r="E90" s="9">
-        <v>-1.2444892184899956</v>
-      </c>
-      <c r="F90" s="9">
-        <v>6.0255458294220041</v>
-      </c>
-      <c r="G90" s="18"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B91" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="D91" s="9">
+        <v>34.631296991409997</v>
+      </c>
+      <c r="E91" s="9">
+        <v>-1.2431261378809999</v>
+      </c>
+      <c r="F91" s="9">
+        <v>6.0252716501699997</v>
+      </c>
+      <c r="G91" s="18"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B92" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B93" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="18"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B93" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="18"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B94" s="3" t="s">
-        <v>23</v>
+      <c r="B94" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="18"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B95" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B96" s="20"/>
+      <c r="B96" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B97" s="20"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
+      <c r="B98" s="20"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E99" s="21"/>
       <c r="F99" s="21"/>
     </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E98:F98"/>
     <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ICC.xlsx
+++ b/ICC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A8BC2A-3DE6-40FB-8FBA-086643E545C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FE2FA8-6926-4432-A3A3-D23F68EC728D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
   <si>
     <t>Mes</t>
   </si>
@@ -168,7 +168,7 @@
     </r>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -563,8 +563,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F91" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B4:F91" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F92" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B4:F92" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -806,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O100"/>
+  <dimension ref="B2:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -820,12 +820,12 @@
     <col min="4" max="4" width="11.3984375" style="1" customWidth="1"/>
     <col min="5" max="6" width="8.796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.69921875" style="1" customWidth="1"/>
-    <col min="8" max="14" width="8.69921875" customWidth="1"/>
-    <col min="15" max="15" width="8.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.19921875" style="1"/>
+    <col min="8" max="13" width="8.69921875" customWidth="1"/>
+    <col min="14" max="14" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
@@ -834,9 +834,9 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
@@ -845,9 +845,9 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="2:15" s="4" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="2:14" s="4" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -869,23 +869,22 @@
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
-      <c r="N4"/>
-    </row>
-    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="8">
+    </row>
+    <row r="5" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="10">
         <v>2025</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9">
-        <v>45.976235939410998</v>
-      </c>
-      <c r="E5" s="9">
-        <v>-0.34323154758000002</v>
-      </c>
-      <c r="F5" s="9">
-        <v>-1.331623937379</v>
+      <c r="C5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="11">
+        <v>45.308617286145001</v>
+      </c>
+      <c r="E5" s="11">
+        <v>-0.60115744355000089</v>
+      </c>
+      <c r="F5" s="11">
+        <v>-2.1856318038569995</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -893,23 +892,22 @@
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
-      <c r="N5"/>
-    </row>
-    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="10">
+    </row>
+    <row r="6" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="8">
         <v>2025</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="11">
-        <v>46.319467486991002</v>
-      </c>
-      <c r="E6" s="11">
-        <v>-0.27649621156800003</v>
-      </c>
-      <c r="F6" s="11">
-        <v>-0.78752603222700002</v>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9">
+        <v>45.909774729695002</v>
+      </c>
+      <c r="E6" s="9">
+        <v>-0.35298551521400157</v>
+      </c>
+      <c r="F6" s="9">
+        <v>-1.3350559479059996</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -917,23 +915,22 @@
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
-      <c r="N6"/>
-    </row>
-    <row r="7" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="12">
+    </row>
+    <row r="7" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="10">
         <v>2025</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="13">
-        <v>46.595963698558997</v>
-      </c>
-      <c r="E7" s="13">
-        <v>-0.355033037813</v>
-      </c>
-      <c r="F7" s="13">
-        <v>-0.41740595945300002</v>
+      <c r="C7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="11">
+        <v>46.262760244909003</v>
+      </c>
+      <c r="E7" s="11">
+        <v>-0.28076472059799329</v>
+      </c>
+      <c r="F7" s="11">
+        <v>-0.79108077049499315</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -941,23 +938,22 @@
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
-      <c r="N7"/>
-    </row>
-    <row r="8" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="11">
-        <v>46.950996736373</v>
-      </c>
-      <c r="E8" s="11">
-        <v>-0.56330912419199997</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0.19061669460700001</v>
+    </row>
+    <row r="8" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="12">
+        <v>2025</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="13">
+        <v>46.543524965506997</v>
+      </c>
+      <c r="E8" s="13">
+        <v>-0.35885408318900147</v>
+      </c>
+      <c r="F8" s="13">
+        <v>-0.42243883054700149</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -965,23 +961,22 @@
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
-      <c r="N8"/>
-    </row>
-    <row r="9" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="8">
+    </row>
+    <row r="9" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="9">
-        <v>47.514305860565003</v>
-      </c>
-      <c r="E9" s="9">
-        <v>-1.705231067827</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.46944651577099999</v>
+      <c r="C9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11">
+        <v>46.902379048695998</v>
+      </c>
+      <c r="E9" s="11">
+        <v>-0.56608622097600403</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.18396683376899858</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -989,23 +984,22 @@
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
-      <c r="N9"/>
-    </row>
-    <row r="10" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="10">
+    </row>
+    <row r="10" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="8">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="11">
-        <v>49.219536928392003</v>
-      </c>
-      <c r="E10" s="11">
-        <v>2.0806837181210001</v>
-      </c>
-      <c r="F10" s="11">
-        <v>3.3231944232699999</v>
+      <c r="C10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="9">
+        <v>47.468465269672002</v>
+      </c>
+      <c r="E10" s="9">
+        <v>-1.7452529891819992</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.46244466228700531</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
@@ -1013,1442 +1007,1464 @@
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
-      <c r="N10"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="8">
+    </row>
+    <row r="11" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="11">
+        <v>49.213718258854001</v>
+      </c>
+      <c r="E11" s="11">
+        <v>2.095795992027</v>
+      </c>
+      <c r="F11" s="11">
+        <v>3.3180721931040011</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="9">
-        <v>47.138853210272003</v>
-      </c>
-      <c r="E11" s="9">
-        <v>-0.466033810682</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.21693867508299999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="10">
+      <c r="D12" s="9">
+        <v>47.117922266827001</v>
+      </c>
+      <c r="E12" s="9">
+        <v>-0.48575847703799724</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.20865188055000061</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="11">
-        <v>47.604887020954003</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0.49143346084599998</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0.84237813332199996</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="8">
+      <c r="D13" s="11">
+        <v>47.603680743864999</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.47078958872700127</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.83791646180399937</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="8">
         <v>2024</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="9">
-        <v>47.113453560107999</v>
-      </c>
-      <c r="E13" s="9">
-        <v>-0.41085242560899998</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0.64233871291800004</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="10">
+      <c r="D14" s="9">
+        <v>47.132891155137997</v>
+      </c>
+      <c r="E14" s="9">
+        <v>-0.43201612640299913</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.64408581339699822</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="11">
-        <v>47.524305985717</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0.59298655487600005</v>
-      </c>
-      <c r="F14" s="11">
-        <v>2.1819394909269998</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="8">
+      <c r="D15" s="11">
+        <v>47.564907281540997</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.5303100288839957</v>
+      </c>
+      <c r="F15" s="11">
+        <v>2.1905268293259965</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B16" s="8">
         <v>2024</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="9">
-        <v>46.931319430841</v>
-      </c>
-      <c r="E15" s="9">
-        <v>-0.44370394806300001</v>
-      </c>
-      <c r="F15" s="9">
-        <v>2.0163010405609998</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="10">
+      <c r="D16" s="9">
+        <v>47.034597252657001</v>
+      </c>
+      <c r="E16" s="9">
+        <v>-0.45965183734499959</v>
+      </c>
+      <c r="F16" s="9">
+        <v>2.0417275714610028</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="10">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="11">
-        <v>47.375023378903997</v>
-      </c>
-      <c r="E16" s="11">
-        <v>6.7163502114000004E-2</v>
-      </c>
-      <c r="F16" s="11">
-        <v>3.14807165151</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="8">
+      <c r="D17" s="11">
+        <v>47.494249090002</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.24941841240099905</v>
+      </c>
+      <c r="F17" s="11">
+        <v>3.2061052923340014</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="8">
         <v>2024</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="9">
-        <v>47.307859876789998</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.20086635757099999</v>
-      </c>
-      <c r="F17" s="9">
-        <v>2.8060878431280001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="10">
+      <c r="D18" s="9">
+        <v>47.244830677601001</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.19098966219700486</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2.7816559650149983</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="10">
         <v>2024</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="11">
-        <v>47.106993519218001</v>
-      </c>
-      <c r="E18" s="11">
-        <v>9.3623861205999998E-2</v>
-      </c>
-      <c r="F18" s="11">
-        <v>2.3288815804160001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="12">
+      <c r="D19" s="11">
+        <v>47.053841015403997</v>
+      </c>
+      <c r="E19" s="11">
+        <v>8.787721934999837E-2</v>
+      </c>
+      <c r="F19" s="11">
+        <v>2.3116942722199951</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="12">
         <v>2024</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="13">
-        <v>47.013369658012003</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0.25298961624600003</v>
-      </c>
-      <c r="F19" s="13">
-        <v>2.7453596054060001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="14">
+      <c r="D20" s="13">
+        <v>46.965963796053998</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0.2475515811269986</v>
+      </c>
+      <c r="F20" s="13">
+        <v>2.7313057384119972</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="14">
         <v>2023</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="16">
-        <v>46.760380041765004</v>
-      </c>
-      <c r="E20" s="16">
-        <v>-0.28447930302899999</v>
-      </c>
-      <c r="F20" s="17">
-        <v>3.9418454906870002</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="8">
+      <c r="D21" s="16">
+        <v>46.718412214927</v>
+      </c>
+      <c r="E21" s="16">
+        <v>-0.2876083924579973</v>
+      </c>
+      <c r="F21" s="17">
+        <v>3.9285636723329986</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="8">
         <v>2023</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="9">
-        <v>47.044859344793998</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1.148516839672</v>
-      </c>
-      <c r="F21" s="9">
-        <v>5.1064142286429997</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="10">
+      <c r="D22" s="9">
+        <v>47.006020607384997</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1.1103745416349966</v>
+      </c>
+      <c r="F22" s="9">
+        <v>5.0934438702939957</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="10">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="11">
-        <v>45.896342505122</v>
-      </c>
-      <c r="E22" s="11">
-        <v>-1.0255720300660001</v>
-      </c>
-      <c r="F22" s="11">
-        <v>4.5044652707159996</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="8">
+      <c r="D23" s="11">
+        <v>45.89564606575</v>
+      </c>
+      <c r="E23" s="11">
+        <v>-1.0136243205270006</v>
+      </c>
+      <c r="F23" s="11">
+        <v>4.5000530634880036</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="8">
         <v>2023</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="9">
-        <v>46.921914535188002</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0.15940564755600001</v>
-      </c>
-      <c r="F23" s="9">
-        <v>5.6887116541380003</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="10">
+      <c r="D24" s="9">
+        <v>46.909270386277001</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.14350610421600152</v>
+      </c>
+      <c r="F24" s="9">
+        <v>5.6821223958050027</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="10">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="11">
-        <v>46.762508887632002</v>
-      </c>
-      <c r="E24" s="11">
-        <v>0.29139404044200001</v>
-      </c>
-      <c r="F24" s="11">
-        <v>5.873977612569</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="8">
+      <c r="D25" s="11">
+        <v>46.765764282060999</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.27695894032000012</v>
+      </c>
+      <c r="F25" s="11">
+        <v>5.8726025740970016</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="8">
         <v>2023</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="9">
-        <v>46.471114847190996</v>
-      </c>
-      <c r="E25" s="9">
-        <v>1.1287483523999999</v>
-      </c>
-      <c r="F25" s="9">
-        <v>5.1891049218100003</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="10">
+      <c r="D26" s="9">
+        <v>46.488805341740999</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1.1144248895259992</v>
+      </c>
+      <c r="F26" s="9">
+        <v>5.1948301991020003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="11">
-        <v>45.342366494791001</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0.42734810451100003</v>
-      </c>
-      <c r="F26" s="11">
-        <v>2.606794028245</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="8">
+      <c r="D27" s="11">
+        <v>45.374380452215</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0.38151077101900199</v>
+      </c>
+      <c r="F27" s="11">
+        <v>2.6170608873559971</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="8">
         <v>2023</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="9">
-        <v>44.915018390279997</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0.68806666288600005</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0.85548768743600001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="10">
+      <c r="D28" s="9">
+        <v>44.992869681195998</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0.70472588352799903</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.88145278976699615</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="10">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="11">
-        <v>44.226951727394002</v>
-      </c>
-      <c r="E28" s="11">
-        <v>-0.27482030626800003</v>
-      </c>
-      <c r="F28" s="11">
-        <v>0.27127605507800001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="8">
+      <c r="D29" s="11">
+        <v>44.288143797667999</v>
+      </c>
+      <c r="E29" s="11">
+        <v>-0.17503091491800404</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0.30443437708699861</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="8">
         <v>2023</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="9">
-        <v>44.501772033662</v>
-      </c>
-      <c r="E29" s="9">
-        <v>-0.27633990514000001</v>
-      </c>
-      <c r="F29" s="9">
-        <v>0.89866910650999998</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="10">
+      <c r="D30" s="9">
+        <v>44.463174712586003</v>
+      </c>
+      <c r="E30" s="9">
+        <v>-0.27897203059799836</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.88132813566100054</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="10">
         <v>2023</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="11">
-        <v>44.778111938801999</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0.51010188619600005</v>
-      </c>
-      <c r="F30" s="11">
-        <v>1.6094188086479999</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="12">
+      <c r="D31" s="11">
+        <v>44.742146743184001</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0.50748868554200044</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1.5954912965660029</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="12">
         <v>2023</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="13">
-        <v>44.268010052606002</v>
-      </c>
-      <c r="E31" s="13">
-        <v>1.4494755015280001</v>
-      </c>
-      <c r="F31" s="13">
-        <v>1.202838429791</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="10">
+      <c r="D32" s="13">
+        <v>44.234658057642001</v>
+      </c>
+      <c r="E32" s="13">
+        <v>1.444809515048</v>
+      </c>
+      <c r="F32" s="13">
+        <v>1.1907913572839988</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="10">
         <v>2022</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="11">
-        <v>42.818534551078997</v>
-      </c>
-      <c r="E32" s="11">
-        <v>0.88008943492699998</v>
-      </c>
-      <c r="F32" s="11">
-        <v>-1.562171298597</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="8">
+      <c r="D33" s="11">
+        <v>42.789848542594001</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.87727180550299977</v>
+      </c>
+      <c r="F33" s="11">
+        <v>-1.5717756208769984</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="8">
         <v>2022</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="9">
-        <v>41.938445116151001</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0.54656788174399995</v>
-      </c>
-      <c r="F33" s="9">
-        <v>-4.2637662050880003</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="10">
+      <c r="D34" s="9">
+        <v>41.912576737091001</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.5169837348290045</v>
+      </c>
+      <c r="F34" s="9">
+        <v>-4.2712850205070012</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="10">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="11">
-        <v>41.391877234406998</v>
-      </c>
-      <c r="E34" s="11">
-        <v>0.158674353357</v>
-      </c>
-      <c r="F34" s="11">
-        <v>-2.4777426102739999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="8">
+      <c r="D35" s="11">
+        <v>41.395593002261997</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0.16844501178999849</v>
+      </c>
+      <c r="F35" s="11">
+        <v>-2.4786500735240011</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="8">
         <v>2022</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="9">
-        <v>41.233202881049998</v>
-      </c>
-      <c r="E35" s="9">
-        <v>0.34467160598699997</v>
-      </c>
-      <c r="F35" s="9">
-        <v>-2.4938033913709998</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="10">
+      <c r="D36" s="9">
+        <v>41.227147990471998</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.33398628250800044</v>
+      </c>
+      <c r="F36" s="9">
+        <v>-2.4980693205020046</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="11">
-        <v>40.888531275063002</v>
-      </c>
-      <c r="E36" s="11">
-        <v>-0.39347865031700002</v>
-      </c>
-      <c r="F36" s="11">
-        <v>-2.1249969639500002</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="8">
+      <c r="D37" s="11">
+        <v>40.893161707963998</v>
+      </c>
+      <c r="E37" s="11">
+        <v>-0.40081343467500119</v>
+      </c>
+      <c r="F37" s="11">
+        <v>-2.1253342454550008</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="8">
         <v>2022</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="9">
-        <v>41.282009925380997</v>
-      </c>
-      <c r="E37" s="9">
-        <v>-1.4535625411649999</v>
-      </c>
-      <c r="F37" s="9">
-        <v>-2.9765830932670001</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="10">
+      <c r="D38" s="9">
+        <v>41.293975142638999</v>
+      </c>
+      <c r="E38" s="9">
+        <v>-1.463344422220004</v>
+      </c>
+      <c r="F38" s="9">
+        <v>-2.9720920747120019</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="11">
-        <v>42.735572466546003</v>
-      </c>
-      <c r="E38" s="11">
-        <v>-1.3239582362989999</v>
-      </c>
-      <c r="F38" s="11">
-        <v>-1.1719935358410001</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="8">
+      <c r="D39" s="11">
+        <v>42.757319564859003</v>
+      </c>
+      <c r="E39" s="11">
+        <v>-1.3540973265699989</v>
+      </c>
+      <c r="F39" s="11">
+        <v>-1.1632691809659974</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="8">
         <v>2022</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="9">
-        <v>44.059530702844</v>
-      </c>
-      <c r="E39" s="9">
-        <v>0.103855030529</v>
-      </c>
-      <c r="F39" s="9">
-        <v>1.4097650039230001</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="10">
+      <c r="D40" s="9">
+        <v>44.111416891429002</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0.12770747084800149</v>
+      </c>
+      <c r="F40" s="9">
+        <v>1.4311082192490048</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="10">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="11">
-        <v>43.955675672315998</v>
-      </c>
-      <c r="E40" s="11">
-        <v>0.35257274516300002</v>
-      </c>
-      <c r="F40" s="11">
-        <v>1.732606384201</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="8">
+      <c r="D41" s="11">
+        <v>43.983709420581</v>
+      </c>
+      <c r="E41" s="11">
+        <v>0.40186284365599789</v>
+      </c>
+      <c r="F41" s="11">
+        <v>1.759118656567999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="8">
         <v>2022</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="9">
-        <v>43.603102927152001</v>
-      </c>
-      <c r="E41" s="9">
-        <v>0.43440979699900001</v>
-      </c>
-      <c r="F41" s="9">
-        <v>2.9009219765359999</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="10">
+      <c r="D42" s="9">
+        <v>43.581846576925003</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0.43519113030700396</v>
+      </c>
+      <c r="F42" s="9">
+        <v>2.8835589170939997</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="10">
         <v>2022</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="11">
-        <v>43.168693130153997</v>
-      </c>
-      <c r="E42" s="11">
-        <v>0.103521507338</v>
-      </c>
-      <c r="F42" s="11">
-        <v>4.2176626654430001</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="12">
+      <c r="D43" s="11">
+        <v>43.146655446617999</v>
+      </c>
+      <c r="E43" s="11">
+        <v>0.10278874625999634</v>
+      </c>
+      <c r="F43" s="11">
+        <v>4.2040136066529996</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="12">
         <v>2022</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="13">
-        <v>43.065171622816003</v>
-      </c>
-      <c r="E43" s="13">
-        <v>-1.3155342268600001</v>
-      </c>
-      <c r="F43" s="13">
-        <v>4.2479922902749996</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="15">
+      <c r="D44" s="13">
+        <v>43.043866700358002</v>
+      </c>
+      <c r="E44" s="13">
+        <v>-1.3177574631129971</v>
+      </c>
+      <c r="F44" s="13">
+        <v>4.2367435907390032</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="15">
         <v>2021</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="16">
-        <v>44.380705849675003</v>
-      </c>
-      <c r="E44" s="16">
-        <v>-1.8215054715650001</v>
-      </c>
-      <c r="F44" s="16">
-        <v>6.0974888969430001</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="8">
+      <c r="D45" s="16">
+        <v>44.361624163470999</v>
+      </c>
+      <c r="E45" s="16">
+        <v>-1.822237594127003</v>
+      </c>
+      <c r="F45" s="16">
+        <v>6.087398227396001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="8">
         <v>2021</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="9">
-        <v>46.20221132124</v>
-      </c>
-      <c r="E45" s="9">
-        <v>2.3325914765590001</v>
-      </c>
-      <c r="F45" s="9">
-        <v>8.9516526945729993</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="10">
+      <c r="D46" s="9">
+        <v>46.183861757598002</v>
+      </c>
+      <c r="E46" s="9">
+        <v>2.3096186818120046</v>
+      </c>
+      <c r="F46" s="9">
+        <v>8.9429458269100053</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="10">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="11">
-        <v>43.869619844680997</v>
-      </c>
-      <c r="E46" s="11">
-        <v>0.14261357225900001</v>
-      </c>
-      <c r="F46" s="11">
-        <v>5.9967428582659998</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="8">
+      <c r="D47" s="11">
+        <v>43.874243075785998</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0.14902576481199503</v>
+      </c>
+      <c r="F47" s="11">
+        <v>5.9998007171769956</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="8">
         <v>2021</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="9">
-        <v>43.727006272422003</v>
-      </c>
-      <c r="E47" s="9">
-        <v>0.71347803340899996</v>
-      </c>
-      <c r="F47" s="9">
-        <v>7.1749300043410003</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="10">
+      <c r="D48" s="9">
+        <v>43.725217310974003</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0.7067213575550042</v>
+      </c>
+      <c r="F48" s="9">
+        <v>7.173653842950003</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="11">
-        <v>43.013528239012999</v>
-      </c>
-      <c r="E48" s="11">
-        <v>-1.2450647796350001</v>
-      </c>
-      <c r="F48" s="11">
-        <v>7.6300164916139996</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="8">
+      <c r="D49" s="11">
+        <v>43.018495953418999</v>
+      </c>
+      <c r="E49" s="11">
+        <v>-1.2475712639320022</v>
+      </c>
+      <c r="F49" s="11">
+        <v>7.6321592858299994</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="8">
         <v>2021</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="9">
-        <v>44.258593018648</v>
-      </c>
-      <c r="E49" s="9">
-        <v>0.35102701626100002</v>
-      </c>
-      <c r="F49" s="9">
-        <v>9.9263345376540002</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="10">
+      <c r="D50" s="9">
+        <v>44.266067217351001</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0.34547847152600042</v>
+      </c>
+      <c r="F50" s="9">
+        <v>9.931642090800004</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="11">
-        <v>43.907566002387</v>
-      </c>
-      <c r="E50" s="11">
-        <v>1.257800303465</v>
-      </c>
-      <c r="F50" s="11">
-        <v>12.206177739894001</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="8">
+      <c r="D51" s="11">
+        <v>43.920588745825</v>
+      </c>
+      <c r="E51" s="11">
+        <v>1.2402800736450033</v>
+      </c>
+      <c r="F51" s="11">
+        <v>12.214323939001002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="8">
         <v>2021</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="9">
-        <v>42.649765698922003</v>
-      </c>
-      <c r="E51" s="9">
-        <v>0.42669641080699999</v>
-      </c>
-      <c r="F51" s="9">
-        <v>11.488315681701</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="10">
+      <c r="D52" s="9">
+        <v>42.680308672179997</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0.45571790816699576</v>
+      </c>
+      <c r="F52" s="9">
+        <v>11.505128252765996</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="10">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="11">
-        <v>42.223069288114999</v>
-      </c>
-      <c r="E52" s="11">
-        <v>1.5208883374990001</v>
-      </c>
-      <c r="F52" s="11">
-        <v>10.146002681622999</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="8">
+      <c r="D53" s="11">
+        <v>42.224590764013001</v>
+      </c>
+      <c r="E53" s="11">
+        <v>1.5263031041819985</v>
+      </c>
+      <c r="F53" s="11">
+        <v>10.148182318884004</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="8">
         <v>2021</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="9">
-        <v>40.702180950615997</v>
-      </c>
-      <c r="E53" s="9">
-        <v>1.751150485905</v>
-      </c>
-      <c r="F53" s="9">
-        <v>-1.6026047065360001</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="10">
+      <c r="D54" s="9">
+        <v>40.698287659831003</v>
+      </c>
+      <c r="E54" s="9">
+        <v>1.7556458198660039</v>
+      </c>
+      <c r="F54" s="9">
+        <v>-1.6036016775859991</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="10">
         <v>2021</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="11">
-        <v>38.951030464711003</v>
-      </c>
-      <c r="E54" s="11">
-        <v>0.133851132171</v>
-      </c>
-      <c r="F54" s="11">
-        <v>-4.869059525051</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="12">
+      <c r="D55" s="11">
+        <v>38.942641839964999</v>
+      </c>
+      <c r="E55" s="11">
+        <v>0.13551873034599993</v>
+      </c>
+      <c r="F55" s="11">
+        <v>-4.8723159327689984</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="12">
         <v>2021</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="13">
-        <v>38.81717933254</v>
-      </c>
-      <c r="E55" s="13">
-        <v>0.53396237980799999</v>
-      </c>
-      <c r="F55" s="13">
-        <v>-4.9405127629059997</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="15">
+      <c r="D56" s="13">
+        <v>38.807123109618999</v>
+      </c>
+      <c r="E56" s="13">
+        <v>0.53289717354400068</v>
+      </c>
+      <c r="F56" s="13">
+        <v>-4.945730175704</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="15">
         <v>2020</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="16">
-        <v>38.283216952733</v>
-      </c>
-      <c r="E56" s="16">
+      <c r="D57" s="16">
+        <v>38.274225936074998</v>
+      </c>
+      <c r="E57" s="16">
         <v>1.0326583260660001</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F57" s="16">
         <v>-4.9284605383480002</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="8">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="8">
         <v>2020</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="9">
-        <v>37.250558626667001</v>
-      </c>
-      <c r="E57" s="9">
+      <c r="D58" s="9">
+        <v>37.240915930687997</v>
+      </c>
+      <c r="E58" s="9">
         <v>-0.62231835974799998</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F58" s="9">
         <v>-6.7250604645559999</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="10">
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="11">
-        <v>37.872876986415001</v>
-      </c>
-      <c r="E58" s="11">
+      <c r="D59" s="11">
+        <v>37.874442358609002</v>
+      </c>
+      <c r="E59" s="11">
         <v>1.320800718334</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F59" s="11">
         <v>-6.1447870249149998</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="8">
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="8">
         <v>2020</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="9">
-        <v>36.552076268081002</v>
-      </c>
-      <c r="E59" s="9">
+      <c r="D60" s="9">
+        <v>36.551563468024</v>
+      </c>
+      <c r="E60" s="9">
         <v>1.1685645206819999</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F60" s="9">
         <v>-9.0675917381200009</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="10">
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="11">
-        <v>35.383511747398998</v>
-      </c>
-      <c r="E60" s="11">
+      <c r="D61" s="11">
+        <v>35.386336667588999</v>
+      </c>
+      <c r="E61" s="11">
         <v>1.0512532664059999</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F61" s="11">
         <v>-8.6378056897279993</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="8">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="8">
         <v>2020</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="9">
-        <v>34.332258480992998</v>
-      </c>
-      <c r="E61" s="9">
+      <c r="D62" s="9">
+        <v>34.334425126550997</v>
+      </c>
+      <c r="E62" s="9">
         <v>2.6308702185009998</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F62" s="9">
         <v>-8.7987053875410002</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="10">
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="11">
-        <v>31.701388262493001</v>
-      </c>
-      <c r="E62" s="11">
+      <c r="D63" s="11">
+        <v>31.706264806823999</v>
+      </c>
+      <c r="E63" s="11">
         <v>0.53993824527199996</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F63" s="11">
         <v>-11.63944860256</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="8">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="8">
         <v>2020</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="9">
-        <v>31.161450017221</v>
-      </c>
-      <c r="E63" s="9">
+      <c r="D64" s="9">
+        <v>31.175180419414001</v>
+      </c>
+      <c r="E64" s="9">
         <v>-0.91561658927199996</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F64" s="9">
         <v>-13.126664633352</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="10">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="10">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="11">
-        <v>32.077066606492998</v>
-      </c>
-      <c r="E64" s="11">
+      <c r="D65" s="11">
+        <v>32.076408445128997</v>
+      </c>
+      <c r="E65" s="11">
         <v>-10.227719050658999</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F65" s="11">
         <v>-13.361776137309</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="8">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="8">
         <v>2020</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="9">
-        <v>42.304785657152003</v>
-      </c>
-      <c r="E65" s="9">
+      <c r="D66" s="9">
+        <v>42.301889337417002</v>
+      </c>
+      <c r="E66" s="9">
         <v>-1.5153043326110001</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F66" s="9">
         <v>-4.5080200928489997</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="10">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="10">
         <v>2020</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="11">
-        <v>43.820089989762003</v>
-      </c>
-      <c r="E66" s="11">
+      <c r="D67" s="11">
+        <v>43.814957772733997</v>
+      </c>
+      <c r="E67" s="11">
         <v>6.2397894315999999E-2</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F67" s="11">
         <v>-4.6715862677170001</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="12">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="12">
         <v>2020</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="13">
-        <v>43.757692095446998</v>
-      </c>
-      <c r="E67" s="13">
+      <c r="D68" s="13">
+        <v>43.752853285322999</v>
+      </c>
+      <c r="E68" s="13">
         <v>0.54601460436600002</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F68" s="13">
         <v>-1.889245615926</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="15">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="15">
         <v>2019</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="16">
-        <v>43.211677491080998</v>
-      </c>
-      <c r="E68" s="16">
+      <c r="D69" s="16">
+        <v>43.207773525404001</v>
+      </c>
+      <c r="E69" s="16">
         <v>-0.76394160014199997</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F69" s="16">
         <v>-1.094722535029</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="8">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="8">
         <v>2019</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="9">
-        <v>43.975619091223002</v>
-      </c>
-      <c r="E69" s="9">
+      <c r="D70" s="9">
+        <v>43.968972176533001</v>
+      </c>
+      <c r="E70" s="9">
         <v>-4.2044920106999999E-2</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F70" s="9">
         <v>2.3098698843590002</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="10">
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="11">
-        <v>44.017664011329998</v>
-      </c>
-      <c r="E70" s="11">
+      <c r="D71" s="11">
+        <v>44.017023487255997</v>
+      </c>
+      <c r="E71" s="11">
         <v>-1.6020039948710001</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="11">
         <v>1.49072442455</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="8">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="8">
         <v>2019</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="9">
-        <v>45.619668006201003</v>
-      </c>
-      <c r="E71" s="9">
+      <c r="D72" s="9">
+        <v>45.619772647841003</v>
+      </c>
+      <c r="E72" s="9">
         <v>1.5983505690740001</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F72" s="9">
         <v>3.2027290435050002</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="10">
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="11">
-        <v>44.021317437127003</v>
-      </c>
-      <c r="E72" s="11">
+      <c r="D73" s="11">
+        <v>44.023279945429003</v>
+      </c>
+      <c r="E73" s="11">
         <v>0.89035356859199999</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F73" s="11">
         <v>0.96027946263999997</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="8">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="8">
         <v>2019</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="9">
-        <v>43.130963868534003</v>
-      </c>
-      <c r="E73" s="9">
+      <c r="D74" s="9">
+        <v>43.131493160387002</v>
+      </c>
+      <c r="E74" s="9">
         <v>-0.20987299651800001</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F74" s="9">
         <v>5.5136741109999998E-2</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="10">
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="11">
-        <v>43.340836865051998</v>
-      </c>
-      <c r="E74" s="11">
+      <c r="D75" s="11">
+        <v>43.345052115724002</v>
+      </c>
+      <c r="E75" s="11">
         <v>-0.94727778552099995</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="11">
         <v>6.4797087679510001</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="8">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="8">
         <v>2019</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="9">
-        <v>44.288114650573</v>
-      </c>
-      <c r="E75" s="9">
+      <c r="D76" s="9">
+        <v>44.299068870901003</v>
+      </c>
+      <c r="E76" s="9">
         <v>-1.150728093228</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F76" s="9">
         <v>7.7812527718429996</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="10">
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="10">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="11">
-        <v>45.438842743800997</v>
-      </c>
-      <c r="E76" s="11">
+      <c r="D77" s="11">
+        <v>45.437543714603002</v>
+      </c>
+      <c r="E77" s="11">
         <v>-1.3739630061999999</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F77" s="11">
         <v>9.7284736882199994</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="8">
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="8">
         <v>2019</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D77" s="9">
-        <v>46.812805750000997</v>
-      </c>
-      <c r="E77" s="9">
+      <c r="D78" s="9">
+        <v>46.810829603751998</v>
+      </c>
+      <c r="E78" s="9">
         <v>-1.6788705074779999</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F78" s="9">
         <v>12.07790290132</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="10">
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="10">
         <v>2019</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="11">
-        <v>48.491676257479</v>
-      </c>
-      <c r="E78" s="11">
+      <c r="D79" s="11">
+        <v>48.488871988608999</v>
+      </c>
+      <c r="E79" s="11">
         <v>2.8447385461070001</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F79" s="11">
         <v>13.748191990925999</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="12">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="12">
         <v>2019</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C80" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="13">
-        <v>45.646937711372999</v>
-      </c>
-      <c r="E79" s="13">
+      <c r="D80" s="13">
+        <v>45.645235446298997</v>
+      </c>
+      <c r="E80" s="13">
         <v>1.340537685263</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F80" s="13">
         <v>11.015640719963001</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="10">
+    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="10">
         <v>2018</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="11">
-        <v>44.306400026109998</v>
-      </c>
-      <c r="E80" s="11">
+      <c r="D81" s="11">
+        <v>44.304948892261002</v>
+      </c>
+      <c r="E81" s="11">
         <v>2.640650819247</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F81" s="11">
         <v>8.4319768968190001</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="8">
+    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="8">
         <v>2018</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="9">
-        <v>41.665749206862998</v>
-      </c>
-      <c r="E81" s="9">
+      <c r="D82" s="9">
+        <v>41.661032700394003</v>
+      </c>
+      <c r="E82" s="9">
         <v>-0.86119037991699998</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F82" s="9">
         <v>5.0265117038760003</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="10">
+    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="11">
-        <v>42.526939586780003</v>
-      </c>
-      <c r="E82" s="11">
+      <c r="D83" s="11">
+        <v>42.526854816125002</v>
+      </c>
+      <c r="E83" s="11">
         <v>0.11000062408400001</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="11">
         <v>6.0095531583569999</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="8">
+    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="8">
         <v>2018</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C84" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="9">
-        <v>42.416938962696001</v>
-      </c>
-      <c r="E83" s="9">
+      <c r="D84" s="9">
+        <v>42.416761624925002</v>
+      </c>
+      <c r="E84" s="9">
         <v>-0.64409901179100004</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F84" s="9">
         <v>5.385808953343</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="10">
+    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D84" s="11">
-        <v>43.061037974487</v>
-      </c>
-      <c r="E84" s="11">
+      <c r="D85" s="11">
+        <v>43.062039700153001</v>
+      </c>
+      <c r="E85" s="11">
         <v>-1.4789152937E-2</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F85" s="11">
         <v>6.5431982755710001</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="8">
+    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="8">
         <v>2018</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="9">
-        <v>43.075827127423999</v>
-      </c>
-      <c r="E85" s="9">
+      <c r="D86" s="9">
+        <v>43.076251558149011</v>
+      </c>
+      <c r="E86" s="9">
         <v>6.2146990303229996</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F86" s="9">
         <v>6.8569747931559997</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="10">
+    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="11">
-        <v>36.861128097101997</v>
-      </c>
-      <c r="E86" s="11">
+      <c r="D87" s="11">
+        <v>36.864095423936</v>
+      </c>
+      <c r="E87" s="11">
         <v>0.35426621837200001</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F87" s="11">
         <v>1.2302639945380001</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="8">
+    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="8">
         <v>2018</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C88" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="9">
-        <v>36.50686187873</v>
-      </c>
-      <c r="E87" s="9">
+      <c r="D88" s="9">
+        <v>36.509695031805002</v>
+      </c>
+      <c r="E88" s="9">
         <v>0.79649282314900005</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F88" s="9">
         <v>0.91226491209399996</v>
       </c>
     </row>
-    <row r="88" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="10">
+    <row r="89" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="11">
-        <v>35.710369055580998</v>
-      </c>
-      <c r="E88" s="11">
+      <c r="D89" s="11">
+        <v>35.710345776788998</v>
+      </c>
+      <c r="E89" s="11">
         <v>0.97546620689899999</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F89" s="11">
         <v>0.62970424452999996</v>
       </c>
-      <c r="G88" s="18"/>
-    </row>
-    <row r="89" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="8">
+      <c r="G89" s="18"/>
+    </row>
+    <row r="90" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="8">
         <v>2018</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D89" s="9">
-        <v>34.734902848681998</v>
-      </c>
-      <c r="E89" s="9">
+      <c r="D90" s="9">
+        <v>34.734574768931999</v>
+      </c>
+      <c r="E90" s="9">
         <v>-8.5814178719999992E-3</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F90" s="9">
         <v>0.53296312568199999</v>
       </c>
-      <c r="G89" s="18"/>
-    </row>
-    <row r="90" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="10">
+      <c r="G90" s="18"/>
+    </row>
+    <row r="91" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="10">
         <v>2018</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="11">
-        <v>34.743484266552997</v>
-      </c>
-      <c r="E90" s="11">
+      <c r="D91" s="11">
+        <v>34.742552191514001</v>
+      </c>
+      <c r="E91" s="11">
         <v>0.112187275144</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F91" s="11">
         <v>2.5917637547729999</v>
       </c>
-      <c r="G90" s="18"/>
-    </row>
-    <row r="91" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="8">
+      <c r="G91" s="18"/>
+    </row>
+    <row r="92" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="8">
         <v>2018</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C92" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D91" s="9">
-        <v>34.631296991409997</v>
-      </c>
-      <c r="E91" s="9">
+      <c r="D92" s="9">
+        <v>34.631003775753001</v>
+      </c>
+      <c r="E92" s="9">
         <v>-1.2431261378809999</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F92" s="9">
         <v>6.0252716501699997</v>
       </c>
-      <c r="G91" s="18"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B92" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="G92" s="18"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B93" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B94" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="18"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B94" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="18"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B95" s="3" t="s">
-        <v>23</v>
+      <c r="B95" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="18"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B96" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B97" s="20"/>
+      <c r="B97" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B98" s="20"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E99" s="21"/>
-      <c r="F99" s="21"/>
+      <c r="B99" s="20"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E100" s="21"/>
       <c r="F100" s="21"/>
     </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E99:F99"/>
     <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ICC.xlsx
+++ b/ICC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FE2FA8-6926-4432-A3A3-D23F68EC728D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF8DAA0-ED68-47E5-9B7C-641A67D1D149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="25">
   <si>
     <t>Mes</t>
   </si>
@@ -168,7 +168,7 @@
     </r>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -563,8 +563,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F92" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B4:F92" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F94" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B4:F94" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -806,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N101"/>
+  <dimension ref="B2:N103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -875,16 +875,16 @@
         <v>2025</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="11">
-        <v>45.308617286145001</v>
+        <v>45.426868996232997</v>
       </c>
       <c r="E5" s="11">
-        <v>-0.60115744355000089</v>
+        <v>-1.052516430716</v>
       </c>
       <c r="F5" s="11">
-        <v>-2.1856318038569995</v>
+        <v>-2.2161432301069999</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -898,16 +898,16 @@
         <v>2025</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="9">
-        <v>45.909774729695002</v>
+        <v>46.479385426949001</v>
       </c>
       <c r="E6" s="9">
-        <v>-0.35298551521400157</v>
+        <v>1.101180038071</v>
       </c>
       <c r="F6" s="9">
-        <v>-1.3350559479059996</v>
+        <v>-0.23432687666499999</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -921,16 +921,16 @@
         <v>2025</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="11">
-        <v>46.262760244909003</v>
+        <v>45.378205388878001</v>
       </c>
       <c r="E7" s="11">
-        <v>-0.28076472059799329</v>
+        <v>-0.58882820255299995</v>
       </c>
       <c r="F7" s="11">
-        <v>-0.79108077049499315</v>
+        <v>-2.17086340507</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -940,20 +940,20 @@
       <c r="M7"/>
     </row>
     <row r="8" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="12">
+      <c r="B8" s="8">
         <v>2025</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="13">
-        <v>46.543524965506997</v>
-      </c>
-      <c r="E8" s="13">
-        <v>-0.35885408318900147</v>
-      </c>
-      <c r="F8" s="13">
-        <v>-0.42243883054700149</v>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9">
+        <v>45.967033591430997</v>
+      </c>
+      <c r="E8" s="9">
+        <v>-0.33526647572599999</v>
+      </c>
+      <c r="F8" s="9">
+        <v>-1.323940830765</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -964,19 +964,19 @@
     </row>
     <row r="9" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="11">
-        <v>46.902379048695998</v>
+        <v>46.302300067156999</v>
       </c>
       <c r="E9" s="11">
-        <v>-0.56608622097600403</v>
+        <v>-0.26692177434499997</v>
       </c>
       <c r="F9" s="11">
-        <v>0.18396683376899858</v>
+        <v>-0.78590665715700003</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -986,20 +986,20 @@
       <c r="M9"/>
     </row>
     <row r="10" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="9">
-        <v>47.468465269672002</v>
-      </c>
-      <c r="E10" s="9">
-        <v>-1.7452529891819992</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0.46244466228700531</v>
+      <c r="B10" s="12">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="13">
+        <v>46.569221841501999</v>
+      </c>
+      <c r="E10" s="13">
+        <v>-0.35310391529599999</v>
+      </c>
+      <c r="F10" s="13">
+        <v>-0.42213779115200001</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
@@ -1013,16 +1013,16 @@
         <v>2024</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D11" s="11">
-        <v>49.213718258854001</v>
+        <v>46.922325756798003</v>
       </c>
       <c r="E11" s="11">
-        <v>2.095795992027</v>
+        <v>-0.55703152603100003</v>
       </c>
       <c r="F11" s="11">
-        <v>3.3180721931040011</v>
+        <v>0.18208026190500001</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
@@ -1031,55 +1031,67 @@
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8">
         <v>2024</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" s="9">
-        <v>47.117922266827001</v>
+        <v>47.479357282829</v>
       </c>
       <c r="E12" s="9">
-        <v>-0.48575847703799724</v>
+        <v>-1.735649963168</v>
       </c>
       <c r="F12" s="9">
-        <v>0.20865188055000061</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+        <v>0.46031122588599999</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="10">
         <v>2024</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D13" s="11">
-        <v>47.603680743864999</v>
+        <v>49.215007245997</v>
       </c>
       <c r="E13" s="11">
-        <v>0.47078958872700127</v>
+        <v>2.098191778656</v>
       </c>
       <c r="F13" s="11">
-        <v>0.83791646180399937</v>
-      </c>
+        <v>3.3137293410669999</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" s="8">
         <v>2024</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D14" s="9">
-        <v>47.132891155137997</v>
+        <v>47.116815467340999</v>
       </c>
       <c r="E14" s="9">
-        <v>-0.43201612640299913</v>
+        <v>-0.49032981221499999</v>
       </c>
       <c r="F14" s="9">
-        <v>0.64408581339699822</v>
+        <v>0.20478382432299999</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.35">
@@ -1087,16 +1099,16 @@
         <v>2024</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" s="11">
-        <v>47.564907281540997</v>
+        <v>47.607145279556001</v>
       </c>
       <c r="E15" s="11">
-        <v>0.5303100288839957</v>
+        <v>0.43252514445500001</v>
       </c>
       <c r="F15" s="11">
-        <v>2.1905268293259965</v>
+        <v>0.83507258475699997</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.35">
@@ -1104,16 +1116,16 @@
         <v>2024</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="9">
-        <v>47.034597252657001</v>
+        <v>47.174620135101001</v>
       </c>
       <c r="E16" s="9">
-        <v>-0.45965183734499959</v>
+        <v>-0.468392091239</v>
       </c>
       <c r="F16" s="9">
-        <v>2.0417275714610028</v>
+        <v>0.66022313197500004</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
@@ -1121,16 +1133,16 @@
         <v>2024</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" s="11">
-        <v>47.494249090002</v>
+        <v>47.643012226339998</v>
       </c>
       <c r="E17" s="11">
-        <v>0.24941841240099905</v>
+        <v>0.92929992272600004</v>
       </c>
       <c r="F17" s="11">
-        <v>3.2061052923340014</v>
+        <v>2.236366019394</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
@@ -1138,16 +1150,16 @@
         <v>2024</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="9">
-        <v>47.244830677601001</v>
+        <v>46.713712303614003</v>
       </c>
       <c r="E18" s="9">
-        <v>0.19098966219700486</v>
+        <v>-0.83535649033399995</v>
       </c>
       <c r="F18" s="9">
-        <v>2.7816559650149983</v>
+        <v>1.9384912386140001</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
@@ -1155,84 +1167,84 @@
         <v>2024</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="11">
+        <v>47.549068793948003</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.25809437175200001</v>
+      </c>
+      <c r="F19" s="11">
+        <v>3.2314401565640001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="9">
+        <v>47.290974422196001</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.202767697882</v>
+      </c>
+      <c r="F20" s="9">
+        <v>2.8002339498170001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="11">
-        <v>47.053841015403997</v>
-      </c>
-      <c r="E19" s="11">
-        <v>8.787721934999837E-2</v>
-      </c>
-      <c r="F19" s="11">
-        <v>2.3116942722199951</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="12">
+      <c r="D21" s="11">
+        <v>47.088206724313999</v>
+      </c>
+      <c r="E21" s="11">
+        <v>9.6847091659999995E-2</v>
+      </c>
+      <c r="F21" s="11">
+        <v>2.3212666717500001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="12">
         <v>2024</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="13">
-        <v>46.965963796053998</v>
-      </c>
-      <c r="E20" s="13">
-        <v>0.2475515811269986</v>
-      </c>
-      <c r="F20" s="13">
-        <v>2.7313057384119972</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="14">
+      <c r="D22" s="13">
+        <v>46.991359632654003</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0.251114137761</v>
+      </c>
+      <c r="F22" s="13">
+        <v>2.7347563260559999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="14">
         <v>2023</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="16">
-        <v>46.718412214927</v>
-      </c>
-      <c r="E21" s="16">
-        <v>-0.2876083924579973</v>
-      </c>
-      <c r="F21" s="17">
-        <v>3.9285636723329986</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="8">
-        <v>2023</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="9">
-        <v>47.006020607384997</v>
-      </c>
-      <c r="E22" s="9">
-        <v>1.1103745416349966</v>
-      </c>
-      <c r="F22" s="9">
-        <v>5.0934438702939957</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="10">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="11">
-        <v>45.89564606575</v>
-      </c>
-      <c r="E23" s="11">
-        <v>-1.0136243205270006</v>
-      </c>
-      <c r="F23" s="11">
-        <v>4.5000530634880036</v>
+      <c r="D23" s="16">
+        <v>46.740245494893003</v>
+      </c>
+      <c r="E23" s="16">
+        <v>-0.27880056204999998</v>
+      </c>
+      <c r="F23" s="17">
+        <v>3.9304840659629998</v>
       </c>
     </row>
     <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1240,16 +1252,16 @@
         <v>2023</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" s="9">
-        <v>46.909270386277001</v>
+        <v>47.019046056943999</v>
       </c>
       <c r="E24" s="9">
-        <v>0.14350610421600152</v>
+        <v>1.1177681520130001</v>
       </c>
       <c r="F24" s="9">
-        <v>5.6821223958050027</v>
+        <v>5.0948538641440004</v>
       </c>
     </row>
     <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1257,16 +1269,16 @@
         <v>2023</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D25" s="11">
-        <v>46.765764282060999</v>
+        <v>45.901277904929998</v>
       </c>
       <c r="E25" s="11">
-        <v>0.27695894032000012</v>
+        <v>-1.010753738087</v>
       </c>
       <c r="F25" s="11">
-        <v>5.8726025740970016</v>
+        <v>4.4967315936930001</v>
       </c>
     </row>
     <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1274,16 +1286,16 @@
         <v>2023</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D26" s="9">
-        <v>46.488805341740999</v>
+        <v>46.912031643017997</v>
       </c>
       <c r="E26" s="9">
-        <v>1.1144248895259992</v>
+        <v>0.13995894821900001</v>
       </c>
       <c r="F26" s="9">
-        <v>5.1948301991020003</v>
+        <v>5.6810285965630003</v>
       </c>
     </row>
     <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1291,16 +1303,16 @@
         <v>2023</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" s="11">
-        <v>45.374380452215</v>
+        <v>46.772072694799</v>
       </c>
       <c r="E27" s="11">
-        <v>0.38151077101900199</v>
+        <v>0.25767569167299997</v>
       </c>
       <c r="F27" s="11">
-        <v>2.6170608873559971</v>
+        <v>5.8726971377139998</v>
       </c>
     </row>
     <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1308,16 +1320,16 @@
         <v>2023</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" s="9">
-        <v>44.992869681195998</v>
+        <v>46.514397003126</v>
       </c>
       <c r="E28" s="9">
-        <v>0.70472588352799903</v>
+        <v>1.1077507961799999</v>
       </c>
       <c r="F28" s="9">
-        <v>0.88145278976699615</v>
+        <v>5.2107855915250001</v>
       </c>
     </row>
     <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1325,16 +1337,16 @@
         <v>2023</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D29" s="11">
-        <v>44.288143797667999</v>
+        <v>45.406646206946</v>
       </c>
       <c r="E29" s="11">
-        <v>-0.17503091491800404</v>
+        <v>0.63142514194699995</v>
       </c>
       <c r="F29" s="11">
-        <v>0.30443437708699861</v>
+        <v>2.647817340464</v>
       </c>
     </row>
     <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1342,16 +1354,16 @@
         <v>2023</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D30" s="9">
-        <v>44.463174712586003</v>
+        <v>44.775221064999002</v>
       </c>
       <c r="E30" s="9">
-        <v>-0.27897203059799836</v>
+        <v>0.457592427616</v>
       </c>
       <c r="F30" s="9">
-        <v>0.88132813566100054</v>
+        <v>0.78779356633099995</v>
       </c>
     </row>
     <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1359,67 +1371,67 @@
         <v>2023</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31" s="11">
-        <v>44.742146743184001</v>
+        <v>44.317628637383997</v>
       </c>
       <c r="E31" s="11">
-        <v>0.50748868554200044</v>
+        <v>-0.173111834996</v>
       </c>
       <c r="F31" s="11">
-        <v>1.5954912965660029</v>
+        <v>0.32383167812000002</v>
       </c>
     </row>
     <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="12">
+      <c r="B32" s="8">
         <v>2023</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="13">
-        <v>44.234658057642001</v>
-      </c>
-      <c r="E32" s="13">
-        <v>1.444809515048</v>
-      </c>
-      <c r="F32" s="13">
-        <v>1.1907913572839988</v>
+      <c r="C32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="9">
+        <v>44.490740472379002</v>
+      </c>
+      <c r="E32" s="9">
+        <v>-0.27619958018500002</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0.89684962213399999</v>
       </c>
     </row>
     <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" s="10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D33" s="11">
-        <v>42.789848542594001</v>
+        <v>44.766940052564003</v>
       </c>
       <c r="E33" s="11">
-        <v>0.87727180550299977</v>
+        <v>0.51033674596599998</v>
       </c>
       <c r="F33" s="11">
-        <v>-1.5717756208769984</v>
+        <v>1.604966405493</v>
       </c>
     </row>
     <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="8">
-        <v>2022</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="9">
-        <v>41.912576737091001</v>
-      </c>
-      <c r="E34" s="9">
-        <v>0.5169837348290045</v>
-      </c>
-      <c r="F34" s="9">
-        <v>-4.2712850205070012</v>
+      <c r="B34" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="13">
+        <v>44.256603306598002</v>
+      </c>
+      <c r="E34" s="13">
+        <v>1.4468418776680001</v>
+      </c>
+      <c r="F34" s="13">
+        <v>1.1961169887530001</v>
       </c>
     </row>
     <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1427,16 +1439,16 @@
         <v>2022</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D35" s="11">
-        <v>41.395593002261997</v>
+        <v>42.809761428930997</v>
       </c>
       <c r="E35" s="11">
-        <v>0.16844501178999849</v>
+        <v>0.88556923613100003</v>
       </c>
       <c r="F35" s="11">
-        <v>-2.4786500735240011</v>
+        <v>-1.568430494332</v>
       </c>
     </row>
     <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1444,16 +1456,16 @@
         <v>2022</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D36" s="9">
-        <v>41.227147990471998</v>
+        <v>41.9241921928</v>
       </c>
       <c r="E36" s="9">
-        <v>0.33398628250800044</v>
+        <v>0.51964588156299996</v>
       </c>
       <c r="F36" s="9">
-        <v>-2.4980693205020046</v>
+        <v>-4.2698450293199999</v>
       </c>
     </row>
     <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1461,16 +1473,16 @@
         <v>2022</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D37" s="11">
-        <v>40.893161707963998</v>
+        <v>41.404546311236999</v>
       </c>
       <c r="E37" s="11">
-        <v>-0.40081343467500119</v>
+        <v>0.173543264782</v>
       </c>
       <c r="F37" s="11">
-        <v>-2.1253342454550008</v>
+        <v>-2.4802942597420001</v>
       </c>
     </row>
     <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1478,16 +1490,16 @@
         <v>2022</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D38" s="9">
-        <v>41.293975142638999</v>
+        <v>41.231003046455001</v>
       </c>
       <c r="E38" s="9">
-        <v>-1.463344422220004</v>
+        <v>0.33162748937100001</v>
       </c>
       <c r="F38" s="9">
-        <v>-2.9720920747120019</v>
+        <v>-2.4978266122989998</v>
       </c>
     </row>
     <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1495,16 +1507,16 @@
         <v>2022</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" s="11">
-        <v>42.757319564859003</v>
+        <v>40.899375557083999</v>
       </c>
       <c r="E39" s="11">
-        <v>-1.3540973265699989</v>
+        <v>-0.404235854517</v>
       </c>
       <c r="F39" s="11">
-        <v>-1.1632691809659974</v>
+        <v>-2.1241954012209998</v>
       </c>
     </row>
     <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1512,16 +1524,16 @@
         <v>2022</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" s="9">
-        <v>44.111416891429002</v>
+        <v>41.303611411600997</v>
       </c>
       <c r="E40" s="9">
-        <v>0.12770747084800149</v>
+        <v>-1.455217454881</v>
       </c>
       <c r="F40" s="9">
-        <v>1.4311082192490048</v>
+        <v>-2.9617600945440001</v>
       </c>
     </row>
     <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1529,16 +1541,16 @@
         <v>2022</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D41" s="11">
-        <v>43.983709420581</v>
+        <v>42.758828866481998</v>
       </c>
       <c r="E41" s="11">
-        <v>0.40186284365599789</v>
+        <v>-1.2285986321860001</v>
       </c>
       <c r="F41" s="11">
-        <v>1.759118656567999</v>
+        <v>-1.159955473413</v>
       </c>
     </row>
     <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1546,16 +1558,16 @@
         <v>2022</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D42" s="9">
-        <v>43.581846576925003</v>
+        <v>43.987427498667998</v>
       </c>
       <c r="E42" s="9">
-        <v>0.43519113030700396</v>
+        <v>-6.3694605959999998E-3</v>
       </c>
       <c r="F42" s="9">
-        <v>2.8835589170939997</v>
+        <v>1.370629320121</v>
       </c>
     </row>
     <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1563,84 +1575,84 @@
         <v>2022</v>
       </c>
       <c r="C43" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="11">
+        <v>43.993796959264003</v>
+      </c>
+      <c r="E43" s="11">
+        <v>0.39990610901899998</v>
+      </c>
+      <c r="F43" s="11">
+        <v>1.7673851254049999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="9">
+        <v>43.593890850245003</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0.43191720317299998</v>
+      </c>
+      <c r="F44" s="9">
+        <v>2.8919028021390001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="11">
-        <v>43.146655446617999</v>
-      </c>
-      <c r="E43" s="11">
-        <v>0.10278874625999634</v>
-      </c>
-      <c r="F43" s="11">
-        <v>4.2040136066529996</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="12">
+      <c r="D45" s="11">
+        <v>43.161973647071001</v>
+      </c>
+      <c r="E45" s="11">
+        <v>0.101487329226</v>
+      </c>
+      <c r="F45" s="11">
+        <v>4.2116725105180004</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="12">
         <v>2022</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="13">
-        <v>43.043866700358002</v>
-      </c>
-      <c r="E44" s="13">
-        <v>-1.3177574631129971</v>
-      </c>
-      <c r="F44" s="13">
-        <v>4.2367435907390032</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="15">
+      <c r="D46" s="13">
+        <v>43.060486317844997</v>
+      </c>
+      <c r="E46" s="13">
+        <v>-1.3177056054180001</v>
+      </c>
+      <c r="F46" s="13">
+        <v>4.2443955634490003</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="15">
         <v>2021</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C47" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="16">
-        <v>44.361624163470999</v>
-      </c>
-      <c r="E45" s="16">
-        <v>-1.822237594127003</v>
-      </c>
-      <c r="F45" s="16">
-        <v>6.087398227396001</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="8">
-        <v>2021</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="9">
-        <v>46.183861757598002</v>
-      </c>
-      <c r="E46" s="9">
-        <v>2.3096186818120046</v>
-      </c>
-      <c r="F46" s="9">
-        <v>8.9429458269100053</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="10">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="11">
-        <v>43.874243075785998</v>
-      </c>
-      <c r="E47" s="11">
-        <v>0.14902576481199503</v>
-      </c>
-      <c r="F47" s="11">
-        <v>5.9998007171769956</v>
+      <c r="D47" s="16">
+        <v>44.378191923263003</v>
+      </c>
+      <c r="E47" s="16">
+        <v>-1.815845298857</v>
+      </c>
+      <c r="F47" s="16">
+        <v>6.0952391945500004</v>
       </c>
     </row>
     <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1648,16 +1660,16 @@
         <v>2021</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D48" s="9">
-        <v>43.725217310974003</v>
+        <v>46.194037222119</v>
       </c>
       <c r="E48" s="9">
-        <v>0.7067213575550042</v>
+        <v>2.3091966511409998</v>
       </c>
       <c r="F48" s="9">
-        <v>7.173653842950003</v>
+        <v>8.9485264932980009</v>
       </c>
     </row>
     <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1665,16 +1677,16 @@
         <v>2021</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D49" s="11">
-        <v>43.018495953418999</v>
+        <v>43.884840570979001</v>
       </c>
       <c r="E49" s="11">
-        <v>-1.2475712639320022</v>
+        <v>0.15601091222499999</v>
       </c>
       <c r="F49" s="11">
-        <v>7.6321592858299994</v>
+        <v>6.0022773470980004</v>
       </c>
     </row>
     <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1682,16 +1694,16 @@
         <v>2021</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D50" s="9">
-        <v>44.266067217351001</v>
+        <v>43.728829658754002</v>
       </c>
       <c r="E50" s="9">
-        <v>0.34547847152600042</v>
+        <v>0.70525870044899996</v>
       </c>
       <c r="F50" s="9">
-        <v>9.931642090800004</v>
+        <v>7.1753767028609996</v>
       </c>
     </row>
     <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1699,16 +1711,16 @@
         <v>2021</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" s="11">
-        <v>43.920588745825</v>
+        <v>43.023570958305001</v>
       </c>
       <c r="E51" s="11">
-        <v>1.2402800736450033</v>
+        <v>-1.24180054784</v>
       </c>
       <c r="F51" s="11">
-        <v>12.214323939001002</v>
+        <v>7.6333565210880003</v>
       </c>
     </row>
     <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1716,16 +1728,16 @@
         <v>2021</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" s="9">
-        <v>42.680308672179997</v>
+        <v>44.265371506145001</v>
       </c>
       <c r="E52" s="9">
-        <v>0.45571790816699576</v>
+        <v>0.34658716625000002</v>
       </c>
       <c r="F52" s="9">
-        <v>11.505128252765996</v>
+        <v>9.9308613842549995</v>
       </c>
     </row>
     <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1733,16 +1745,16 @@
         <v>2021</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D53" s="11">
-        <v>42.224590764013001</v>
+        <v>43.918784339894998</v>
       </c>
       <c r="E53" s="11">
-        <v>1.5263031041819985</v>
+        <v>1.3019861613479999</v>
       </c>
       <c r="F53" s="11">
-        <v>10.148182318884004</v>
+        <v>12.212691843796</v>
       </c>
     </row>
     <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1750,16 +1762,16 @@
         <v>2021</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D54" s="9">
-        <v>40.698287659831003</v>
+        <v>42.616798178547</v>
       </c>
       <c r="E54" s="9">
-        <v>1.7556458198660039</v>
+        <v>0.39038634468799999</v>
       </c>
       <c r="F54" s="9">
-        <v>-1.6036016775859991</v>
+        <v>11.472477641126</v>
       </c>
     </row>
     <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1767,84 +1779,84 @@
         <v>2021</v>
       </c>
       <c r="C55" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="11">
+        <v>42.226411833858997</v>
+      </c>
+      <c r="E55" s="11">
+        <v>1.5244237857539999</v>
+      </c>
+      <c r="F55" s="11">
+        <v>10.147983676623999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="9">
+        <v>40.701988048106003</v>
+      </c>
+      <c r="E56" s="9">
+        <v>1.751686911552</v>
+      </c>
+      <c r="F56" s="9">
+        <v>-1.6020574373480001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="11">
-        <v>38.942641839964999</v>
-      </c>
-      <c r="E55" s="11">
-        <v>0.13551873034599993</v>
-      </c>
-      <c r="F55" s="11">
-        <v>-4.8723159327689984</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="12">
+      <c r="D57" s="11">
+        <v>38.950301136553001</v>
+      </c>
+      <c r="E57" s="11">
+        <v>0.13421038215700001</v>
+      </c>
+      <c r="F57" s="11">
+        <v>-4.869752215269</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="12">
         <v>2021</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="13">
-        <v>38.807123109618999</v>
-      </c>
-      <c r="E56" s="13">
-        <v>0.53289717354400068</v>
-      </c>
-      <c r="F56" s="13">
-        <v>-4.945730175704</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="15">
+      <c r="D58" s="13">
+        <v>38.816090754396001</v>
+      </c>
+      <c r="E58" s="13">
+        <v>0.53313802568299995</v>
+      </c>
+      <c r="F58" s="13">
+        <v>-4.9418210806470002</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="15">
         <v>2020</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="16">
-        <v>38.274225936074998</v>
-      </c>
-      <c r="E57" s="16">
-        <v>1.0326583260660001</v>
-      </c>
-      <c r="F57" s="16">
-        <v>-4.9284605383480002</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="8">
-        <v>2020</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="9">
-        <v>37.240915930687997</v>
-      </c>
-      <c r="E58" s="9">
-        <v>-0.62231835974799998</v>
-      </c>
-      <c r="F58" s="9">
-        <v>-6.7250604645559999</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="10">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="11">
-        <v>37.874442358609002</v>
-      </c>
-      <c r="E59" s="11">
-        <v>1.320800718334</v>
-      </c>
-      <c r="F59" s="11">
-        <v>-6.1447870249149998</v>
+      <c r="D59" s="16">
+        <v>38.282952728712999</v>
+      </c>
+      <c r="E59" s="16">
+        <v>1.0374419998910001</v>
+      </c>
+      <c r="F59" s="16">
+        <v>-4.930060522362</v>
       </c>
     </row>
     <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1852,16 +1864,16 @@
         <v>2020</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D60" s="9">
-        <v>36.551563468024</v>
+        <v>37.245510728821998</v>
       </c>
       <c r="E60" s="9">
-        <v>1.1685645206819999</v>
+        <v>-0.63705249505799999</v>
       </c>
       <c r="F60" s="9">
-        <v>-9.0675917381200009</v>
+        <v>-6.726239194393</v>
       </c>
     </row>
     <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1869,16 +1881,16 @@
         <v>2020</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D61" s="11">
-        <v>35.386336667588999</v>
+        <v>37.882563223879998</v>
       </c>
       <c r="E61" s="11">
-        <v>1.0512532664059999</v>
+        <v>1.329110267988</v>
       </c>
       <c r="F61" s="11">
-        <v>-8.6378056897279993</v>
+        <v>-6.1411678273090002</v>
       </c>
     </row>
     <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1886,16 +1898,16 @@
         <v>2020</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D62" s="9">
-        <v>34.334425126550997</v>
+        <v>36.553452955893</v>
       </c>
       <c r="E62" s="9">
-        <v>2.6308702185009998</v>
+        <v>1.1632385186750001</v>
       </c>
       <c r="F62" s="9">
-        <v>-8.7987053875410002</v>
+        <v>-9.0677803801970001</v>
       </c>
     </row>
     <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1903,16 +1915,16 @@
         <v>2020</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" s="11">
-        <v>31.706264806823999</v>
+        <v>35.390214437216997</v>
       </c>
       <c r="E63" s="11">
-        <v>0.53993824527199996</v>
+        <v>1.055704315327</v>
       </c>
       <c r="F63" s="11">
-        <v>-11.63944860256</v>
+        <v>-8.6363523670560003</v>
       </c>
     </row>
     <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1920,16 +1932,16 @@
         <v>2020</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" s="9">
-        <v>31.175180419414001</v>
+        <v>34.334510121891</v>
       </c>
       <c r="E64" s="9">
-        <v>-0.91561658927199996</v>
+        <v>2.6284176257919998</v>
       </c>
       <c r="F64" s="9">
-        <v>-13.126664633352</v>
+        <v>-8.7973273759529995</v>
       </c>
     </row>
     <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1937,16 +1949,16 @@
         <v>2020</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D65" s="11">
-        <v>32.076408445128997</v>
+        <v>31.706092496099</v>
       </c>
       <c r="E65" s="11">
-        <v>-10.227719050658999</v>
+        <v>0.56177195867800001</v>
       </c>
       <c r="F65" s="11">
-        <v>-13.361776137309</v>
+        <v>-11.638685613367</v>
       </c>
     </row>
     <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1954,16 +1966,16 @@
         <v>2020</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D66" s="9">
-        <v>42.301889337417002</v>
+        <v>31.144320537420999</v>
       </c>
       <c r="E66" s="9">
-        <v>-1.5153043326110001</v>
+        <v>-0.93410761981400003</v>
       </c>
       <c r="F66" s="9">
-        <v>-4.5080200928489997</v>
+        <v>-13.13089064987</v>
       </c>
     </row>
     <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1971,84 +1983,84 @@
         <v>2020</v>
       </c>
       <c r="C67" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="11">
+        <v>32.078428157235003</v>
+      </c>
+      <c r="E67" s="11">
+        <v>-10.225617328219</v>
+      </c>
+      <c r="F67" s="11">
+        <v>-13.361068841203</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="9">
+        <v>42.304045485453997</v>
+      </c>
+      <c r="E68" s="9">
+        <v>-1.5160078663679999</v>
+      </c>
+      <c r="F68" s="9">
+        <v>-4.5067482644980004</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="11">
-        <v>43.814957772733997</v>
-      </c>
-      <c r="E67" s="11">
-        <v>6.2397894315999999E-2</v>
-      </c>
-      <c r="F67" s="11">
-        <v>-4.6715862677170001</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="12">
+      <c r="D69" s="11">
+        <v>43.820053351821997</v>
+      </c>
+      <c r="E69" s="11">
+        <v>6.2141516780000003E-2</v>
+      </c>
+      <c r="F69" s="11">
+        <v>-4.6711655000999999</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="12">
         <v>2020</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="13">
-        <v>43.752853285322999</v>
-      </c>
-      <c r="E68" s="13">
-        <v>0.54601460436600002</v>
-      </c>
-      <c r="F68" s="13">
-        <v>-1.889245615926</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="15">
+      <c r="D70" s="13">
+        <v>43.757911835042997</v>
+      </c>
+      <c r="E70" s="13">
+        <v>0.54489858396699997</v>
+      </c>
+      <c r="F70" s="13">
+        <v>-1.8895074274799999</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="15">
         <v>2019</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="16">
-        <v>43.207773525404001</v>
-      </c>
-      <c r="E69" s="16">
-        <v>-0.76394160014199997</v>
-      </c>
-      <c r="F69" s="16">
-        <v>-1.094722535029</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="8">
-        <v>2019</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="9">
-        <v>43.968972176533001</v>
-      </c>
-      <c r="E70" s="9">
-        <v>-4.2044920106999999E-2</v>
-      </c>
-      <c r="F70" s="9">
-        <v>2.3098698843590002</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="10">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="11">
-        <v>44.017023487255997</v>
-      </c>
-      <c r="E71" s="11">
-        <v>-1.6020039948710001</v>
-      </c>
-      <c r="F71" s="11">
-        <v>1.49072442455</v>
+      <c r="D71" s="16">
+        <v>43.213013251074997</v>
+      </c>
+      <c r="E71" s="16">
+        <v>-0.75873667213999996</v>
+      </c>
+      <c r="F71" s="16">
+        <v>-1.095017589025</v>
       </c>
     </row>
     <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -2056,16 +2068,16 @@
         <v>2019</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D72" s="9">
-        <v>45.619772647841003</v>
+        <v>43.971749923215</v>
       </c>
       <c r="E72" s="9">
-        <v>1.5983505690740001</v>
+        <v>-5.1981127974000001E-2</v>
       </c>
       <c r="F72" s="9">
-        <v>3.2027290435050002</v>
+        <v>2.3087828420280001</v>
       </c>
     </row>
     <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -2073,16 +2085,16 @@
         <v>2019</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D73" s="11">
-        <v>44.023279945429003</v>
+        <v>44.023731051189003</v>
       </c>
       <c r="E73" s="11">
-        <v>0.89035356859199999</v>
+        <v>-1.5975022849</v>
       </c>
       <c r="F73" s="11">
-        <v>0.96027946263999997</v>
+        <v>1.4926549634790001</v>
       </c>
     </row>
     <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -2090,16 +2102,16 @@
         <v>2019</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D74" s="9">
-        <v>43.131493160387002</v>
+        <v>45.621233336088999</v>
       </c>
       <c r="E74" s="9">
-        <v>-0.20987299651800001</v>
+        <v>1.594666531816</v>
       </c>
       <c r="F74" s="9">
-        <v>5.5136741109999998E-2</v>
+        <v>3.2034039397990002</v>
       </c>
     </row>
     <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -2107,16 +2119,16 @@
         <v>2019</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" s="11">
-        <v>43.345052115724002</v>
+        <v>44.026566804273003</v>
       </c>
       <c r="E75" s="11">
-        <v>-0.94727778552099995</v>
+        <v>0.89472930643000004</v>
       </c>
       <c r="F75" s="11">
-        <v>6.4797087679510001</v>
+        <v>0.96330939458300002</v>
       </c>
     </row>
     <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -2124,16 +2136,16 @@
         <v>2019</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" s="9">
-        <v>44.299068870901003</v>
+        <v>43.131837497843001</v>
       </c>
       <c r="E76" s="9">
-        <v>-1.150728093228</v>
+        <v>-0.21294061162200001</v>
       </c>
       <c r="F76" s="9">
-        <v>7.7812527718429996</v>
+        <v>5.6507456589999998E-2</v>
       </c>
     </row>
     <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -2141,16 +2153,16 @@
         <v>2019</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D77" s="11">
-        <v>45.437543714603002</v>
+        <v>43.344778109464997</v>
       </c>
       <c r="E77" s="11">
-        <v>-1.3739630061999999</v>
+        <v>-0.93043307782600004</v>
       </c>
       <c r="F77" s="11">
-        <v>9.7284736882199994</v>
+        <v>6.4826053088910003</v>
       </c>
     </row>
     <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -2158,16 +2170,16 @@
         <v>2019</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D78" s="9">
-        <v>46.810829603751998</v>
+        <v>44.275211187290999</v>
       </c>
       <c r="E78" s="9">
-        <v>-1.6788705074779999</v>
+        <v>-1.164285811147</v>
       </c>
       <c r="F78" s="9">
-        <v>12.07790290132</v>
+        <v>7.7693334753199998</v>
       </c>
     </row>
     <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -2175,67 +2187,67 @@
         <v>2019</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D79" s="11">
-        <v>48.488871988608999</v>
+        <v>45.439496998438003</v>
       </c>
       <c r="E79" s="11">
-        <v>2.8447385461070001</v>
+        <v>-1.371296751514</v>
       </c>
       <c r="F79" s="11">
-        <v>13.748191990925999</v>
+        <v>9.7297615183880009</v>
       </c>
     </row>
     <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="12">
+      <c r="B80" s="8">
         <v>2019</v>
       </c>
-      <c r="C80" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="13">
-        <v>45.645235446298997</v>
-      </c>
-      <c r="E80" s="13">
-        <v>1.340537685263</v>
-      </c>
-      <c r="F80" s="13">
-        <v>11.015640719963001</v>
+      <c r="C80" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="9">
+        <v>46.810793749951998</v>
+      </c>
+      <c r="E80" s="9">
+        <v>-1.6804251019700001</v>
+      </c>
+      <c r="F80" s="9">
+        <v>12.078375993917</v>
       </c>
     </row>
     <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B81" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D81" s="11">
-        <v>44.304948892261002</v>
+        <v>48.491218851922</v>
       </c>
       <c r="E81" s="11">
-        <v>2.640650819247</v>
+        <v>2.8437995894000001</v>
       </c>
       <c r="F81" s="11">
-        <v>8.4319768968190001</v>
+        <v>13.748801695771</v>
       </c>
     </row>
     <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="8">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="9">
-        <v>41.661032700394003</v>
-      </c>
-      <c r="E82" s="9">
-        <v>-0.86119037991699998</v>
-      </c>
-      <c r="F82" s="9">
-        <v>5.0265117038760003</v>
+      <c r="B82" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="13">
+        <v>45.647419262522</v>
+      </c>
+      <c r="E82" s="13">
+        <v>1.3393884224220001</v>
+      </c>
+      <c r="F82" s="13">
+        <v>11.016117117361</v>
       </c>
     </row>
     <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
@@ -2243,16 +2255,16 @@
         <v>2018</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D83" s="11">
-        <v>42.526854816125002</v>
+        <v>44.308030840100997</v>
       </c>
       <c r="E83" s="11">
-        <v>0.11000062408400001</v>
+        <v>2.6450637589129999</v>
       </c>
       <c r="F83" s="11">
-        <v>6.0095531583569999</v>
+        <v>8.4326068750399994</v>
       </c>
     </row>
     <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
@@ -2260,16 +2272,16 @@
         <v>2018</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D84" s="9">
-        <v>42.416761624925002</v>
+        <v>41.662967081186999</v>
       </c>
       <c r="E84" s="9">
-        <v>-0.64409901179100004</v>
+        <v>-0.86810900652199996</v>
       </c>
       <c r="F84" s="9">
-        <v>5.385808953343</v>
+        <v>5.0251326135449998</v>
       </c>
     </row>
     <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
@@ -2277,16 +2289,16 @@
         <v>2018</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D85" s="11">
-        <v>43.062039700153001</v>
+        <v>42.531076087709998</v>
       </c>
       <c r="E85" s="11">
-        <v>-1.4789152937E-2</v>
+        <v>0.113246691419</v>
       </c>
       <c r="F85" s="11">
-        <v>6.5431982755710001</v>
+        <v>6.0116022715039996</v>
       </c>
     </row>
     <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
@@ -2294,16 +2306,16 @@
         <v>2018</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D86" s="9">
-        <v>43.076251558149011</v>
+        <v>42.417829396290998</v>
       </c>
       <c r="E86" s="9">
-        <v>6.2146990303229996</v>
+        <v>-0.6454280134</v>
       </c>
       <c r="F86" s="9">
-        <v>6.8569747931559997</v>
+        <v>5.3860172150099999</v>
       </c>
     </row>
     <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
@@ -2311,16 +2323,16 @@
         <v>2018</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" s="11">
-        <v>36.864095423936</v>
+        <v>43.063257409690998</v>
       </c>
       <c r="E87" s="11">
-        <v>0.35426621837200001</v>
+        <v>-1.2072631562000001E-2</v>
       </c>
       <c r="F87" s="11">
-        <v>1.2302639945380001</v>
+        <v>6.5449519449829996</v>
       </c>
     </row>
     <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
@@ -2328,69 +2340,67 @@
         <v>2018</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" s="9">
-        <v>36.509695031805002</v>
+        <v>43.075330041252997</v>
       </c>
       <c r="E88" s="9">
-        <v>0.79649282314900005</v>
+        <v>6.2131572406790001</v>
       </c>
       <c r="F88" s="9">
-        <v>0.91226491209399996</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6.8562503959710002</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B89" s="10">
         <v>2018</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D89" s="11">
-        <v>35.710345776788998</v>
+        <v>36.862172800574001</v>
       </c>
       <c r="E89" s="11">
-        <v>0.97546620689899999</v>
+        <v>0.35629508860300002</v>
       </c>
       <c r="F89" s="11">
-        <v>0.62970424452999996</v>
-      </c>
-      <c r="G89" s="18"/>
-    </row>
-    <row r="90" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1.2301791143080001</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B90" s="8">
         <v>2018</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D90" s="9">
-        <v>34.734574768931999</v>
+        <v>36.505877711971003</v>
       </c>
       <c r="E90" s="9">
-        <v>-8.5814178719999992E-3</v>
+        <v>0.79614223192</v>
       </c>
       <c r="F90" s="9">
-        <v>0.53296312568199999</v>
-      </c>
-      <c r="G90" s="18"/>
+        <v>0.91136854763099995</v>
+      </c>
     </row>
     <row r="91" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="10">
         <v>2018</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D91" s="11">
-        <v>34.742552191514001</v>
+        <v>35.709735480051002</v>
       </c>
       <c r="E91" s="11">
-        <v>0.112187275144</v>
+        <v>0.97731772401500006</v>
       </c>
       <c r="F91" s="11">
-        <v>2.5917637547729999</v>
+        <v>0.62904383414800003</v>
       </c>
       <c r="G91" s="18"/>
     </row>
@@ -2399,72 +2409,108 @@
         <v>2018</v>
       </c>
       <c r="C92" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="9">
+        <v>34.732417756036</v>
+      </c>
+      <c r="E92" s="9">
+        <v>-9.9994001149999994E-3</v>
+      </c>
+      <c r="F92" s="9">
+        <v>0.53236820032700005</v>
+      </c>
+      <c r="G92" s="18"/>
+    </row>
+    <row r="93" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="11">
+        <v>34.742417156150999</v>
+      </c>
+      <c r="E93" s="11">
+        <v>0.11111501099</v>
+      </c>
+      <c r="F93" s="11">
+        <v>2.5917839856640001</v>
+      </c>
+      <c r="G93" s="18"/>
+    </row>
+    <row r="94" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D92" s="9">
-        <v>34.631003775753001</v>
-      </c>
-      <c r="E92" s="9">
-        <v>-1.2431261378809999</v>
-      </c>
-      <c r="F92" s="9">
-        <v>6.0252716501699997</v>
-      </c>
-      <c r="G92" s="18"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B93" s="3" t="s">
+      <c r="D94" s="9">
+        <v>34.631302145161001</v>
+      </c>
+      <c r="E94" s="9">
+        <v>-1.2441218198990001</v>
+      </c>
+      <c r="F94" s="9">
+        <v>6.0254417458010003</v>
+      </c>
+      <c r="G94" s="18"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B95" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="18"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B95" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="18"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B96" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="18"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B97" s="3" t="s">
-        <v>18</v>
+      <c r="B97" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B98" s="20"/>
+      <c r="B98" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="18"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B99" s="20"/>
+      <c r="B99" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E100" s="21"/>
-      <c r="F100" s="21"/>
+      <c r="B100" s="20"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E101" s="21"/>
-      <c r="F101" s="21"/>
+      <c r="B101" s="20"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ICC.xlsx
+++ b/ICC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF8DAA0-ED68-47E5-9B7C-641A67D1D149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7BB6FC-FF94-41CC-A400-55ABE5E2CF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_7" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="25">
   <si>
     <t>Mes</t>
   </si>
@@ -168,7 +168,7 @@
     </r>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -563,8 +563,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F94" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B4:F94" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F95" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B4:F95" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -806,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N103"/>
+  <dimension ref="B2:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -871,20 +871,20 @@
       <c r="M4"/>
     </row>
     <row r="5" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>2025</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="11">
-        <v>45.426868996232997</v>
-      </c>
-      <c r="E5" s="11">
-        <v>-1.052516430716</v>
-      </c>
-      <c r="F5" s="11">
-        <v>-2.2161432301069999</v>
+      <c r="C5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9">
+        <v>45.907835494022002</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.43489682365900001</v>
+      </c>
+      <c r="F5" s="9">
+        <v>-1.1759262212870001</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -894,20 +894,20 @@
       <c r="M5"/>
     </row>
     <row r="6" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="8">
+      <c r="B6" s="10">
         <v>2025</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9">
-        <v>46.479385426949001</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1.101180038071</v>
-      </c>
-      <c r="F6" s="9">
-        <v>-0.23432687666499999</v>
+      <c r="C6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11">
+        <v>45.472938670363</v>
+      </c>
+      <c r="E6" s="11">
+        <v>-1.0344707401019999</v>
+      </c>
+      <c r="F6" s="11">
+        <v>-2.2080731861360001</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -917,20 +917,20 @@
       <c r="M6"/>
     </row>
     <row r="7" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>2025</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="11">
-        <v>45.378205388878001</v>
-      </c>
-      <c r="E7" s="11">
-        <v>-0.58882820255299995</v>
-      </c>
-      <c r="F7" s="11">
-        <v>-2.17086340507</v>
+      <c r="C7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9">
+        <v>46.507409410465002</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.1041856648149999</v>
+      </c>
+      <c r="F7" s="9">
+        <v>-0.23058736053500001</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -940,20 +940,20 @@
       <c r="M7"/>
     </row>
     <row r="8" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="8">
+      <c r="B8" s="10">
         <v>2025</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="9">
-        <v>45.967033591430997</v>
-      </c>
-      <c r="E8" s="9">
-        <v>-0.33526647572599999</v>
-      </c>
-      <c r="F8" s="9">
-        <v>-1.323940830765</v>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11">
+        <v>45.403223745650003</v>
+      </c>
+      <c r="E8" s="11">
+        <v>-0.58335430998000004</v>
+      </c>
+      <c r="F8" s="11">
+        <v>-2.1690453406180001</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -963,20 +963,20 @@
       <c r="M8"/>
     </row>
     <row r="9" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>2025</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="11">
-        <v>46.302300067156999</v>
-      </c>
-      <c r="E9" s="11">
-        <v>-0.26692177434499997</v>
-      </c>
-      <c r="F9" s="11">
-        <v>-0.78590665715700003</v>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9">
+        <v>45.986578055629998</v>
+      </c>
+      <c r="E9" s="9">
+        <v>-0.33417187836000001</v>
+      </c>
+      <c r="F9" s="9">
+        <v>-1.323823456225</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -986,20 +986,20 @@
       <c r="M9"/>
     </row>
     <row r="10" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>2025</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="13">
-        <v>46.569221841501999</v>
-      </c>
-      <c r="E10" s="13">
-        <v>-0.35310391529599999</v>
-      </c>
-      <c r="F10" s="13">
-        <v>-0.42213779115200001</v>
+      <c r="C10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="11">
+        <v>46.320749933990001</v>
+      </c>
+      <c r="E10" s="11">
+        <v>-0.26657332677399997</v>
+      </c>
+      <c r="F10" s="11">
+        <v>-0.78543003119099997</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
@@ -1009,20 +1009,20 @@
       <c r="M10"/>
     </row>
     <row r="11" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="11">
-        <v>46.922325756798003</v>
-      </c>
-      <c r="E11" s="11">
-        <v>-0.55703152603100003</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0.18208026190500001</v>
+      <c r="B11" s="12">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="13">
+        <v>46.587323260764002</v>
+      </c>
+      <c r="E11" s="13">
+        <v>-0.34785352963100002</v>
+      </c>
+      <c r="F11" s="13">
+        <v>-0.41871983122</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
@@ -1032,20 +1032,20 @@
       <c r="M11"/>
     </row>
     <row r="12" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="8">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="9">
-        <v>47.479357282829</v>
-      </c>
-      <c r="E12" s="9">
-        <v>-1.735649963168</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0.46031122588599999</v>
+      <c r="C12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="11">
+        <v>46.935176790394998</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-0.54468307303200003</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.18691080191500001</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
@@ -1055,20 +1055,20 @@
       <c r="M12"/>
     </row>
     <row r="13" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="11">
-        <v>49.215007245997</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2.098191778656</v>
-      </c>
-      <c r="F13" s="11">
-        <v>3.3137293410669999</v>
+      <c r="C13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="9">
+        <v>47.479859863427002</v>
+      </c>
+      <c r="E13" s="9">
+        <v>-1.741759786007</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.46261626774600001</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
@@ -1077,1440 +1077,1463 @@
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="8">
+    <row r="14" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="11">
+        <v>49.221619649433997</v>
+      </c>
+      <c r="E14" s="11">
+        <v>2.1313602754629999</v>
+      </c>
+      <c r="F14" s="11">
+        <v>3.316431270546</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="9">
-        <v>47.116815467340999</v>
-      </c>
-      <c r="E14" s="9">
-        <v>-0.49032981221499999</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0.20478382432299999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="10">
+      <c r="D15" s="9">
+        <v>47.090259373972003</v>
+      </c>
+      <c r="E15" s="9">
+        <v>-0.46657721490699999</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.19988769763700001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="11">
-        <v>47.607145279556001</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0.43252514445500001</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0.83507258475699997</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="8">
+      <c r="D16" s="11">
+        <v>47.556836588879001</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.47307487357</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.82321625413199995</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="8">
         <v>2024</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="9">
-        <v>47.174620135101001</v>
-      </c>
-      <c r="E16" s="9">
-        <v>-0.468392091239</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0.66022313197500004</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="10">
+      <c r="D17" s="9">
+        <v>47.083761715309002</v>
+      </c>
+      <c r="E17" s="9">
+        <v>-0.59725014118999997</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.61815739617400001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="10">
         <v>2024</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="11">
-        <v>47.643012226339998</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0.92929992272600004</v>
-      </c>
-      <c r="F17" s="11">
-        <v>2.236366019394</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="8">
+      <c r="D18" s="11">
+        <v>47.681011856498998</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.94301508549900004</v>
+      </c>
+      <c r="F18" s="11">
+        <v>2.2553322940379998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="8">
         <v>2024</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="9">
-        <v>46.713712303614003</v>
-      </c>
-      <c r="E18" s="9">
-        <v>-0.83535649033399995</v>
-      </c>
-      <c r="F18" s="9">
-        <v>1.9384912386140001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="10">
+      <c r="D19" s="9">
+        <v>46.737996770999999</v>
+      </c>
+      <c r="E19" s="9">
+        <v>-0.83427231526800005</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1.946818326389</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="10">
         <v>2024</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="11">
-        <v>47.549068793948003</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0.25809437175200001</v>
-      </c>
-      <c r="F19" s="11">
-        <v>3.2314401565640001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="8">
+      <c r="D20" s="11">
+        <v>47.572269086268001</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.26186757441300001</v>
+      </c>
+      <c r="F20" s="11">
+        <v>3.240256996127</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="8">
         <v>2024</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="9">
-        <v>47.290974422196001</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0.202767697882</v>
-      </c>
-      <c r="F20" s="9">
-        <v>2.8002339498170001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="10">
+      <c r="D21" s="9">
+        <v>47.310401511854998</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.204221546674</v>
+      </c>
+      <c r="F21" s="9">
+        <v>2.8063306567359998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="10">
         <v>2024</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="11">
-        <v>47.088206724313999</v>
-      </c>
-      <c r="E21" s="11">
-        <v>9.6847091659999995E-2</v>
-      </c>
-      <c r="F21" s="11">
-        <v>2.3212666717500001</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="12">
+      <c r="D22" s="11">
+        <v>47.106179965180999</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.10013687319800001</v>
+      </c>
+      <c r="F22" s="11">
+        <v>2.3270429965620001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="12">
         <v>2024</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="13">
-        <v>46.991359632654003</v>
-      </c>
-      <c r="E22" s="13">
-        <v>0.251114137761</v>
-      </c>
-      <c r="F22" s="13">
-        <v>2.7347563260559999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="14">
+      <c r="D23" s="13">
+        <v>47.006043091983997</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0.25777710350400002</v>
+      </c>
+      <c r="F23" s="13">
+        <v>2.7406216202740001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="14">
         <v>2023</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="16">
-        <v>46.740245494893003</v>
-      </c>
-      <c r="E23" s="16">
-        <v>-0.27880056204999998</v>
-      </c>
-      <c r="F23" s="17">
-        <v>3.9304840659629998</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="8">
+      <c r="D24" s="16">
+        <v>46.74826598848</v>
+      </c>
+      <c r="E24" s="16">
+        <v>-0.268977607201</v>
+      </c>
+      <c r="F24" s="17">
+        <v>3.9348924885610002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="8">
         <v>2023</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="9">
-        <v>47.019046056943999</v>
-      </c>
-      <c r="E24" s="9">
-        <v>1.1177681520130001</v>
-      </c>
-      <c r="F24" s="9">
-        <v>5.0948538641440004</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="10">
+      <c r="D25" s="9">
+        <v>47.017243595681002</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1.112055216793</v>
+      </c>
+      <c r="F25" s="9">
+        <v>5.0956339264389996</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="11">
-        <v>45.901277904929998</v>
-      </c>
-      <c r="E25" s="11">
-        <v>-1.010753738087</v>
-      </c>
-      <c r="F25" s="11">
-        <v>4.4967315936930001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="8">
+      <c r="D26" s="11">
+        <v>45.905188378887999</v>
+      </c>
+      <c r="E26" s="11">
+        <v>-0.98518329744599997</v>
+      </c>
+      <c r="F26" s="11">
+        <v>4.4979715336100003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="8">
         <v>2023</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="9">
-        <v>46.912031643017997</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0.13995894821900001</v>
-      </c>
-      <c r="F26" s="9">
-        <v>5.6810285965630003</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="10">
+      <c r="D27" s="9">
+        <v>46.890371676335</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.156751341588</v>
+      </c>
+      <c r="F27" s="9">
+        <v>5.6724419744569996</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="11">
-        <v>46.772072694799</v>
-      </c>
-      <c r="E27" s="11">
-        <v>0.25767569167299997</v>
-      </c>
-      <c r="F27" s="11">
-        <v>5.8726971377139998</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="8">
+      <c r="D28" s="11">
+        <v>46.733620334747002</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0.268016015612</v>
+      </c>
+      <c r="F28" s="11">
+        <v>5.8576131591160001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="8">
         <v>2023</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="9">
-        <v>46.514397003126</v>
-      </c>
-      <c r="E28" s="9">
-        <v>1.1077507961799999</v>
-      </c>
-      <c r="F28" s="9">
-        <v>5.2107855915250001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="10">
+      <c r="D29" s="9">
+        <v>46.465604319134002</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1.0399247566730001</v>
+      </c>
+      <c r="F29" s="9">
+        <v>5.1787985906870002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="10">
         <v>2023</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="11">
-        <v>45.406646206946</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0.63142514194699995</v>
-      </c>
-      <c r="F29" s="11">
-        <v>2.647817340464</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="8">
+      <c r="D30" s="11">
+        <v>45.425679562460999</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.63450111784999996</v>
+      </c>
+      <c r="F30" s="11">
+        <v>2.6608363897270002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="8">
         <v>2023</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="9">
-        <v>44.775221064999002</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0.457592427616</v>
-      </c>
-      <c r="F30" s="9">
-        <v>0.78779356633099995</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="10">
+      <c r="D31" s="9">
+        <v>44.791178444610999</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0.45916635447100002</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0.79471170950000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="10">
         <v>2023</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="11">
-        <v>44.317628637383997</v>
-      </c>
-      <c r="E31" s="11">
-        <v>-0.173111834996</v>
-      </c>
-      <c r="F31" s="11">
-        <v>0.32383167812000002</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="8">
+      <c r="D32" s="11">
+        <v>44.332012090140999</v>
+      </c>
+      <c r="E32" s="11">
+        <v>-0.17205876497799999</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0.330253708674</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="8">
         <v>2023</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="9">
-        <v>44.490740472379002</v>
-      </c>
-      <c r="E32" s="9">
-        <v>-0.27619958018500002</v>
-      </c>
-      <c r="F32" s="9">
-        <v>0.89684962213399999</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="10">
+      <c r="D33" s="9">
+        <v>44.504070855118997</v>
+      </c>
+      <c r="E33" s="9">
+        <v>-0.27506611349999999</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0.90185930115400004</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="10">
         <v>2023</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="11">
-        <v>44.766940052564003</v>
-      </c>
-      <c r="E33" s="11">
-        <v>0.51033674596599998</v>
-      </c>
-      <c r="F33" s="11">
-        <v>1.604966405493</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="12">
+      <c r="D34" s="11">
+        <v>44.779136968619</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.51371549690999996</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1.609879118761</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="12">
         <v>2023</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="13">
-        <v>44.256603306598002</v>
-      </c>
-      <c r="E34" s="13">
-        <v>1.4468418776680001</v>
-      </c>
-      <c r="F34" s="13">
-        <v>1.1961169887530001</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="10">
+      <c r="D35" s="13">
+        <v>44.265421471708997</v>
+      </c>
+      <c r="E35" s="13">
+        <v>1.452047971791</v>
+      </c>
+      <c r="F35" s="13">
+        <v>1.2003089058900001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="11">
-        <v>42.809761428930997</v>
-      </c>
-      <c r="E35" s="11">
-        <v>0.88556923613100003</v>
-      </c>
-      <c r="F35" s="11">
-        <v>-1.568430494332</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="8">
+      <c r="D36" s="11">
+        <v>42.813373499919003</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0.89176383067700005</v>
+      </c>
+      <c r="F36" s="11">
+        <v>-1.566169331819</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="8">
         <v>2022</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="9">
-        <v>41.9241921928</v>
-      </c>
-      <c r="E36" s="9">
-        <v>0.51964588156299996</v>
-      </c>
-      <c r="F36" s="9">
-        <v>-4.2698450293199999</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="10">
+      <c r="D37" s="9">
+        <v>41.921609669242002</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0.51439282396399999</v>
+      </c>
+      <c r="F37" s="9">
+        <v>-4.2698657784430001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="11">
-        <v>41.404546311236999</v>
-      </c>
-      <c r="E37" s="11">
-        <v>0.173543264782</v>
-      </c>
-      <c r="F37" s="11">
-        <v>-2.4802942597420001</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="8">
+      <c r="D38" s="11">
+        <v>41.407216845278001</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0.189287143401</v>
+      </c>
+      <c r="F38" s="11">
+        <v>-2.4784557435879999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="8">
         <v>2022</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="9">
-        <v>41.231003046455001</v>
-      </c>
-      <c r="E38" s="9">
-        <v>0.33162748937100001</v>
-      </c>
-      <c r="F38" s="9">
-        <v>-2.4978266122989998</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="10">
+      <c r="D39" s="9">
+        <v>41.217929701876997</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0.34192252624699998</v>
+      </c>
+      <c r="F39" s="9">
+        <v>-2.5033374851870001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="11">
-        <v>40.899375557083999</v>
-      </c>
-      <c r="E39" s="11">
-        <v>-0.404235854517</v>
-      </c>
-      <c r="F39" s="11">
-        <v>-2.1241954012209998</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="8">
+      <c r="D40" s="11">
+        <v>40.876007175631003</v>
+      </c>
+      <c r="E40" s="11">
+        <v>-0.41079855281700001</v>
+      </c>
+      <c r="F40" s="11">
+        <v>-2.1343521018030001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="8">
         <v>2022</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="9">
-        <v>41.303611411600997</v>
-      </c>
-      <c r="E40" s="9">
-        <v>-1.455217454881</v>
-      </c>
-      <c r="F40" s="9">
-        <v>-2.9617600945440001</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="10">
+      <c r="D41" s="9">
+        <v>41.286805728448002</v>
+      </c>
+      <c r="E41" s="9">
+        <v>-1.4780374442869999</v>
+      </c>
+      <c r="F41" s="9">
+        <v>-2.974168436442</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="10">
         <v>2022</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="11">
-        <v>42.758828866481998</v>
-      </c>
-      <c r="E41" s="11">
-        <v>-1.2285986321860001</v>
-      </c>
-      <c r="F41" s="11">
-        <v>-1.159955473413</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="8">
+      <c r="D42" s="11">
+        <v>42.764843172733997</v>
+      </c>
+      <c r="E42" s="11">
+        <v>-1.231623562377</v>
+      </c>
+      <c r="F42" s="11">
+        <v>-1.153416578436</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="8">
         <v>2022</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="9">
-        <v>43.987427498667998</v>
-      </c>
-      <c r="E42" s="9">
-        <v>-6.3694605959999998E-3</v>
-      </c>
-      <c r="F42" s="9">
-        <v>1.370629320121</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="10">
+      <c r="D43" s="9">
+        <v>43.996466735110999</v>
+      </c>
+      <c r="E43" s="9">
+        <v>-5.291646356E-3</v>
+      </c>
+      <c r="F43" s="9">
+        <v>1.3736074783909999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="10">
         <v>2022</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="11">
-        <v>43.993796959264003</v>
-      </c>
-      <c r="E43" s="11">
-        <v>0.39990610901899998</v>
-      </c>
-      <c r="F43" s="11">
-        <v>1.7673851254049999</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="8">
+      <c r="D44" s="11">
+        <v>44.001758381466999</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0.39954682750199999</v>
+      </c>
+      <c r="F44" s="11">
+        <v>1.7719215513519999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="8">
         <v>2022</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="9">
-        <v>43.593890850245003</v>
-      </c>
-      <c r="E44" s="9">
-        <v>0.43191720317299998</v>
-      </c>
-      <c r="F44" s="9">
-        <v>2.8919028021390001</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="10">
+      <c r="D45" s="9">
+        <v>43.602211553964999</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0.43295370410700001</v>
+      </c>
+      <c r="F45" s="9">
+        <v>2.8964312304359998</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="10">
         <v>2022</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="11">
-        <v>43.161973647071001</v>
-      </c>
-      <c r="E45" s="11">
-        <v>0.101487329226</v>
-      </c>
-      <c r="F45" s="11">
-        <v>4.2116725105180004</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="12">
+      <c r="D46" s="11">
+        <v>43.169257849857999</v>
+      </c>
+      <c r="E46" s="11">
+        <v>0.104145284038</v>
+      </c>
+      <c r="F46" s="11">
+        <v>4.2158879599160004</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="12">
         <v>2022</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="13">
-        <v>43.060486317844997</v>
-      </c>
-      <c r="E46" s="13">
-        <v>-1.3177056054180001</v>
-      </c>
-      <c r="F46" s="13">
-        <v>4.2443955634490003</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="15">
+      <c r="D47" s="13">
+        <v>43.065112565820002</v>
+      </c>
+      <c r="E47" s="13">
+        <v>-1.3144302659180001</v>
+      </c>
+      <c r="F47" s="13">
+        <v>4.2472243924380004</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="15">
         <v>2021</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C48" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="16">
-        <v>44.378191923263003</v>
-      </c>
-      <c r="E47" s="16">
-        <v>-1.815845298857</v>
-      </c>
-      <c r="F47" s="16">
-        <v>6.0952391945500004</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="8">
+      <c r="D48" s="16">
+        <v>44.379542831738</v>
+      </c>
+      <c r="E48" s="16">
+        <v>-1.8119326159469999</v>
+      </c>
+      <c r="F48" s="16">
+        <v>6.096162611444</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="8">
         <v>2021</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="9">
-        <v>46.194037222119</v>
-      </c>
-      <c r="E48" s="9">
-        <v>2.3091966511409998</v>
-      </c>
-      <c r="F48" s="9">
-        <v>8.9485264932980009</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="10">
+      <c r="D49" s="9">
+        <v>46.191475447685001</v>
+      </c>
+      <c r="E49" s="9">
+        <v>2.3058028588189998</v>
+      </c>
+      <c r="F49" s="9">
+        <v>8.9468041958420006</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="11">
-        <v>43.884840570979001</v>
-      </c>
-      <c r="E49" s="11">
-        <v>0.15601091222499999</v>
-      </c>
-      <c r="F49" s="11">
-        <v>6.0022773470980004</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="8">
+      <c r="D50" s="11">
+        <v>43.885672588866001</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0.164405401801</v>
+      </c>
+      <c r="F50" s="11">
+        <v>6.0032818215560004</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="8">
         <v>2021</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="9">
-        <v>43.728829658754002</v>
-      </c>
-      <c r="E50" s="9">
-        <v>0.70525870044899996</v>
-      </c>
-      <c r="F50" s="9">
-        <v>7.1753767028609996</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="10">
+      <c r="D51" s="9">
+        <v>43.721267187065003</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0.71090790963100003</v>
+      </c>
+      <c r="F51" s="9">
+        <v>7.1699338422860004</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="11">
-        <v>43.023570958305001</v>
-      </c>
-      <c r="E51" s="11">
-        <v>-1.24180054784</v>
-      </c>
-      <c r="F51" s="11">
-        <v>7.6333565210880003</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="8">
+      <c r="D52" s="11">
+        <v>43.010359277433999</v>
+      </c>
+      <c r="E52" s="11">
+        <v>-1.2506148874559999</v>
+      </c>
+      <c r="F52" s="11">
+        <v>7.627031221447</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="8">
         <v>2021</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="9">
-        <v>44.265371506145001</v>
-      </c>
-      <c r="E52" s="9">
-        <v>0.34658716625000002</v>
-      </c>
-      <c r="F52" s="9">
-        <v>9.9308613842549995</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="10">
+      <c r="D53" s="9">
+        <v>44.260974164888999</v>
+      </c>
+      <c r="E53" s="9">
+        <v>0.34271441371900002</v>
+      </c>
+      <c r="F53" s="9">
+        <v>9.9272932641760008</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="10">
         <v>2021</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="11">
-        <v>43.918784339894998</v>
-      </c>
-      <c r="E53" s="11">
-        <v>1.3019861613479999</v>
-      </c>
-      <c r="F53" s="11">
-        <v>12.212691843796</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="8">
+      <c r="D54" s="11">
+        <v>43.918259751169998</v>
+      </c>
+      <c r="E54" s="11">
+        <v>1.295400494451</v>
+      </c>
+      <c r="F54" s="11">
+        <v>12.211756230642999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="8">
         <v>2021</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="9">
-        <v>42.616798178547</v>
-      </c>
-      <c r="E54" s="9">
-        <v>0.39038634468799999</v>
-      </c>
-      <c r="F54" s="9">
-        <v>11.472477641126</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="10">
+      <c r="D55" s="9">
+        <v>42.622859256719998</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0.39302242660499997</v>
+      </c>
+      <c r="F55" s="9">
+        <v>11.475511393476999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="10">
         <v>2021</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="11">
-        <v>42.226411833858997</v>
-      </c>
-      <c r="E55" s="11">
-        <v>1.5244237857539999</v>
-      </c>
-      <c r="F55" s="11">
-        <v>10.147983676623999</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="8">
+      <c r="D56" s="11">
+        <v>42.229836830114003</v>
+      </c>
+      <c r="E56" s="11">
+        <v>1.524056506585</v>
+      </c>
+      <c r="F56" s="11">
+        <v>10.150338468277001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="8">
         <v>2021</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="9">
-        <v>40.701988048106003</v>
-      </c>
-      <c r="E56" s="9">
-        <v>1.751686911552</v>
-      </c>
-      <c r="F56" s="9">
-        <v>-1.6020574373480001</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="10">
+      <c r="D57" s="9">
+        <v>40.70578032353</v>
+      </c>
+      <c r="E57" s="9">
+        <v>1.752410433588</v>
+      </c>
+      <c r="F57" s="9">
+        <v>-1.5995510283800001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="10">
         <v>2021</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="11">
-        <v>38.950301136553001</v>
-      </c>
-      <c r="E57" s="11">
-        <v>0.13421038215700001</v>
-      </c>
-      <c r="F57" s="11">
-        <v>-4.869752215269</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="12">
+      <c r="D58" s="11">
+        <v>38.953369889942003</v>
+      </c>
+      <c r="E58" s="11">
+        <v>0.135481716561</v>
+      </c>
+      <c r="F58" s="11">
+        <v>-4.8676758690520003</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="12">
         <v>2021</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="13">
-        <v>38.816090754396001</v>
-      </c>
-      <c r="E58" s="13">
-        <v>0.53313802568299995</v>
-      </c>
-      <c r="F58" s="13">
-        <v>-4.9418210806470002</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="15">
+      <c r="D59" s="13">
+        <v>38.817888173381</v>
+      </c>
+      <c r="E59" s="13">
+        <v>0.53450795308700005</v>
+      </c>
+      <c r="F59" s="13">
+        <v>-4.9406073821380003</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="15">
         <v>2020</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C60" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="16">
-        <v>38.282952728712999</v>
-      </c>
-      <c r="E59" s="16">
-        <v>1.0374419998910001</v>
-      </c>
-      <c r="F59" s="16">
-        <v>-4.930060522362</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="8">
+      <c r="D60" s="16">
+        <v>38.283380220295001</v>
+      </c>
+      <c r="E60" s="16">
+        <v>1.0387089684519999</v>
+      </c>
+      <c r="F60" s="16">
+        <v>-4.9298531285099996</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="8">
         <v>2020</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="9">
-        <v>37.245510728821998</v>
-      </c>
-      <c r="E60" s="9">
-        <v>-0.63705249505799999</v>
-      </c>
-      <c r="F60" s="9">
-        <v>-6.726239194393</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="10">
+      <c r="D61" s="9">
+        <v>37.244671251843002</v>
+      </c>
+      <c r="E61" s="9">
+        <v>-0.63771951546799999</v>
+      </c>
+      <c r="F61" s="9">
+        <v>-6.7271041935509999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="11">
-        <v>37.882563223879998</v>
-      </c>
-      <c r="E61" s="11">
-        <v>1.329110267988</v>
-      </c>
-      <c r="F61" s="11">
-        <v>-6.1411678273090002</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="8">
+      <c r="D62" s="11">
+        <v>37.88239076731</v>
+      </c>
+      <c r="E62" s="11">
+        <v>1.3310574225309999</v>
+      </c>
+      <c r="F62" s="11">
+        <v>-6.1399460078760004</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="8">
         <v>2020</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="9">
-        <v>36.553452955893</v>
-      </c>
-      <c r="E62" s="9">
-        <v>1.1632385186750001</v>
-      </c>
-      <c r="F62" s="9">
-        <v>-9.0677803801970001</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="10">
+      <c r="D63" s="9">
+        <v>36.551333344779003</v>
+      </c>
+      <c r="E63" s="9">
+        <v>1.1680052887920001</v>
+      </c>
+      <c r="F63" s="9">
+        <v>-9.0695810586229992</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="11">
-        <v>35.390214437216997</v>
-      </c>
-      <c r="E63" s="11">
-        <v>1.055704315327</v>
-      </c>
-      <c r="F63" s="11">
-        <v>-8.6363523670560003</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="8">
+      <c r="D64" s="11">
+        <v>35.383328055985999</v>
+      </c>
+      <c r="E64" s="11">
+        <v>1.049647155273</v>
+      </c>
+      <c r="F64" s="11">
+        <v>-8.6388357808279999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="8">
         <v>2020</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="9">
-        <v>34.334510121891</v>
-      </c>
-      <c r="E64" s="9">
-        <v>2.6284176257919998</v>
-      </c>
-      <c r="F64" s="9">
-        <v>-8.7973273759529995</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="10">
+      <c r="D65" s="9">
+        <v>34.333680900712999</v>
+      </c>
+      <c r="E65" s="9">
+        <v>2.6271773801860001</v>
+      </c>
+      <c r="F65" s="9">
+        <v>-8.79826402594</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="10">
         <v>2020</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="11">
-        <v>31.706092496099</v>
-      </c>
-      <c r="E65" s="11">
-        <v>0.56177195867800001</v>
-      </c>
-      <c r="F65" s="11">
-        <v>-11.638685613367</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="8">
+      <c r="D66" s="11">
+        <v>31.706503520527999</v>
+      </c>
+      <c r="E66" s="11">
+        <v>0.55915565728399996</v>
+      </c>
+      <c r="F66" s="11">
+        <v>-11.639073364293999</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="8">
         <v>2020</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="9">
-        <v>31.144320537420999</v>
-      </c>
-      <c r="E66" s="9">
-        <v>-0.93410761981400003</v>
-      </c>
-      <c r="F66" s="9">
-        <v>-13.13089064987</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="10">
+      <c r="D67" s="9">
+        <v>31.147347863242999</v>
+      </c>
+      <c r="E67" s="9">
+        <v>-0.93215049859400001</v>
+      </c>
+      <c r="F67" s="9">
+        <v>-13.130478447068</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="10">
         <v>2020</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="11">
-        <v>32.078428157235003</v>
-      </c>
-      <c r="E67" s="11">
-        <v>-10.225617328219</v>
-      </c>
-      <c r="F67" s="11">
-        <v>-13.361068841203</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="8">
+      <c r="D68" s="11">
+        <v>32.079498361836997</v>
+      </c>
+      <c r="E68" s="11">
+        <v>-10.225832990072</v>
+      </c>
+      <c r="F68" s="11">
+        <v>-13.360571315713001</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="8">
         <v>2020</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="9">
-        <v>42.304045485453997</v>
-      </c>
-      <c r="E68" s="9">
-        <v>-1.5160078663679999</v>
-      </c>
-      <c r="F68" s="9">
-        <v>-4.5067482644980004</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="10">
+      <c r="D69" s="9">
+        <v>42.305331351908997</v>
+      </c>
+      <c r="E69" s="9">
+        <v>-1.5157144070849999</v>
+      </c>
+      <c r="F69" s="9">
+        <v>-4.5056107723240002</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="10">
         <v>2020</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="11">
-        <v>43.820053351821997</v>
-      </c>
-      <c r="E69" s="11">
-        <v>6.2141516780000003E-2</v>
-      </c>
-      <c r="F69" s="11">
-        <v>-4.6711655000999999</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="12">
+      <c r="D70" s="11">
+        <v>43.821045758994003</v>
+      </c>
+      <c r="E70" s="11">
+        <v>6.2550203474999996E-2</v>
+      </c>
+      <c r="F70" s="11">
+        <v>-4.6701626599240003</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="12">
         <v>2020</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="13">
-        <v>43.757911835042997</v>
-      </c>
-      <c r="E70" s="13">
-        <v>0.54489858396699997</v>
-      </c>
-      <c r="F70" s="13">
-        <v>-1.8895074274799999</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="15">
+      <c r="D71" s="13">
+        <v>43.758495555518998</v>
+      </c>
+      <c r="E71" s="13">
+        <v>0.54526220671400005</v>
+      </c>
+      <c r="F71" s="13">
+        <v>-1.8889783522450001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="15">
         <v>2019</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="16">
-        <v>43.213013251074997</v>
-      </c>
-      <c r="E71" s="16">
-        <v>-0.75873667213999996</v>
-      </c>
-      <c r="F71" s="16">
-        <v>-1.095017589025</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="8">
+      <c r="D72" s="16">
+        <v>43.213233348804998</v>
+      </c>
+      <c r="E72" s="16">
+        <v>-0.75854209658899996</v>
+      </c>
+      <c r="F72" s="16">
+        <v>-1.0947716978299999</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="8">
         <v>2019</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="9">
-        <v>43.971749923215</v>
-      </c>
-      <c r="E72" s="9">
-        <v>-5.1981127974000001E-2</v>
-      </c>
-      <c r="F72" s="9">
-        <v>2.3087828420280001</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="10">
+      <c r="D73" s="9">
+        <v>43.971775445394002</v>
+      </c>
+      <c r="E73" s="9">
+        <v>-5.0561329792000002E-2</v>
+      </c>
+      <c r="F73" s="9">
+        <v>2.308700296809</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="11">
-        <v>44.023731051189003</v>
-      </c>
-      <c r="E73" s="11">
-        <v>-1.5975022849</v>
-      </c>
-      <c r="F73" s="11">
-        <v>1.4926549634790001</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="8">
+      <c r="D74" s="11">
+        <v>44.022336775185998</v>
+      </c>
+      <c r="E74" s="11">
+        <v>-1.598577628216</v>
+      </c>
+      <c r="F74" s="11">
+        <v>1.4920035952049999</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="8">
         <v>2019</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="9">
-        <v>45.621233336088999</v>
-      </c>
-      <c r="E74" s="9">
-        <v>1.594666531816</v>
-      </c>
-      <c r="F74" s="9">
-        <v>3.2034039397990002</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="10">
+      <c r="D75" s="9">
+        <v>45.620914403401997</v>
+      </c>
+      <c r="E75" s="9">
+        <v>1.598750566588</v>
+      </c>
+      <c r="F75" s="9">
+        <v>3.203108148224</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="11">
-        <v>44.026566804273003</v>
-      </c>
-      <c r="E75" s="11">
-        <v>0.89472930643000004</v>
-      </c>
-      <c r="F75" s="11">
-        <v>0.96330939458300002</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="8">
+      <c r="D76" s="11">
+        <v>44.022163836814002</v>
+      </c>
+      <c r="E76" s="11">
+        <v>0.89021891016099997</v>
+      </c>
+      <c r="F76" s="11">
+        <v>0.96079212797199998</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="8">
         <v>2019</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="9">
-        <v>43.131837497843001</v>
-      </c>
-      <c r="E76" s="9">
-        <v>-0.21294061162200001</v>
-      </c>
-      <c r="F76" s="9">
-        <v>5.6507456589999998E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="10">
+      <c r="D77" s="9">
+        <v>43.131944926652999</v>
+      </c>
+      <c r="E77" s="9">
+        <v>-0.21363195816899999</v>
+      </c>
+      <c r="F77" s="9">
+        <v>5.6325574779E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="10">
         <v>2019</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D77" s="11">
-        <v>43.344778109464997</v>
-      </c>
-      <c r="E77" s="11">
-        <v>-0.93043307782600004</v>
-      </c>
-      <c r="F77" s="11">
-        <v>6.4826053088910003</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="8">
+      <c r="D78" s="11">
+        <v>43.345576884822002</v>
+      </c>
+      <c r="E78" s="11">
+        <v>-0.93224942548900003</v>
+      </c>
+      <c r="F78" s="11">
+        <v>6.482829638778</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="8">
         <v>2019</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D79" s="9">
         <v>44.275211187290999</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E79" s="9">
         <v>-1.164285811147</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F79" s="9">
         <v>7.7693334753199998</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="10">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="10">
         <v>2019</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <v>45.439496998438003</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E80" s="11">
         <v>-1.371296751514</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F80" s="11">
         <v>9.7297615183880009</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="8">
+    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="8">
         <v>2019</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="9">
         <v>46.810793749951998</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E81" s="9">
         <v>-1.6804251019700001</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F81" s="9">
         <v>12.078375993917</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="10">
+    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="10">
         <v>2019</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <v>48.491218851922</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E82" s="11">
         <v>2.8437995894000001</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F82" s="11">
         <v>13.748801695771</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="12">
+    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="12">
         <v>2019</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D83" s="13">
         <v>45.647419262522</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E83" s="13">
         <v>1.3393884224220001</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F83" s="13">
         <v>11.016117117361</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="10">
+    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <v>44.308030840100997</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E84" s="11">
         <v>2.6450637589129999</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F84" s="11">
         <v>8.4326068750399994</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="8">
+    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="8">
         <v>2018</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D85" s="9">
         <v>41.662967081186999</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E85" s="9">
         <v>-0.86810900652199996</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F85" s="9">
         <v>5.0251326135449998</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="10">
+    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <v>42.531076087709998</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E86" s="11">
         <v>0.113246691419</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F86" s="11">
         <v>6.0116022715039996</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="8">
+    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="8">
         <v>2018</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D87" s="9">
         <v>42.417829396290998</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E87" s="9">
         <v>-0.6454280134</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F87" s="9">
         <v>5.3860172150099999</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="10">
+    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <v>43.063257409690998</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E88" s="11">
         <v>-1.2072631562000001E-2</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F88" s="11">
         <v>6.5449519449829996</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="8">
+    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="8">
         <v>2018</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D89" s="9">
         <v>43.075330041252997</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E89" s="9">
         <v>6.2131572406790001</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F89" s="9">
         <v>6.8562503959710002</v>
       </c>
     </row>
-    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="10">
+    <row r="90" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="10">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="11">
         <v>36.862172800574001</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E90" s="11">
         <v>0.35629508860300002</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F90" s="11">
         <v>1.2301791143080001</v>
       </c>
     </row>
-    <row r="90" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="8">
+    <row r="91" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="8">
         <v>2018</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C91" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D91" s="9">
         <v>36.505877711971003</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E91" s="9">
         <v>0.79614223192</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F91" s="9">
         <v>0.91136854763099995</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="10">
+    <row r="92" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="10">
         <v>2018</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D92" s="11">
         <v>35.709735480051002</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E92" s="11">
         <v>0.97731772401500006</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F92" s="11">
         <v>0.62904383414800003</v>
       </c>
-      <c r="G91" s="18"/>
-    </row>
-    <row r="92" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="8">
+      <c r="G92" s="18"/>
+    </row>
+    <row r="93" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="8">
         <v>2018</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C93" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D93" s="9">
         <v>34.732417756036</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E93" s="9">
         <v>-9.9994001149999994E-3</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F93" s="9">
         <v>0.53236820032700005</v>
       </c>
-      <c r="G92" s="18"/>
-    </row>
-    <row r="93" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="10">
+      <c r="G93" s="18"/>
+    </row>
+    <row r="94" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="10">
         <v>2018</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C94" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="11">
+      <c r="D94" s="11">
         <v>34.742417156150999</v>
       </c>
-      <c r="E93" s="11">
+      <c r="E94" s="11">
         <v>0.11111501099</v>
       </c>
-      <c r="F93" s="11">
+      <c r="F94" s="11">
         <v>2.5917839856640001</v>
       </c>
-      <c r="G93" s="18"/>
-    </row>
-    <row r="94" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="8">
+      <c r="G94" s="18"/>
+    </row>
+    <row r="95" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="8">
         <v>2018</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C95" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D95" s="9">
         <v>34.631302145161001</v>
       </c>
-      <c r="E94" s="9">
+      <c r="E95" s="9">
         <v>-1.2441218198990001</v>
       </c>
-      <c r="F94" s="9">
+      <c r="F95" s="9">
         <v>6.0254417458010003</v>
       </c>
-      <c r="G94" s="18"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B95" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="G95" s="18"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B96" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B97" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="18"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B97" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="18"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B98" s="3" t="s">
-        <v>23</v>
+      <c r="B98" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="18"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B99" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B100" s="20"/>
+      <c r="B100" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B101" s="20"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E102" s="21"/>
-      <c r="F102" s="21"/>
+      <c r="B102" s="20"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E103" s="21"/>
       <c r="F103" s="21"/>
     </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E102:F102"/>
     <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ICC.xlsx
+++ b/ICC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7BB6FC-FF94-41CC-A400-55ABE5E2CF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4EEA3A-C41D-419B-B1C8-443AB3862B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_7" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="25">
   <si>
     <t>Mes</t>
   </si>
@@ -168,7 +168,7 @@
     </r>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -563,8 +563,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F95" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B4:F95" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F96" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B4:F96" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -806,9 +806,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N104"/>
+  <dimension ref="B2:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -871,20 +871,20 @@
       <c r="M4"/>
     </row>
     <row r="5" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>2025</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="9">
-        <v>45.907835494022002</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.43489682365900001</v>
-      </c>
-      <c r="F5" s="9">
-        <v>-1.1759262212870001</v>
+      <c r="C5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11">
+        <v>46.729226198557001</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.72978214763799998</v>
+      </c>
+      <c r="F5" s="11">
+        <v>-0.69425379002400001</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -894,20 +894,20 @@
       <c r="M5"/>
     </row>
     <row r="6" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>2025</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="11">
-        <v>45.472938670363</v>
-      </c>
-      <c r="E6" s="11">
-        <v>-1.0344707401019999</v>
-      </c>
-      <c r="F6" s="11">
-        <v>-2.2080731861360001</v>
+      <c r="C6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9">
+        <v>45.999444050919003</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.46091070622300001</v>
+      </c>
+      <c r="F6" s="9">
+        <v>-1.154810514137</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -917,20 +917,20 @@
       <c r="M6"/>
     </row>
     <row r="7" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <v>2025</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="9">
-        <v>46.507409410465002</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1.1041856648149999</v>
-      </c>
-      <c r="F7" s="9">
-        <v>-0.23058736053500001</v>
+      <c r="C7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="11">
+        <v>45.538533344695999</v>
+      </c>
+      <c r="E7" s="11">
+        <v>-1.020047651754</v>
+      </c>
+      <c r="F7" s="11">
+        <v>-2.194704365537</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -940,20 +940,20 @@
       <c r="M7"/>
     </row>
     <row r="8" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>2025</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="11">
-        <v>45.403223745650003</v>
-      </c>
-      <c r="E8" s="11">
-        <v>-0.58335430998000004</v>
-      </c>
-      <c r="F8" s="11">
-        <v>-2.1690453406180001</v>
+      <c r="C8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9">
+        <v>46.558580996449997</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1.1272314012260001</v>
+      </c>
+      <c r="F8" s="9">
+        <v>-0.22714983185099999</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -963,20 +963,20 @@
       <c r="M8"/>
     </row>
     <row r="9" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="8">
+      <c r="B9" s="10">
         <v>2025</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="9">
-        <v>45.986578055629998</v>
-      </c>
-      <c r="E9" s="9">
-        <v>-0.33417187836000001</v>
-      </c>
-      <c r="F9" s="9">
-        <v>-1.323823456225</v>
+      <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="11">
+        <v>45.431349595223999</v>
+      </c>
+      <c r="E9" s="11">
+        <v>-0.57277428640899997</v>
+      </c>
+      <c r="F9" s="11">
+        <v>-2.1642931609180001</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -986,20 +986,20 @@
       <c r="M9"/>
     </row>
     <row r="10" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>2025</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="11">
-        <v>46.320749933990001</v>
-      </c>
-      <c r="E10" s="11">
-        <v>-0.26657332677399997</v>
-      </c>
-      <c r="F10" s="11">
-        <v>-0.78543003119099997</v>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9">
+        <v>46.004123881632999</v>
+      </c>
+      <c r="E10" s="9">
+        <v>-0.325701026329</v>
+      </c>
+      <c r="F10" s="9">
+        <v>-1.3202091894820001</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
@@ -1009,20 +1009,20 @@
       <c r="M10"/>
     </row>
     <row r="11" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>2025</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="13">
-        <v>46.587323260764002</v>
-      </c>
-      <c r="E11" s="13">
-        <v>-0.34785352963100002</v>
-      </c>
-      <c r="F11" s="13">
-        <v>-0.41871983122</v>
+      <c r="C11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="11">
+        <v>46.329824907963001</v>
+      </c>
+      <c r="E11" s="11">
+        <v>-0.259370684776</v>
+      </c>
+      <c r="F11" s="11">
+        <v>-0.78134417102099996</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
@@ -1032,20 +1032,20 @@
       <c r="M11"/>
     </row>
     <row r="12" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="11">
-        <v>46.935176790394998</v>
-      </c>
-      <c r="E12" s="11">
-        <v>-0.54468307303200003</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0.18691080191500001</v>
+      <c r="B12" s="12">
+        <v>2025</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="13">
+        <v>46.589195592739003</v>
+      </c>
+      <c r="E12" s="13">
+        <v>-0.33947706654400001</v>
+      </c>
+      <c r="F12" s="13">
+        <v>-0.41455248086500002</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
@@ -1055,20 +1055,20 @@
       <c r="M12"/>
     </row>
     <row r="13" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="8">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="9">
-        <v>47.479859863427002</v>
-      </c>
-      <c r="E13" s="9">
-        <v>-1.741759786007</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0.46261626774600001</v>
+      <c r="C13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="11">
+        <v>46.928672659283002</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-0.53373404301799998</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.189156073437</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
@@ -1078,20 +1078,20 @@
       <c r="M13"/>
     </row>
     <row r="14" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="11">
-        <v>49.221619649433997</v>
-      </c>
-      <c r="E14" s="11">
-        <v>2.1313602754629999</v>
-      </c>
-      <c r="F14" s="11">
-        <v>3.316431270546</v>
+      <c r="C14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9">
+        <v>47.462406702301003</v>
+      </c>
+      <c r="E14" s="9">
+        <v>-1.744159682207</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.46385407595400002</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
@@ -1100,1440 +1100,1463 @@
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="8">
+    <row r="15" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="11">
+        <v>49.206566384508001</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2.1730535945630001</v>
+      </c>
+      <c r="F15" s="11">
+        <v>3.3145012791399999</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B16" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="9">
-        <v>47.090259373972003</v>
-      </c>
-      <c r="E15" s="9">
-        <v>-0.46657721490699999</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0.19988769763700001</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="10">
+      <c r="D16" s="9">
+        <v>47.033512789946002</v>
+      </c>
+      <c r="E16" s="9">
+        <v>-0.38996719863500001</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.183086217336</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="10">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="11">
-        <v>47.556836588879001</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0.47307487357</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0.82321625413199995</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="8">
+      <c r="D17" s="11">
+        <v>47.423479988581001</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.26922542352500001</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.75876853037500003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="8">
         <v>2024</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="9">
-        <v>47.083761715309002</v>
-      </c>
-      <c r="E17" s="9">
-        <v>-0.59725014118999997</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0.61815739617400001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="10">
+      <c r="D18" s="9">
+        <v>47.154254565056</v>
+      </c>
+      <c r="E18" s="9">
+        <v>-0.578983145177</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.65069917650200004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="10">
         <v>2024</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="11">
-        <v>47.681011856498998</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0.94301508549900004</v>
-      </c>
-      <c r="F18" s="11">
-        <v>2.2553322940379998</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="8">
+      <c r="D19" s="11">
+        <v>47.733237710232999</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.94750688193199994</v>
+      </c>
+      <c r="F19" s="11">
+        <v>2.2781573785310001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="8">
         <v>2024</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="9">
-        <v>46.737996770999999</v>
-      </c>
-      <c r="E19" s="9">
-        <v>-0.83427231526800005</v>
-      </c>
-      <c r="F19" s="9">
-        <v>1.946818326389</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="10">
+      <c r="D20" s="9">
+        <v>46.785730828300998</v>
+      </c>
+      <c r="E20" s="9">
+        <v>-0.80991192784099997</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1.9536411456839999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="10">
         <v>2024</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="11">
-        <v>47.572269086268001</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0.26186757441300001</v>
-      </c>
-      <c r="F20" s="11">
-        <v>3.240256996127</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="8">
+      <c r="D21" s="11">
+        <v>47.595642756141999</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.271309685026</v>
+      </c>
+      <c r="F21" s="11">
+        <v>3.2490963337899998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="8">
         <v>2024</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="9">
-        <v>47.310401511854998</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0.204221546674</v>
-      </c>
-      <c r="F21" s="9">
-        <v>2.8063306567359998</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="10">
+      <c r="D22" s="9">
+        <v>47.324333071116001</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.21316399213199999</v>
+      </c>
+      <c r="F22" s="9">
+        <v>2.811881898652</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="10">
         <v>2024</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="11">
-        <v>47.106179965180999</v>
-      </c>
-      <c r="E22" s="11">
-        <v>0.10013687319800001</v>
-      </c>
-      <c r="F22" s="11">
-        <v>2.3270429965620001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="12">
+      <c r="D23" s="11">
+        <v>47.111169078983004</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.10742100538</v>
+      </c>
+      <c r="F23" s="11">
+        <v>2.330449407333</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="12">
         <v>2024</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="13">
-        <v>47.006043091983997</v>
-      </c>
-      <c r="E23" s="13">
-        <v>0.25777710350400002</v>
-      </c>
-      <c r="F23" s="13">
-        <v>2.7406216202740001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="14">
+      <c r="D24" s="13">
+        <v>47.003748073604001</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0.26423148775799998</v>
+      </c>
+      <c r="F24" s="13">
+        <v>2.7422928959999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="14">
         <v>2023</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="16">
-        <v>46.74826598848</v>
-      </c>
-      <c r="E24" s="16">
-        <v>-0.268977607201</v>
-      </c>
-      <c r="F24" s="17">
-        <v>3.9348924885610002</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="8">
+      <c r="D25" s="16">
+        <v>46.739516585845998</v>
+      </c>
+      <c r="E25" s="16">
+        <v>-0.25903604050099999</v>
+      </c>
+      <c r="F25" s="17">
+        <v>3.9340264576470001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="8">
         <v>2023</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="9">
-        <v>47.017243595681002</v>
-      </c>
-      <c r="E25" s="9">
-        <v>1.112055216793</v>
-      </c>
-      <c r="F25" s="9">
-        <v>5.0956339264389996</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="10">
+      <c r="D26" s="9">
+        <v>46.998552626346999</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1.1064875209789999</v>
+      </c>
+      <c r="F26" s="9">
+        <v>5.0921829076279996</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="11">
-        <v>45.905188378887999</v>
-      </c>
-      <c r="E26" s="11">
-        <v>-0.98518329744599997</v>
-      </c>
-      <c r="F26" s="11">
-        <v>4.4979715336100003</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="8">
+      <c r="D27" s="11">
+        <v>45.892065105368999</v>
+      </c>
+      <c r="E27" s="11">
+        <v>-0.95836146724100002</v>
+      </c>
+      <c r="F27" s="11">
+        <v>4.4942307919340001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="8">
         <v>2023</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="9">
-        <v>46.890371676335</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0.156751341588</v>
-      </c>
-      <c r="F27" s="9">
-        <v>5.6724419744569996</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="10">
+      <c r="D28" s="9">
+        <v>46.850426572609003</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0.18571511440300001</v>
+      </c>
+      <c r="F28" s="9">
+        <v>5.6526919827929998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="10">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="11">
-        <v>46.733620334747002</v>
-      </c>
-      <c r="E28" s="11">
-        <v>0.268016015612</v>
-      </c>
-      <c r="F28" s="11">
-        <v>5.8576131591160001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="8">
+      <c r="D29" s="11">
+        <v>46.664711458206</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.16115606965199999</v>
+      </c>
+      <c r="F29" s="11">
+        <v>5.8110656630089998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="8">
         <v>2023</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="9">
-        <v>46.465604319134002</v>
-      </c>
-      <c r="E29" s="9">
-        <v>1.0399247566730001</v>
-      </c>
-      <c r="F29" s="9">
-        <v>5.1787985906870002</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="10">
+      <c r="D30" s="9">
+        <v>46.503555388553998</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1.048475056852</v>
+      </c>
+      <c r="F30" s="9">
+        <v>5.2044105847470004</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="10">
         <v>2023</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="11">
-        <v>45.425679562460999</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0.63450111784999996</v>
-      </c>
-      <c r="F30" s="11">
-        <v>2.6608363897270002</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="8">
+      <c r="D31" s="11">
+        <v>45.455080331702</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0.62299064908500001</v>
+      </c>
+      <c r="F31" s="11">
+        <v>2.67744227238</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="8">
         <v>2023</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="9">
-        <v>44.791178444610999</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0.45916635447100002</v>
-      </c>
-      <c r="F31" s="9">
-        <v>0.79471170950000003</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="10">
+      <c r="D32" s="9">
+        <v>44.832089682617003</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.485543260265</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0.80406569319999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="10">
         <v>2023</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="11">
-        <v>44.332012090140999</v>
-      </c>
-      <c r="E32" s="11">
-        <v>-0.17205876497799999</v>
-      </c>
-      <c r="F32" s="11">
-        <v>0.330253708674</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="8">
+      <c r="D33" s="11">
+        <v>44.346546422351999</v>
+      </c>
+      <c r="E33" s="11">
+        <v>-0.16590475011200001</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0.33629244491400001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="8">
         <v>2023</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="9">
-        <v>44.504070855118997</v>
-      </c>
-      <c r="E33" s="9">
-        <v>-0.27506611349999999</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0.90185930115400004</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="10">
+      <c r="D34" s="9">
+        <v>44.512451172463997</v>
+      </c>
+      <c r="E34" s="9">
+        <v>-0.26826849918700002</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0.90560428913799995</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="10">
         <v>2023</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="11">
-        <v>44.779136968619</v>
-      </c>
-      <c r="E34" s="11">
-        <v>0.51371549690999996</v>
-      </c>
-      <c r="F34" s="11">
-        <v>1.609879118761</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="12">
+      <c r="D35" s="11">
+        <v>44.780719671649997</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0.51926449404700004</v>
+      </c>
+      <c r="F35" s="11">
+        <v>1.6115382754580001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="12">
         <v>2023</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="13">
-        <v>44.265421471708997</v>
-      </c>
-      <c r="E35" s="13">
-        <v>1.452047971791</v>
-      </c>
-      <c r="F35" s="13">
-        <v>1.2003089058900001</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="10">
+      <c r="D36" s="13">
+        <v>44.261455177602997</v>
+      </c>
+      <c r="E36" s="13">
+        <v>1.455965049404</v>
+      </c>
+      <c r="F36" s="13">
+        <v>1.200132691568</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="11">
-        <v>42.813373499919003</v>
-      </c>
-      <c r="E36" s="11">
-        <v>0.89176383067700005</v>
-      </c>
-      <c r="F36" s="11">
-        <v>-1.566169331819</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="8">
+      <c r="D37" s="11">
+        <v>42.805490128198997</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0.89912040948000005</v>
+      </c>
+      <c r="F37" s="11">
+        <v>-1.5676370044929999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="8">
         <v>2022</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="9">
-        <v>41.921609669242002</v>
-      </c>
-      <c r="E37" s="9">
-        <v>0.51439282396399999</v>
-      </c>
-      <c r="F37" s="9">
-        <v>-4.2698657784430001</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="10">
+      <c r="D38" s="9">
+        <v>41.906369718718999</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0.50853540528399999</v>
+      </c>
+      <c r="F38" s="9">
+        <v>-4.2724816022859997</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="11">
-        <v>41.407216845278001</v>
-      </c>
-      <c r="E38" s="11">
-        <v>0.189287143401</v>
-      </c>
-      <c r="F38" s="11">
-        <v>-2.4784557435879999</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="8">
+      <c r="D39" s="11">
+        <v>41.397834313434998</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0.200099723619</v>
+      </c>
+      <c r="F39" s="11">
+        <v>-2.4805426603849998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="8">
         <v>2022</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="9">
-        <v>41.217929701876997</v>
-      </c>
-      <c r="E39" s="9">
-        <v>0.34192252624699998</v>
-      </c>
-      <c r="F39" s="9">
-        <v>-2.5033374851870001</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="10">
+      <c r="D40" s="9">
+        <v>41.197734589816001</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0.34408879461899999</v>
+      </c>
+      <c r="F40" s="9">
+        <v>-2.5162409385750002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="10">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="11">
-        <v>40.876007175631003</v>
-      </c>
-      <c r="E40" s="11">
-        <v>-0.41079855281700001</v>
-      </c>
-      <c r="F40" s="11">
-        <v>-2.1343521018030001</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="8">
+      <c r="D41" s="11">
+        <v>40.853645795196996</v>
+      </c>
+      <c r="E41" s="11">
+        <v>-0.44549900860899999</v>
+      </c>
+      <c r="F41" s="11">
+        <v>-2.1507696100459999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="8">
         <v>2022</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="9">
-        <v>41.286805728448002</v>
-      </c>
-      <c r="E41" s="9">
-        <v>-1.4780374442869999</v>
-      </c>
-      <c r="F41" s="9">
-        <v>-2.974168436442</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="10">
+      <c r="D42" s="9">
+        <v>41.299144803807003</v>
+      </c>
+      <c r="E42" s="9">
+        <v>-1.4784932555150001</v>
+      </c>
+      <c r="F42" s="9">
+        <v>-2.9614131705740001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="10">
         <v>2022</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="11">
-        <v>42.764843172733997</v>
-      </c>
-      <c r="E42" s="11">
-        <v>-1.231623562377</v>
-      </c>
-      <c r="F42" s="11">
-        <v>-1.153416578436</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="8">
+      <c r="D43" s="11">
+        <v>42.777638059322001</v>
+      </c>
+      <c r="E43" s="11">
+        <v>-1.2503859300960001</v>
+      </c>
+      <c r="F43" s="11">
+        <v>-1.1440368194849999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="8">
         <v>2022</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="9">
-        <v>43.996466735110999</v>
-      </c>
-      <c r="E43" s="9">
-        <v>-5.291646356E-3</v>
-      </c>
-      <c r="F43" s="9">
-        <v>1.3736074783909999</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="10">
+      <c r="D44" s="9">
+        <v>44.028023989417001</v>
+      </c>
+      <c r="E44" s="9">
+        <v>1.7770011979000001E-2</v>
+      </c>
+      <c r="F44" s="9">
+        <v>1.380265985614</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="10">
         <v>2022</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="11">
-        <v>44.001758381466999</v>
-      </c>
-      <c r="E44" s="11">
-        <v>0.39954682750199999</v>
-      </c>
-      <c r="F44" s="11">
-        <v>1.7719215513519999</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="8">
+      <c r="D45" s="11">
+        <v>44.010253977437998</v>
+      </c>
+      <c r="E45" s="11">
+        <v>0.40340709411300002</v>
+      </c>
+      <c r="F45" s="11">
+        <v>1.777142185028</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="8">
         <v>2022</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="9">
-        <v>43.602211553964999</v>
-      </c>
-      <c r="E45" s="9">
-        <v>0.43295370410700001</v>
-      </c>
-      <c r="F45" s="9">
-        <v>2.8964312304359998</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="10">
+      <c r="D46" s="9">
+        <v>43.606846883324998</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0.43766548713300002</v>
+      </c>
+      <c r="F46" s="9">
+        <v>2.8996347764560002</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="10">
         <v>2022</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="11">
-        <v>43.169257849857999</v>
-      </c>
-      <c r="E46" s="11">
-        <v>0.104145284038</v>
-      </c>
-      <c r="F46" s="11">
-        <v>4.2158879599160004</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="12">
+      <c r="D47" s="11">
+        <v>43.169181396192002</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0.107858910157</v>
+      </c>
+      <c r="F47" s="11">
+        <v>4.2165424723470002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="12">
         <v>2022</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="13">
-        <v>43.065112565820002</v>
-      </c>
-      <c r="E47" s="13">
-        <v>-1.3144302659180001</v>
-      </c>
-      <c r="F47" s="13">
-        <v>4.2472243924380004</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="15">
+      <c r="D48" s="13">
+        <v>43.061322486035998</v>
+      </c>
+      <c r="E48" s="13">
+        <v>-1.3118046466560001</v>
+      </c>
+      <c r="F48" s="13">
+        <v>4.2456240718859997</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="15">
         <v>2021</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="16">
-        <v>44.379542831738</v>
-      </c>
-      <c r="E48" s="16">
-        <v>-1.8119326159469999</v>
-      </c>
-      <c r="F48" s="16">
-        <v>6.096162611444</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="8">
+      <c r="D49" s="16">
+        <v>44.373127132691998</v>
+      </c>
+      <c r="E49" s="16">
+        <v>-1.805724188313</v>
+      </c>
+      <c r="F49" s="16">
+        <v>6.0927276108750004</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="8">
         <v>2021</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="9">
-        <v>46.191475447685001</v>
-      </c>
-      <c r="E49" s="9">
-        <v>2.3058028588189998</v>
-      </c>
-      <c r="F49" s="9">
-        <v>8.9468041958420006</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="10">
+      <c r="D50" s="9">
+        <v>46.178851321004998</v>
+      </c>
+      <c r="E50" s="9">
+        <v>2.3004743471859999</v>
+      </c>
+      <c r="F50" s="9">
+        <v>8.9403404558369992</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="11">
-        <v>43.885672588866001</v>
-      </c>
-      <c r="E50" s="11">
-        <v>0.164405401801</v>
-      </c>
-      <c r="F50" s="11">
-        <v>6.0032818215560004</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="8">
+      <c r="D51" s="11">
+        <v>43.878376973819996</v>
+      </c>
+      <c r="E51" s="11">
+        <v>0.16440144542900001</v>
+      </c>
+      <c r="F51" s="11">
+        <v>6.0001427206309996</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="8">
         <v>2021</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="9">
-        <v>43.721267187065003</v>
-      </c>
-      <c r="E51" s="9">
-        <v>0.71090790963100003</v>
-      </c>
-      <c r="F51" s="9">
-        <v>7.1699338422860004</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="10">
+      <c r="D52" s="9">
+        <v>43.713975528391003</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0.70956012314700001</v>
+      </c>
+      <c r="F52" s="9">
+        <v>7.1648391562880001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="10">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="11">
-        <v>43.010359277433999</v>
-      </c>
-      <c r="E52" s="11">
-        <v>-1.2506148874559999</v>
-      </c>
-      <c r="F52" s="11">
-        <v>7.627031221447</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="8">
+      <c r="D53" s="11">
+        <v>43.004415405243002</v>
+      </c>
+      <c r="E53" s="11">
+        <v>-1.2561425691370001</v>
+      </c>
+      <c r="F53" s="11">
+        <v>7.6236793275909998</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="8">
         <v>2021</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="9">
-        <v>44.260974164888999</v>
-      </c>
-      <c r="E53" s="9">
-        <v>0.34271441371900002</v>
-      </c>
-      <c r="F53" s="9">
-        <v>9.9272932641760008</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="10">
+      <c r="D54" s="9">
+        <v>44.260557974379999</v>
+      </c>
+      <c r="E54" s="9">
+        <v>0.33888309557399998</v>
+      </c>
+      <c r="F54" s="9">
+        <v>9.9269143194139993</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="10">
         <v>2021</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="11">
-        <v>43.918259751169998</v>
-      </c>
-      <c r="E54" s="11">
-        <v>1.295400494451</v>
-      </c>
-      <c r="F54" s="11">
-        <v>12.211756230642999</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="8">
+      <c r="D55" s="11">
+        <v>43.921674878806002</v>
+      </c>
+      <c r="E55" s="11">
+        <v>1.2739168750030001</v>
+      </c>
+      <c r="F55" s="11">
+        <v>12.213903815870999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="8">
         <v>2021</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="9">
-        <v>42.622859256719998</v>
-      </c>
-      <c r="E55" s="9">
-        <v>0.39302242660499997</v>
-      </c>
-      <c r="F55" s="9">
-        <v>11.475511393476999</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="10">
+      <c r="D56" s="9">
+        <v>42.647758003802998</v>
+      </c>
+      <c r="E56" s="9">
+        <v>0.41464621139199997</v>
+      </c>
+      <c r="F56" s="9">
+        <v>11.488521100811001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="10">
         <v>2021</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <v>42.229836830114003</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E57" s="11">
         <v>1.524056506585</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F57" s="11">
         <v>10.150338468277001</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="8">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="8">
         <v>2021</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D58" s="9">
         <v>40.70578032353</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E58" s="9">
         <v>1.752410433588</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F58" s="9">
         <v>-1.5995510283800001</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="10">
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="10">
         <v>2021</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>38.953369889942003</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="11">
         <v>0.135481716561</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F59" s="11">
         <v>-4.8676758690520003</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="12">
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="12">
         <v>2021</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D60" s="13">
         <v>38.817888173381</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E60" s="13">
         <v>0.53450795308700005</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>-4.9406073821380003</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="15">
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="15">
         <v>2020</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D61" s="16">
         <v>38.283380220295001</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E61" s="16">
         <v>1.0387089684519999</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F61" s="16">
         <v>-4.9298531285099996</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="8">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="8">
         <v>2020</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D62" s="9">
         <v>37.244671251843002</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E62" s="9">
         <v>-0.63771951546799999</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F62" s="9">
         <v>-6.7271041935509999</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="10">
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>37.88239076731</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="11">
         <v>1.3310574225309999</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F63" s="11">
         <v>-6.1399460078760004</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="8">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="8">
         <v>2020</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D64" s="9">
         <v>36.551333344779003</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E64" s="9">
         <v>1.1680052887920001</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F64" s="9">
         <v>-9.0695810586229992</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="10">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="10">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <v>35.383328055985999</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="11">
         <v>1.049647155273</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F65" s="11">
         <v>-8.6388357808279999</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="8">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="8">
         <v>2020</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D66" s="9">
         <v>34.333680900712999</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E66" s="9">
         <v>2.6271773801860001</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F66" s="9">
         <v>-8.79826402594</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="10">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="10">
         <v>2020</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <v>31.706503520527999</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E67" s="11">
         <v>0.55915565728399996</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F67" s="11">
         <v>-11.639073364293999</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="8">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="8">
         <v>2020</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D68" s="9">
         <v>31.147347863242999</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E68" s="9">
         <v>-0.93215049859400001</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F68" s="9">
         <v>-13.130478447068</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="10">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="10">
         <v>2020</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <v>32.079498361836997</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E69" s="11">
         <v>-10.225832990072</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F69" s="11">
         <v>-13.360571315713001</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="8">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="8">
         <v>2020</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D70" s="9">
         <v>42.305331351908997</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E70" s="9">
         <v>-1.5157144070849999</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F70" s="9">
         <v>-4.5056107723240002</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="10">
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="10">
         <v>2020</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <v>43.821045758994003</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="11">
         <v>6.2550203474999996E-2</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="11">
         <v>-4.6701626599240003</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="12">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="12">
         <v>2020</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D72" s="13">
         <v>43.758495555518998</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E72" s="13">
         <v>0.54526220671400005</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F72" s="13">
         <v>-1.8889783522450001</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="15">
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="15">
         <v>2019</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C73" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D73" s="16">
         <v>43.213233348804998</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E73" s="16">
         <v>-0.75854209658899996</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F73" s="16">
         <v>-1.0947716978299999</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="8">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="8">
         <v>2019</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D74" s="9">
         <v>43.971775445394002</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E74" s="9">
         <v>-5.0561329792000002E-2</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F74" s="9">
         <v>2.308700296809</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="10">
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>44.022336775185998</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>-1.598577628216</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="11">
         <v>1.4920035952049999</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="8">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="8">
         <v>2019</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D76" s="9">
         <v>45.620914403401997</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E76" s="9">
         <v>1.598750566588</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F76" s="9">
         <v>3.203108148224</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="10">
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="10">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>44.022163836814002</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E77" s="11">
         <v>0.89021891016099997</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F77" s="11">
         <v>0.96079212797199998</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="8">
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="8">
         <v>2019</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D78" s="9">
         <v>43.131944926652999</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E78" s="9">
         <v>-0.21363195816899999</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F78" s="9">
         <v>5.6325574779E-2</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="10">
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="10">
         <v>2019</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <v>43.345576884822002</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E79" s="11">
         <v>-0.93224942548900003</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F79" s="11">
         <v>6.482829638778</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="8">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="8">
         <v>2019</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D80" s="9">
         <v>44.275211187290999</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E80" s="9">
         <v>-1.164285811147</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F80" s="9">
         <v>7.7693334753199998</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="10">
+    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="10">
         <v>2019</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <v>45.439496998438003</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E81" s="11">
         <v>-1.371296751514</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F81" s="11">
         <v>9.7297615183880009</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="8">
+    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="8">
         <v>2019</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D82" s="9">
         <v>46.810793749951998</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E82" s="9">
         <v>-1.6804251019700001</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F82" s="9">
         <v>12.078375993917</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="10">
+    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="10">
         <v>2019</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>48.491218851922</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="11">
         <v>2.8437995894000001</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="11">
         <v>13.748801695771</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="12">
+    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="12">
         <v>2019</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D84" s="13">
         <v>45.647419262522</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E84" s="13">
         <v>1.3393884224220001</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F84" s="13">
         <v>11.016117117361</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="10">
+    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <v>44.308030840100997</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="11">
         <v>2.6450637589129999</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F85" s="11">
         <v>8.4326068750399994</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="8">
+    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="8">
         <v>2018</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D86" s="9">
         <v>41.662967081186999</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E86" s="9">
         <v>-0.86810900652199996</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F86" s="9">
         <v>5.0251326135449998</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="10">
+    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <v>42.531076087709998</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E87" s="11">
         <v>0.113246691419</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F87" s="11">
         <v>6.0116022715039996</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="8">
+    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="8">
         <v>2018</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C88" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D88" s="9">
         <v>42.417829396290998</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E88" s="9">
         <v>-0.6454280134</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F88" s="9">
         <v>5.3860172150099999</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="10">
+    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <v>43.063257409690998</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E89" s="11">
         <v>-1.2072631562000001E-2</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F89" s="11">
         <v>6.5449519449829996</v>
       </c>
     </row>
-    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="8">
+    <row r="90" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="8">
         <v>2018</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D90" s="9">
         <v>43.075330041252997</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E90" s="9">
         <v>6.2131572406790001</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F90" s="9">
         <v>6.8562503959710002</v>
       </c>
     </row>
-    <row r="90" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="10">
+    <row r="91" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="10">
         <v>2018</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D91" s="11">
         <v>36.862172800574001</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E91" s="11">
         <v>0.35629508860300002</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F91" s="11">
         <v>1.2301791143080001</v>
       </c>
     </row>
-    <row r="91" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="8">
+    <row r="92" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="8">
         <v>2018</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C92" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D92" s="9">
         <v>36.505877711971003</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E92" s="9">
         <v>0.79614223192</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F92" s="9">
         <v>0.91136854763099995</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="10">
+    <row r="93" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="10">
         <v>2018</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C93" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D93" s="11">
         <v>35.709735480051002</v>
       </c>
-      <c r="E92" s="11">
+      <c r="E93" s="11">
         <v>0.97731772401500006</v>
       </c>
-      <c r="F92" s="11">
+      <c r="F93" s="11">
         <v>0.62904383414800003</v>
       </c>
-      <c r="G92" s="18"/>
-    </row>
-    <row r="93" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="8">
+      <c r="G93" s="18"/>
+    </row>
+    <row r="94" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="8">
         <v>2018</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C94" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D94" s="9">
         <v>34.732417756036</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E94" s="9">
         <v>-9.9994001149999994E-3</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F94" s="9">
         <v>0.53236820032700005</v>
       </c>
-      <c r="G93" s="18"/>
-    </row>
-    <row r="94" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="10">
+      <c r="G94" s="18"/>
+    </row>
+    <row r="95" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="10">
         <v>2018</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C95" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="11">
+      <c r="D95" s="11">
         <v>34.742417156150999</v>
       </c>
-      <c r="E94" s="11">
+      <c r="E95" s="11">
         <v>0.11111501099</v>
       </c>
-      <c r="F94" s="11">
+      <c r="F95" s="11">
         <v>2.5917839856640001</v>
       </c>
-      <c r="G94" s="18"/>
-    </row>
-    <row r="95" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="8">
+      <c r="G95" s="18"/>
+    </row>
+    <row r="96" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="8">
         <v>2018</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C96" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D95" s="9">
+      <c r="D96" s="9">
         <v>34.631302145161001</v>
       </c>
-      <c r="E95" s="9">
+      <c r="E96" s="9">
         <v>-1.2441218198990001</v>
       </c>
-      <c r="F95" s="9">
+      <c r="F96" s="9">
         <v>6.0254417458010003</v>
       </c>
-      <c r="G95" s="18"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B96" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="G96" s="18"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B97" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B98" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="18"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B98" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="18"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B99" s="3" t="s">
-        <v>23</v>
+      <c r="B99" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="18"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B100" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B101" s="20"/>
+      <c r="B101" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B102" s="20"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E103" s="21"/>
-      <c r="F103" s="21"/>
+      <c r="B103" s="20"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E104" s="21"/>
       <c r="F104" s="21"/>
     </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E103:F103"/>
     <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
